--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="攻击" sheetId="1" r:id="rId1"/>
+    <sheet name="防御" sheetId="2" r:id="rId2"/>
+    <sheet name="反击" sheetId="3" r:id="rId3"/>
+    <sheet name="属性" sheetId="4" r:id="rId4"/>
+    <sheet name="稳定" sheetId="5" r:id="rId5"/>
+    <sheet name="时间" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>招式</t>
   </si>
@@ -123,12 +128,153 @@
   <si>
     <t>踝关节</t>
   </si>
+  <si>
+    <t>外伤伤害</t>
+  </si>
+  <si>
+    <t>内伤伤害</t>
+  </si>
+  <si>
+    <t>攻击前摇</t>
+  </si>
+  <si>
+    <t>攻击后摇</t>
+  </si>
+  <si>
+    <t>平衡削减</t>
+  </si>
+  <si>
+    <t>攀打</t>
+  </si>
+  <si>
+    <t>推手</t>
+  </si>
+  <si>
+    <t>擒拿</t>
+  </si>
+  <si>
+    <t>双峰贯耳</t>
+  </si>
+  <si>
+    <t>鸳鸯腿</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>肘底捶</t>
+  </si>
+  <si>
+    <t>炮锤</t>
+  </si>
+  <si>
+    <t>泰拳</t>
+  </si>
+  <si>
+    <t>直拳</t>
+  </si>
+  <si>
+    <t>左右勾拳</t>
+  </si>
+  <si>
+    <t>上勾拳</t>
+  </si>
+  <si>
+    <t>肘击</t>
+  </si>
+  <si>
+    <t>膝撞</t>
+  </si>
+  <si>
+    <t>蹬腿</t>
+  </si>
+  <si>
+    <t>攻击发出部位</t>
+  </si>
+  <si>
+    <t>扫腿</t>
+  </si>
+  <si>
+    <t>几率踉跄</t>
+  </si>
+  <si>
+    <t>50%破防</t>
+  </si>
+  <si>
+    <t>第二70%破防</t>
+  </si>
+  <si>
+    <t>绊摔</t>
+  </si>
+  <si>
+    <t>30%破防</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>稳定</t>
+  </si>
+  <si>
+    <t>消耗稳定度</t>
+  </si>
+  <si>
+    <t>每秒恢复稳定</t>
+  </si>
+  <si>
+    <t>10s消耗</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>前摇</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>后摇</t>
+  </si>
+  <si>
+    <t>被动 -</t>
+  </si>
+  <si>
+    <t>主动 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被动 + </t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>每0.1秒恢复稳定</t>
+  </si>
+  <si>
+    <t>攻击力加成</t>
+  </si>
+  <si>
+    <t>暴击伤害加成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +298,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,20 +354,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,23 +718,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" customWidth="1"/>
-    <col min="16" max="21" width="5" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="5" customWidth="1"/>
+    <col min="8" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="18" width="5" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>25</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>28</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>30</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:T1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -542,8 +1302,23 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -608,7 +1383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -621,7 +1396,4062 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1">
+        <v>180</v>
+      </c>
+      <c r="E1">
+        <v>150</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3">
+        <f>D1+D2*10</f>
+        <v>260</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G3" si="0">E1+E2*10</f>
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5">
+        <f>(D3-D4)/10</f>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:G5" si="1">(E3-E4)/10</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="21" max="22" width="6.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="27" max="28" width="6.42578125" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>110</v>
+      </c>
+      <c r="X2">
+        <v>130</v>
+      </c>
+      <c r="AD2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>L2-I3-J3+K3</f>
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <f>R2-O3-P3+Q3</f>
+        <v>110</v>
+      </c>
+      <c r="X3">
+        <f>X2-U3-V3+W3</f>
+        <v>130</v>
+      </c>
+      <c r="AD3">
+        <f>AD2-AA3-AB3+AC3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="0">L3-I4-J4+K4</f>
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R67" si="1">R3-O4-P4+Q4</f>
+        <v>110</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X67" si="2">X3-U4-V4+W4</f>
+        <v>130</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD67" si="3">AD3-AA4-AB4+AC4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15">
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AB18">
+        <v>18</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26">
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28">
+        <v>2.6</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29">
+        <v>2.7</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30">
+        <v>2.8</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31">
+        <v>2.9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="U31">
+        <v>28</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AA31">
+        <v>28</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33">
+        <v>3.1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34">
+        <v>3.2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35">
+        <v>3.3</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36">
+        <v>3.4</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37">
+        <v>3.5</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38">
+        <v>3.6</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39">
+        <v>3.7</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40">
+        <v>3.8</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41">
+        <v>3.9</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P43">
+        <v>18</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="V43">
+        <v>18</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB43">
+        <v>18</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44">
+        <v>4.2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45">
+        <v>4.3</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49">
+        <v>4.7</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50">
+        <v>4.8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54">
+        <v>5.2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55">
+        <v>5.3</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56">
+        <v>5.4</v>
+      </c>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="W56">
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57">
+        <v>5.5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P57">
+        <v>18</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="V57">
+        <v>18</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AB57">
+        <v>18</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58">
+        <v>5.6</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59">
+        <v>5.7</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="9">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60">
+        <v>5.8</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61">
+        <v>5.9</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63">
+        <v>6.1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="A64">
+        <v>6.2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
+      <c r="A65">
+        <v>6.3</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66">
+        <v>6.4</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67">
+        <v>6.5</v>
+      </c>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="3"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68">
+        <v>6.6</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="L68">
+        <f t="shared" ref="L68:L112" si="4">L67-I68-J68+K68</f>
+        <v>16</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R112" si="5">R67-O68-P68+Q68</f>
+        <v>34</v>
+      </c>
+      <c r="X68">
+        <f t="shared" ref="X68:X112" si="6">X67-U68-V68+W68</f>
+        <v>62</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68:AD112" si="7">AD67-AA68-AB68+AC68</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69">
+        <v>6.7</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
+      <c r="A70">
+        <v>6.8</v>
+      </c>
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
+      <c r="A71">
+        <v>6.9</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>35</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>35</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>35</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>35</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
+      <c r="A73">
+        <v>7.1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
+      <c r="A74">
+        <v>7.2</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="A75">
+        <v>7.3</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
+      <c r="A76">
+        <v>7.4</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="9">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
+      <c r="A77">
+        <v>7.5</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
+      <c r="A78">
+        <v>7.6</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9">
+        <v>7</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
+      <c r="A79">
+        <v>7.7</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="9">
+        <v>8</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
+      <c r="A80">
+        <v>7.8</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
+      <c r="A81">
+        <v>7.9</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="9">
+        <v>10</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <f t="shared" si="7"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="7"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
+      <c r="A83">
+        <v>8.1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
+        <v>-17</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>3</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="Y83">
+        <v>2</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="7"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
+      <c r="A84">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>3</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
+      </c>
+      <c r="AC84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="7"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
+      <c r="A85">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>3</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y85">
+        <v>4</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
+      <c r="A86">
+        <v>8.4</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y86">
+        <v>5</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
+      <c r="A87">
+        <v>8.5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="9">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y87">
+        <v>6</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
+      <c r="A88">
+        <v>8.6</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="9">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M88">
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y88">
+        <v>7</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="A89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="9">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M89">
+        <v>8</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>8</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y89">
+        <v>8</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="9">
+        <v>5</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M90">
+        <v>9</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>9</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y90">
+        <v>9</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
+      <c r="A91">
+        <v>8.9</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9">
+        <v>6</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M91">
+        <v>10</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y91">
+        <v>10</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="9">
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M92">
+        <v>11</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S92">
+        <v>11</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y92">
+        <v>11</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93">
+        <v>9.1</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="9">
+        <v>8</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M93">
+        <v>12</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S93">
+        <v>12</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y93">
+        <v>12</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
+      <c r="A94">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="9">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M94">
+        <v>13</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S94">
+        <v>13</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y94">
+        <v>13</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="A95">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>10</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M95">
+        <v>14</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S95">
+        <v>14</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y95">
+        <v>14</v>
+      </c>
+      <c r="AD95">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="A96">
+        <v>9.4</v>
+      </c>
+      <c r="B96" s="10">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="L96">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M96">
+        <v>15</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <v>15</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y96">
+        <v>15</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
+      <c r="A97">
+        <v>9.5</v>
+      </c>
+      <c r="B97" s="10">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="L97">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M97">
+        <v>16</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <v>16</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y97">
+        <v>16</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
+      <c r="A98">
+        <v>9.6</v>
+      </c>
+      <c r="B98" s="10">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="L98">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M98">
+        <v>17</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S98">
+        <v>17</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y98">
+        <v>17</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
+      <c r="A99">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="L99">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="M99">
+        <v>18</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S99">
+        <v>18</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y99">
+        <v>18</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
+      <c r="A100">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
+      <c r="A101">
+        <v>9.9</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="9">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="9">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
+      <c r="A103">
+        <v>10.1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
+      <c r="A104">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9">
+        <v>6</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
+      <c r="A105">
+        <v>10.3</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="9">
+        <v>7</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
+      <c r="A106">
+        <v>10.4</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="9">
+        <v>8</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
+      <c r="A107">
+        <v>10.5</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="9">
+        <v>9</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
+      <c r="A108">
+        <v>10.6</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="9">
+        <v>10</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
+      <c r="A109">
+        <v>10.7</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="L109">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD109">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
+      <c r="A110">
+        <v>10.8</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="L110">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD110">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
+      <c r="A111">
+        <v>10.9</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="L111">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD111">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <f>SUM(B2:B111)</f>
+        <v>66</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="5">
+        <f>SUM(E2:E111)</f>
+        <v>66</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AD112">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -16,7 +16,7 @@
     <sheet name="防御" sheetId="2" r:id="rId2"/>
     <sheet name="反击" sheetId="3" r:id="rId3"/>
     <sheet name="属性" sheetId="4" r:id="rId4"/>
-    <sheet name="稳定" sheetId="5" r:id="rId5"/>
+    <sheet name="HP防御" sheetId="5" r:id="rId5"/>
     <sheet name="时间" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
   <si>
     <t>招式</t>
   </si>
@@ -231,12 +231,6 @@
     <t>消耗稳定度</t>
   </si>
   <si>
-    <t>每秒恢复稳定</t>
-  </si>
-  <si>
-    <t>10s消耗</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -267,14 +261,276 @@
     <t>攻击力加成</t>
   </si>
   <si>
-    <t>暴击伤害加成</t>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>前摇-0.1s，
+后摇-0.1s，
+招式-0.1s</t>
+  </si>
+  <si>
+    <t>后摇-0.1s，
+招式-0.1s</t>
+  </si>
+  <si>
+    <t>招式-0.1s</t>
+  </si>
+  <si>
+    <t>后摇+0.1s</t>
+  </si>
+  <si>
+    <t>前摇+0.1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>暴击几率</t>
+  </si>
+  <si>
+    <t>情报</t>
+  </si>
+  <si>
+    <t>属性数值，
+损伤图例，
+损伤数值</t>
+  </si>
+  <si>
+    <t>属性数值，
+损伤图例，</t>
+  </si>
+  <si>
+    <t>属性程度</t>
+  </si>
+  <si>
+    <t>属性程度，
+损伤图例，</t>
+  </si>
+  <si>
+    <t>防御几率</t>
+  </si>
+  <si>
+    <t>攻击力浮动几率</t>
+  </si>
+  <si>
+    <t>70%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>80%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>60%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>50%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>20%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>30%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>防御后反伤</t>
+  </si>
+  <si>
+    <t>一般反伤</t>
+  </si>
+  <si>
+    <t>【闪避】头</t>
+  </si>
+  <si>
+    <t>【闪避】胸部</t>
+  </si>
+  <si>
+    <t>【闪避】腹部</t>
+  </si>
+  <si>
+    <t>【闪避】肩关节</t>
+  </si>
+  <si>
+    <t>【闪避】上臂</t>
+  </si>
+  <si>
+    <t>【闪避】前臂</t>
+  </si>
+  <si>
+    <t>【闪避】手肘</t>
+  </si>
+  <si>
+    <t>【闪避】手腕</t>
+  </si>
+  <si>
+    <t>【闪避】大腿</t>
+  </si>
+  <si>
+    <t>【闪避】小腿</t>
+  </si>
+  <si>
+    <t>【闪避】膝关节</t>
+  </si>
+  <si>
+    <t>【闪避】踝关节</t>
+  </si>
+  <si>
+    <t>【防御率】头</t>
+  </si>
+  <si>
+    <t>【防御率】胸部</t>
+  </si>
+  <si>
+    <t>【防御率】腹部</t>
+  </si>
+  <si>
+    <t>【防御率】肩关节</t>
+  </si>
+  <si>
+    <t>【防御率】上臂</t>
+  </si>
+  <si>
+    <t>【防御率】前臂</t>
+  </si>
+  <si>
+    <t>【防御率】手肘</t>
+  </si>
+  <si>
+    <t>【防御率】手腕</t>
+  </si>
+  <si>
+    <t>【防御率】大腿</t>
+  </si>
+  <si>
+    <t>【防御率】小腿</t>
+  </si>
+  <si>
+    <t>【防御率】膝关节</t>
+  </si>
+  <si>
+    <t>【防御率】踝关节</t>
+  </si>
+  <si>
+    <t>【闪避】两腰</t>
+  </si>
+  <si>
+    <t>【防御率】两腰</t>
+  </si>
+  <si>
+    <t>防御稳定反弹</t>
+  </si>
+  <si>
+    <t>左上臂</t>
+  </si>
+  <si>
+    <t>右上臂</t>
+  </si>
+  <si>
+    <t>左前臂</t>
+  </si>
+  <si>
+    <t>右前臂</t>
+  </si>
+  <si>
+    <t>左大腿</t>
+  </si>
+  <si>
+    <t>右大腿</t>
+  </si>
+  <si>
+    <t>左小腿</t>
+  </si>
+  <si>
+    <t>右小腿</t>
+  </si>
+  <si>
+    <t>左肩关节</t>
+  </si>
+  <si>
+    <t>右肩关节</t>
+  </si>
+  <si>
+    <t>左手肘</t>
+  </si>
+  <si>
+    <t>右手肘</t>
+  </si>
+  <si>
+    <t>左手腕</t>
+  </si>
+  <si>
+    <t>右手腕</t>
+  </si>
+  <si>
+    <t>左膝关节</t>
+  </si>
+  <si>
+    <t>左踝关节</t>
+  </si>
+  <si>
+    <t>右膝关节</t>
+  </si>
+  <si>
+    <t>右踝关节</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>防御分摊外伤</t>
+  </si>
+  <si>
+    <t>被防御部分摊外伤</t>
+  </si>
+  <si>
+    <t>命中修正</t>
+  </si>
+  <si>
+    <t>命中率修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  2%</t>
+  </si>
+  <si>
+    <t>-10%</t>
+  </si>
+  <si>
+    <t>倒地稳定清零，防御后不受伤害</t>
+  </si>
+  <si>
+    <t>-5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +578,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,36 +650,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="40% - 着色 3" xfId="4" builtinId="39"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -718,513 +1064,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="5" customWidth="1"/>
-    <col min="8" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="18" width="5" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="32" customWidth="1"/>
+    <col min="8" max="11" width="5" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="31" customWidth="1"/>
+    <col min="13" max="18" width="5" style="31" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="33" customWidth="1"/>
+    <col min="24" max="26" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="31" customWidth="1"/>
+    <col min="28" max="28" width="34" style="37" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="5" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:28">
+      <c r="C2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
+    <row r="3" spans="1:28">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="U3" s="32">
+        <v>80</v>
+      </c>
+      <c r="X3" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="B4" t="s">
+    <row r="4" spans="1:28">
+      <c r="B4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="U4" s="32">
+        <v>20</v>
+      </c>
+      <c r="V4" s="31">
+        <v>30</v>
+      </c>
+      <c r="X4" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="L5" s="31">
+        <v>1</v>
+      </c>
+      <c r="O5" s="31">
+        <v>1</v>
+      </c>
+      <c r="P5" s="31">
+        <v>1</v>
+      </c>
+      <c r="V5" s="31">
+        <v>100</v>
+      </c>
+      <c r="X5" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="B6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="U6" s="32">
+        <v>150</v>
+      </c>
+      <c r="V6" s="31">
+        <v>150</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="X6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="B7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>120</v>
+      </c>
+      <c r="V7" s="31">
+        <v>120</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="B6" t="s">
+    <row r="8" spans="1:28">
+      <c r="B8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>100</v>
+      </c>
+      <c r="V8" s="31">
+        <v>200</v>
+      </c>
+      <c r="X8" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>200</v>
+      </c>
+      <c r="X9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="31">
+        <v>1</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1</v>
+      </c>
+      <c r="S10" s="31">
+        <v>1</v>
+      </c>
+      <c r="T10" s="31">
+        <v>1</v>
+      </c>
+      <c r="V10" s="31">
+        <v>200</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="X10" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>100</v>
+      </c>
+      <c r="X12" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="B13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1</v>
+      </c>
+      <c r="L13" s="31">
+        <v>1</v>
+      </c>
+      <c r="M13" s="31">
+        <v>1</v>
+      </c>
+      <c r="U13" s="32">
+        <v>200</v>
+      </c>
+      <c r="X13" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z13" s="31">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="L14" s="31">
+        <v>1</v>
+      </c>
+      <c r="U14" s="32">
+        <v>200</v>
+      </c>
+      <c r="X14" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="L15" s="31">
+        <v>1</v>
+      </c>
+      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="U15" s="32">
+        <v>300</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Y15" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="B16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="L16" s="31">
+        <v>1</v>
+      </c>
+      <c r="U16" s="32">
+        <v>250</v>
+      </c>
+      <c r="W16" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="Z16" s="31">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>1</v>
+      </c>
+      <c r="R17" s="31">
+        <v>1</v>
+      </c>
+      <c r="S17" s="31">
+        <v>1</v>
+      </c>
+      <c r="U17" s="32">
+        <v>280</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="Z17" s="31">
         <v>35</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y12">
-        <v>10</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>20</v>
-      </c>
-      <c r="Z13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>25</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>18</v>
-      </c>
-      <c r="Z15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>28</v>
-      </c>
-      <c r="Z16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>35</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
-      <c r="B18" t="s">
+    <row r="18" spans="2:27">
+      <c r="B18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>1</v>
+      </c>
+      <c r="K18" s="31">
+        <v>1</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1</v>
+      </c>
+      <c r="M18" s="31">
+        <v>1</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31">
+        <v>1</v>
+      </c>
+      <c r="P18" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1</v>
+      </c>
+      <c r="R18" s="31">
+        <v>1</v>
+      </c>
+      <c r="S18" s="31">
+        <v>1</v>
+      </c>
+      <c r="T18" s="31">
+        <v>1</v>
+      </c>
+      <c r="U18" s="32">
+        <v>300</v>
+      </c>
+      <c r="W18" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Z18" s="31">
         <v>30</v>
       </c>
-      <c r="Z18">
+      <c r="AA18" s="31">
         <v>18</v>
       </c>
     </row>
@@ -1256,7 +1821,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,31 +1842,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -1402,169 +1967,1457 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2" max="7" width="15.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="9">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="G5" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45">
+      <c r="A25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="24" customFormat="1">
+      <c r="A26" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="45">
+      <c r="A27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1">
+      <c r="A29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="17">
+        <f>B9+(1-B9)*B31</f>
+        <v>0.96</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" ref="I31:L31" si="0">C9+(1-C9)*C31</f>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="0"/>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="0"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="M31" s="18">
+        <f>G9+(1-G9)*G31</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="17">
+        <f>B10+(1-B10)*B32</f>
+        <v>0.9</v>
+      </c>
+      <c r="I32" s="18">
+        <f>C10+(1-C10)*C32</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="J32" s="18">
+        <f>D10+(1-D10)*D32</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="K32" s="18">
+        <f>E10+(1-E10)*E32</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L32" s="18">
+        <f>F10+(1-F10)*F32</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="M32" s="18">
+        <f>G10+(1-G10)*G32</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H33" s="17">
+        <f>B11+(1-B11)*B33</f>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="I33" s="18">
+        <f>C11+(1-C11)*C33</f>
+        <v>0.75250000000000006</v>
+      </c>
+      <c r="J33" s="18">
+        <f>D11+(1-D11)*D33</f>
+        <v>0.64250000000000007</v>
+      </c>
+      <c r="K33" s="18">
+        <f>E11+(1-E11)*E33</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="L33" s="18">
+        <f>F11+(1-F11)*F33</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="M33" s="18">
+        <f>G11+(1-G11)*G33</f>
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="17">
+        <f>B12+(1-B12)*B34</f>
+        <v>0.84</v>
+      </c>
+      <c r="I34" s="18">
+        <f>C12+(1-C12)*C34</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J34" s="18">
+        <f>D12+(1-D12)*D34</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="K34" s="18">
+        <f>E12+(1-E12)*E34</f>
+        <v>0.4375</v>
+      </c>
+      <c r="L34" s="18">
+        <f>F12+(1-F12)*F34</f>
+        <v>0.27749999999999997</v>
+      </c>
+      <c r="M34" s="18">
+        <f>G12+(1-G12)*G34</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="17">
+        <f>B13+(1-B13)*B35</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I35" s="18">
+        <f>C13+(1-C13)*C35</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J35" s="18">
+        <f>D13+(1-D13)*D35</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K35" s="18">
+        <f>E13+(1-E13)*E35</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L35" s="18">
+        <f>F13+(1-F13)*F35</f>
+        <v>0.4375</v>
+      </c>
+      <c r="M35" s="18">
+        <f>G13+(1-G13)*G35</f>
+        <v>0.27749999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="17">
+        <f>B14+(1-B14)*B36</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="I36" s="18">
+        <f>C14+(1-C14)*C36</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="J36" s="18">
+        <f>D14+(1-D14)*D36</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="K36" s="18">
+        <f>E14+(1-E14)*E36</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L36" s="18">
+        <f>F14+(1-F14)*F36</f>
+        <v>0.65</v>
+      </c>
+      <c r="M36" s="18">
+        <f>G14+(1-G14)*G36</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H37" s="17">
+        <f>B15+(1-B15)*B37</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="I37" s="18">
+        <f>C15+(1-C15)*C37</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="J37" s="18">
+        <f>D15+(1-D15)*D37</f>
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="18">
+        <f>E15+(1-E15)*E37</f>
+        <v>0.7</v>
+      </c>
+      <c r="L37" s="18">
+        <f>F15+(1-F15)*F37</f>
+        <v>0.65</v>
+      </c>
+      <c r="M37" s="18">
+        <f>G15+(1-G15)*G37</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="17">
+        <f>B16+(1-B16)*B38</f>
+        <v>0.97</v>
+      </c>
+      <c r="I38" s="18">
+        <f>C16+(1-C16)*C38</f>
+        <v>0.91</v>
+      </c>
+      <c r="J38" s="18">
+        <f>D16+(1-D16)*D38</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="K38" s="18">
+        <f>E16+(1-E16)*E38</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="L38" s="18">
+        <f>F16+(1-F16)*F38</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M38" s="18">
+        <f>G16+(1-G16)*G38</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <f>B17+(1-B17)*B39</f>
+        <v>0.92</v>
+      </c>
+      <c r="I39" s="18">
+        <f>C17+(1-C17)*C39</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="J39" s="18">
+        <f>D17+(1-D17)*D39</f>
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="18">
+        <f>E17+(1-E17)*E39</f>
+        <v>0.7</v>
+      </c>
+      <c r="L39" s="18">
+        <f>F17+(1-F17)*F39</f>
+        <v>0.65</v>
+      </c>
+      <c r="M39" s="18">
+        <f>G17+(1-G17)*G39</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
+        <f>B18+(1-B18)*B40</f>
+        <v>0.7</v>
+      </c>
+      <c r="I40" s="18">
+        <f>C18+(1-C18)*C40</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="J40" s="18">
+        <f>D18+(1-D18)*D40</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="K40" s="18">
+        <f>E18+(1-E18)*E40</f>
+        <v>0.24</v>
+      </c>
+      <c r="L40" s="18">
+        <f>F18+(1-F18)*F40</f>
+        <v>0.1</v>
+      </c>
+      <c r="M40" s="18">
+        <f>G18+(1-G18)*G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="17">
+        <f>B19+(1-B19)*B41</f>
+        <v>0.9</v>
+      </c>
+      <c r="I41" s="18">
+        <f>C19+(1-C19)*C41</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="J41" s="18">
+        <f>D19+(1-D19)*D41</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="K41" s="18">
+        <f>E19+(1-E19)*E41</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L41" s="18">
+        <f>F19+(1-F19)*F41</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="M41" s="18">
+        <f>G19+(1-G19)*G41</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="17">
+        <f>B20+(1-B20)*B42</f>
+        <v>0.88</v>
+      </c>
+      <c r="I42" s="18">
+        <f>C20+(1-C20)*C42</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="J42" s="18">
+        <f>D20+(1-D20)*D42</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K42" s="18">
+        <f>E20+(1-E20)*E42</f>
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="L42" s="18">
+        <f>F20+(1-F20)*F42</f>
+        <v>0.35</v>
+      </c>
+      <c r="M42" s="18">
+        <f>G20+(1-G20)*G42</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <f>B21+(1-B21)*B43</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I43" s="18">
+        <f>C21+(1-C21)*C43</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J43" s="18">
+        <f>D21+(1-D21)*D43</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K43" s="18">
+        <f>E21+(1-E21)*E43</f>
+        <v>0.45</v>
+      </c>
+      <c r="L43" s="18">
+        <f>F21+(1-F21)*F43</f>
+        <v>0.35</v>
+      </c>
+      <c r="M43" s="18">
+        <f>G21+(1-G21)*G43</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="12" customFormat="1">
+      <c r="A48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="12">
+        <v>3</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="9">
+        <v>150</v>
+      </c>
+      <c r="E49" s="9">
+        <v>120</v>
+      </c>
+      <c r="F49" s="9">
+        <v>100</v>
+      </c>
+      <c r="G49" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B6">
+      <c r="D53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="9">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9">
+        <v>3</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9">
+        <f>13-SUM(B54:F54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="9">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C55" s="9">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" ref="I55:I57" si="1">13-SUM(B55:F55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7">
+    <row r="56" spans="1:9">
+      <c r="B56" s="9">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="C56" s="9">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>130</v>
-      </c>
-      <c r="E12">
-        <v>110</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+    <row r="57" spans="1:9">
+      <c r="I57" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1574,107 +3427,496 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1">
-        <v>180</v>
-      </c>
-      <c r="E1">
-        <v>150</v>
-      </c>
-      <c r="F1">
-        <v>100</v>
-      </c>
-      <c r="G1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:24">
+      <c r="A1" s="21"/>
+      <c r="B1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="D3">
-        <f>D1+D2*10</f>
-        <v>260</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:G3" si="0">E1+E2*10</f>
-        <v>180</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E4">
+      <c r="U13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>900</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14">
+        <v>610</v>
+      </c>
+      <c r="F14">
+        <v>610</v>
+      </c>
+      <c r="G14">
+        <v>400</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <v>900</v>
+      </c>
+      <c r="J14">
+        <v>900</v>
+      </c>
+      <c r="K14">
+        <v>610</v>
+      </c>
+      <c r="L14">
+        <v>610</v>
+      </c>
+      <c r="M14">
+        <v>310</v>
+      </c>
+      <c r="N14">
+        <v>310</v>
+      </c>
+      <c r="O14">
+        <v>280</v>
+      </c>
+      <c r="P14">
+        <v>280</v>
+      </c>
+      <c r="Q14">
+        <v>1000</v>
+      </c>
+      <c r="R14">
+        <v>1000</v>
+      </c>
+      <c r="S14">
+        <v>800</v>
+      </c>
+      <c r="T14">
+        <v>800</v>
+      </c>
+      <c r="U14">
+        <v>310</v>
+      </c>
+      <c r="V14">
+        <v>310</v>
+      </c>
+      <c r="W14">
+        <v>280</v>
+      </c>
+      <c r="X14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" t="s">
         <v>130</v>
       </c>
-      <c r="F4">
-        <v>130</v>
-      </c>
-      <c r="G4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="D5">
-        <f>(D3-D4)/10</f>
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:G5" si="1">(E3-E4)/10</f>
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>-8</v>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1683,7 +3925,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
@@ -1691,7 +3933,7 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
     <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1706,89 +3948,89 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
       </c>
       <c r="N1">
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" t="s">
-        <v>70</v>
       </c>
       <c r="T1">
         <v>3</v>
       </c>
       <c r="U1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
-      </c>
-      <c r="W1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" t="s">
-        <v>70</v>
       </c>
       <c r="Z1">
         <v>0</v>
       </c>
       <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>68</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="L2">
@@ -1808,7 +4050,7 @@
       <c r="A3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="L3">
@@ -1835,7 +4077,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="L4">
@@ -1862,7 +4104,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="L5">
@@ -1889,7 +4131,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="L6">
@@ -1916,7 +4158,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
       <c r="L7">
@@ -1943,7 +4185,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="L8">
@@ -1970,7 +4212,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
       <c r="L9">
@@ -1997,7 +4239,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>7</v>
       </c>
       <c r="L10">
@@ -2024,7 +4266,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>8</v>
       </c>
       <c r="L11">
@@ -2051,7 +4293,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>9</v>
       </c>
       <c r="L12">
@@ -2078,7 +4320,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>10</v>
       </c>
       <c r="I13">
@@ -2117,8 +4359,8 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="K14">
@@ -2157,8 +4399,8 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="K15">
@@ -2194,7 +4436,7 @@
       <c r="A16">
         <v>1.4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="K16">
@@ -2230,7 +4472,7 @@
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="K17">
@@ -2266,10 +4508,10 @@
       <c r="A18">
         <v>1.6</v>
       </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="J18">
@@ -2305,10 +4547,10 @@
       <c r="A19">
         <v>1.7</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>2</v>
       </c>
       <c r="L19">
@@ -2332,10 +4574,10 @@
       <c r="A20">
         <v>1.8</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>3</v>
       </c>
       <c r="L20">
@@ -2359,10 +4601,10 @@
       <c r="A21">
         <v>1.9</v>
       </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>4</v>
       </c>
       <c r="L21">
@@ -2386,10 +4628,10 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>5</v>
       </c>
       <c r="L22">
@@ -2413,10 +4655,10 @@
       <c r="A23">
         <v>2.1</v>
       </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>6</v>
       </c>
       <c r="L23">
@@ -2440,10 +4682,10 @@
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>7</v>
       </c>
       <c r="L24">
@@ -2467,10 +4709,10 @@
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
         <v>8</v>
       </c>
       <c r="L25">
@@ -2494,10 +4736,10 @@
       <c r="A26">
         <v>2.4</v>
       </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>9</v>
       </c>
       <c r="L26">
@@ -2521,10 +4763,10 @@
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>10</v>
       </c>
       <c r="L27">
@@ -2548,13 +4790,13 @@
       <c r="A28">
         <v>2.6</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11"/>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2576,13 +4818,13 @@
       <c r="A29">
         <v>2.7</v>
       </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11"/>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7"/>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2604,13 +4846,13 @@
       <c r="A30">
         <v>2.8</v>
       </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2635,13 +4877,13 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11"/>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="I31">
         <v>28</v>
       </c>
@@ -2678,7 +4920,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <v>2</v>
       </c>
       <c r="L32">
@@ -2705,7 +4947,7 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="L33">
@@ -2732,7 +4974,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="5">
         <v>4</v>
       </c>
       <c r="L34">
@@ -2759,7 +5001,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>5</v>
       </c>
       <c r="L35">
@@ -2786,7 +5028,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="5">
         <v>6</v>
       </c>
       <c r="L36">
@@ -2813,7 +5055,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>7</v>
       </c>
       <c r="L37">
@@ -2840,7 +5082,7 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="5">
         <v>8</v>
       </c>
       <c r="L38">
@@ -2867,7 +5109,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="5">
         <v>9</v>
       </c>
       <c r="L39">
@@ -2894,7 +5136,7 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="5">
         <v>10</v>
       </c>
       <c r="L40">
@@ -2921,8 +5163,8 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12">
+      <c r="D41" s="7"/>
+      <c r="E41" s="8">
         <v>1</v>
       </c>
       <c r="K41">
@@ -2961,8 +5203,8 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12">
+      <c r="D42" s="7"/>
+      <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="K42">
@@ -3001,11 +5243,11 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="D43" s="7"/>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <v>1</v>
       </c>
       <c r="J43">
@@ -3041,10 +5283,10 @@
       <c r="A44">
         <v>4.2</v>
       </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <v>2</v>
       </c>
       <c r="L44">
@@ -3068,10 +5310,10 @@
       <c r="A45">
         <v>4.3</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
         <v>3</v>
       </c>
       <c r="L45">
@@ -3095,10 +5337,10 @@
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
         <v>4</v>
       </c>
       <c r="L46">
@@ -3122,10 +5364,10 @@
       <c r="A47">
         <v>4.5</v>
       </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
         <v>5</v>
       </c>
       <c r="L47">
@@ -3149,10 +5391,10 @@
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
         <v>6</v>
       </c>
       <c r="L48">
@@ -3176,10 +5418,10 @@
       <c r="A49">
         <v>4.7</v>
       </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
         <v>7</v>
       </c>
       <c r="L49">
@@ -3203,10 +5445,10 @@
       <c r="A50">
         <v>4.8</v>
       </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
         <v>8</v>
       </c>
       <c r="L50">
@@ -3230,10 +5472,10 @@
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <v>9</v>
       </c>
       <c r="L51">
@@ -3257,10 +5499,10 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
         <v>10</v>
       </c>
       <c r="L52">
@@ -3284,10 +5526,10 @@
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="11"/>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="L53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3309,10 +5551,10 @@
       <c r="A54">
         <v>5.2</v>
       </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11"/>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="L54">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3334,7 +5576,7 @@
       <c r="A55">
         <v>5.3</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="8">
         <v>1</v>
       </c>
       <c r="K55">
@@ -3370,7 +5612,7 @@
       <c r="A56">
         <v>5.4</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="8">
         <v>1</v>
       </c>
       <c r="K56">
@@ -3406,10 +5648,10 @@
       <c r="A57">
         <v>5.5</v>
       </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="J57">
@@ -3445,10 +5687,10 @@
       <c r="A58">
         <v>5.6</v>
       </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
         <v>2</v>
       </c>
       <c r="L58">
@@ -3472,10 +5714,10 @@
       <c r="A59">
         <v>5.7</v>
       </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
         <v>3</v>
       </c>
       <c r="L59">
@@ -3499,10 +5741,10 @@
       <c r="A60">
         <v>5.8</v>
       </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
         <v>4</v>
       </c>
       <c r="L60">
@@ -3526,10 +5768,10 @@
       <c r="A61">
         <v>5.9</v>
       </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
         <v>5</v>
       </c>
       <c r="L61">
@@ -3553,10 +5795,10 @@
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
         <v>6</v>
       </c>
       <c r="L62">
@@ -3580,10 +5822,10 @@
       <c r="A63">
         <v>6.1</v>
       </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
         <v>7</v>
       </c>
       <c r="L63">
@@ -3607,10 +5849,10 @@
       <c r="A64">
         <v>6.2</v>
       </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
         <v>8</v>
       </c>
       <c r="L64">
@@ -3634,10 +5876,10 @@
       <c r="A65">
         <v>6.3</v>
       </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
         <v>9</v>
       </c>
       <c r="L65">
@@ -3661,10 +5903,10 @@
       <c r="A66">
         <v>6.4</v>
       </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
         <v>10</v>
       </c>
       <c r="L66">
@@ -3688,13 +5930,13 @@
       <c r="A67">
         <v>6.5</v>
       </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="11"/>
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="L67">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3716,13 +5958,13 @@
       <c r="A68">
         <v>6.6</v>
       </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="11"/>
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="L68">
         <f t="shared" ref="L68:L112" si="4">L67-I68-J68+K68</f>
         <v>16</v>
@@ -3744,13 +5986,13 @@
       <c r="A69">
         <v>6.7</v>
       </c>
-      <c r="B69" s="10">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="11"/>
+      <c r="B69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7"/>
       <c r="L69">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -3772,13 +6014,13 @@
       <c r="A70">
         <v>6.8</v>
       </c>
-      <c r="B70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="11"/>
+      <c r="B70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7"/>
       <c r="L70">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -3800,7 +6042,7 @@
       <c r="A71">
         <v>6.9</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="6">
         <v>1</v>
       </c>
       <c r="L71">
@@ -3827,7 +6069,7 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="5">
         <v>1</v>
       </c>
       <c r="I72">
@@ -3875,7 +6117,7 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="L73">
@@ -3911,7 +6153,7 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="5">
         <v>3</v>
       </c>
       <c r="L74">
@@ -3947,7 +6189,7 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="5">
         <v>4</v>
       </c>
       <c r="L75">
@@ -3983,7 +6225,7 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="5">
         <v>5</v>
       </c>
       <c r="L76">
@@ -4019,7 +6261,7 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="5">
         <v>6</v>
       </c>
       <c r="L77">
@@ -4055,7 +6297,7 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="5">
         <v>7</v>
       </c>
       <c r="L78">
@@ -4091,7 +6333,7 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="5">
         <v>8</v>
       </c>
       <c r="L79">
@@ -4127,7 +6369,7 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="5">
         <v>9</v>
       </c>
       <c r="L80">
@@ -4163,7 +6405,7 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="5">
         <v>10</v>
       </c>
       <c r="L81">
@@ -4199,8 +6441,8 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12">
+      <c r="D82" s="7"/>
+      <c r="E82" s="8">
         <v>1</v>
       </c>
       <c r="K82">
@@ -4248,8 +6490,8 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12">
+      <c r="D83" s="7"/>
+      <c r="E83" s="8">
         <v>1</v>
       </c>
       <c r="K83">
@@ -4297,8 +6539,8 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12">
+      <c r="D84" s="7"/>
+      <c r="E84" s="8">
         <v>1</v>
       </c>
       <c r="K84">
@@ -4346,8 +6588,8 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12">
+      <c r="D85" s="7"/>
+      <c r="E85" s="8">
         <v>1</v>
       </c>
       <c r="K85">
@@ -4395,11 +6637,11 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="5">
-        <v>1</v>
-      </c>
-      <c r="F86" s="9">
+      <c r="D86" s="7"/>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
         <v>1</v>
       </c>
       <c r="L86">
@@ -4432,10 +6674,10 @@
       <c r="A87">
         <v>8.5</v>
       </c>
-      <c r="E87" s="5">
-        <v>1</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
         <v>2</v>
       </c>
       <c r="L87">
@@ -4468,10 +6710,10 @@
       <c r="A88">
         <v>8.6</v>
       </c>
-      <c r="E88" s="5">
-        <v>1</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
         <v>3</v>
       </c>
       <c r="L88">
@@ -4504,10 +6746,10 @@
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E89" s="5">
-        <v>1</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="L89">
@@ -4540,10 +6782,10 @@
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E90" s="5">
-        <v>1</v>
-      </c>
-      <c r="F90" s="9">
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
         <v>5</v>
       </c>
       <c r="L90">
@@ -4576,10 +6818,10 @@
       <c r="A91">
         <v>8.9</v>
       </c>
-      <c r="E91" s="5">
-        <v>1</v>
-      </c>
-      <c r="F91" s="9">
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
         <v>6</v>
       </c>
       <c r="L91">
@@ -4612,10 +6854,10 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="E92" s="5">
-        <v>1</v>
-      </c>
-      <c r="F92" s="9">
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
         <v>7</v>
       </c>
       <c r="L92">
@@ -4648,10 +6890,10 @@
       <c r="A93">
         <v>9.1</v>
       </c>
-      <c r="E93" s="5">
-        <v>1</v>
-      </c>
-      <c r="F93" s="9">
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
         <v>8</v>
       </c>
       <c r="L93">
@@ -4684,10 +6926,10 @@
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E94" s="5">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
         <v>9</v>
       </c>
       <c r="L94">
@@ -4720,10 +6962,10 @@
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E95" s="5">
-        <v>1</v>
-      </c>
-      <c r="F95" s="9">
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
         <v>10</v>
       </c>
       <c r="L95">
@@ -4756,13 +6998,13 @@
       <c r="A96">
         <v>9.4</v>
       </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1</v>
-      </c>
-      <c r="G96" s="11"/>
+      <c r="B96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7"/>
       <c r="L96">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -4793,13 +7035,13 @@
       <c r="A97">
         <v>9.5</v>
       </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
-      <c r="E97" s="5">
-        <v>1</v>
-      </c>
-      <c r="G97" s="11"/>
+      <c r="B97" s="6">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="L97">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -4830,13 +7072,13 @@
       <c r="A98">
         <v>9.6</v>
       </c>
-      <c r="B98" s="10">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5">
-        <v>1</v>
-      </c>
-      <c r="G98" s="11"/>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="L98">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -4870,13 +7112,13 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="9">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1</v>
-      </c>
-      <c r="G99" s="11"/>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="L99">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -4910,7 +7152,7 @@
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="5">
         <v>2</v>
       </c>
       <c r="L100">
@@ -4937,7 +7179,7 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="5">
         <v>3</v>
       </c>
       <c r="L101">
@@ -4964,7 +7206,7 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="5">
         <v>4</v>
       </c>
       <c r="L102">
@@ -4991,7 +7233,7 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="5">
         <v>5</v>
       </c>
       <c r="L103">
@@ -5018,7 +7260,7 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="5">
         <v>6</v>
       </c>
       <c r="L104">
@@ -5045,7 +7287,7 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="5">
         <v>7</v>
       </c>
       <c r="L105">
@@ -5072,7 +7314,7 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="5">
         <v>8</v>
       </c>
       <c r="L106">
@@ -5099,7 +7341,7 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="5">
         <v>9</v>
       </c>
       <c r="L107">
@@ -5126,7 +7368,7 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="5">
         <v>10</v>
       </c>
       <c r="L108">
@@ -5153,7 +7395,7 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="D109" s="11"/>
+      <c r="D109" s="7"/>
       <c r="L109">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -5178,7 +7420,7 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="D110" s="11"/>
+      <c r="D110" s="7"/>
       <c r="L110">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -5203,7 +7445,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="D111" s="11"/>
+      <c r="D111" s="7"/>
       <c r="L111">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -5229,8 +7471,8 @@
         <f>SUM(B2:B111)</f>
         <v>66</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="5">
+      <c r="D112" s="7"/>
+      <c r="E112" s="4">
         <f>SUM(E2:E111)</f>
         <v>66</v>
       </c>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -682,9 +682,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -719,18 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,6 +730,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1067,729 +1067,729 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="32" customWidth="1"/>
-    <col min="8" max="11" width="5" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="31" customWidth="1"/>
-    <col min="13" max="18" width="5" style="31" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="33" customWidth="1"/>
-    <col min="24" max="26" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="31" customWidth="1"/>
-    <col min="28" max="28" width="34" style="37" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="27" customWidth="1"/>
+    <col min="8" max="11" width="5" style="26" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="26" customWidth="1"/>
+    <col min="13" max="18" width="5" style="26" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="28" customWidth="1"/>
+    <col min="24" max="26" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="34" style="32" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="32" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32">
-        <v>1</v>
-      </c>
-      <c r="H3" s="31">
-        <v>1</v>
-      </c>
-      <c r="I3" s="31">
-        <v>1</v>
-      </c>
-      <c r="L3" s="31">
-        <v>1</v>
-      </c>
-      <c r="U3" s="32">
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="L3" s="26">
+        <v>1</v>
+      </c>
+      <c r="U3" s="27">
         <v>80</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="26">
         <v>5</v>
       </c>
-      <c r="AA3" s="31">
+      <c r="AA3" s="26">
         <v>3</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="31">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>1</v>
-      </c>
-      <c r="U4" s="32">
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="U4" s="27">
         <v>20</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="26">
         <v>30</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="26">
         <v>80</v>
       </c>
-      <c r="AA4" s="31">
+      <c r="AA4" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="L5" s="31">
-        <v>1</v>
-      </c>
-      <c r="O5" s="31">
-        <v>1</v>
-      </c>
-      <c r="P5" s="31">
-        <v>1</v>
-      </c>
-      <c r="V5" s="31">
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+      <c r="P5" s="26">
+        <v>1</v>
+      </c>
+      <c r="V5" s="26">
         <v>100</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="26">
         <v>10</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="U6" s="32">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="U6" s="27">
         <v>150</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="26">
         <v>150</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="26">
         <v>10</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="26">
         <v>5</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31">
-        <v>1</v>
-      </c>
-      <c r="K7" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>1</v>
-      </c>
-      <c r="U7" s="32">
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1</v>
+      </c>
+      <c r="U7" s="27">
         <v>120</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="26">
         <v>120</v>
       </c>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="Y7" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="26">
         <v>15</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="26">
         <v>5</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
-        <v>1</v>
-      </c>
-      <c r="L8" s="31">
-        <v>1</v>
-      </c>
-      <c r="U8" s="32">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>1</v>
+      </c>
+      <c r="U8" s="27">
         <v>100</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="26">
         <v>200</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="26">
         <v>0.6</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Y8" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="26">
         <v>60</v>
       </c>
-      <c r="AA8" s="31">
+      <c r="AA8" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="31">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31">
-        <v>1</v>
-      </c>
-      <c r="U9" s="32">
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="U9" s="27">
         <v>200</v>
       </c>
-      <c r="X9" s="31">
+      <c r="X9" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y9" s="31">
+      <c r="Y9" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z9" s="31">
+      <c r="Z9" s="26">
         <v>25</v>
       </c>
-      <c r="AA9" s="31">
+      <c r="AA9" s="26">
         <v>15</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31">
-        <v>1</v>
-      </c>
-      <c r="P10" s="31">
-        <v>1</v>
-      </c>
-      <c r="S10" s="31">
-        <v>1</v>
-      </c>
-      <c r="T10" s="31">
-        <v>1</v>
-      </c>
-      <c r="V10" s="31">
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="26">
+        <v>1</v>
+      </c>
+      <c r="P10" s="26">
+        <v>1</v>
+      </c>
+      <c r="S10" s="26">
+        <v>1</v>
+      </c>
+      <c r="T10" s="26">
+        <v>1</v>
+      </c>
+      <c r="V10" s="26">
         <v>200</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="W10" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Y10" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z10" s="31">
+      <c r="Z10" s="26">
         <v>200</v>
       </c>
-      <c r="AA10" s="31">
+      <c r="AA10" s="26">
         <v>15</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="32" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="G12" s="32">
-        <v>1</v>
-      </c>
-      <c r="H12" s="31">
-        <v>1</v>
-      </c>
-      <c r="I12" s="31">
-        <v>1</v>
-      </c>
-      <c r="L12" s="31">
-        <v>1</v>
-      </c>
-      <c r="U12" s="32">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="L12" s="26">
+        <v>1</v>
+      </c>
+      <c r="U12" s="27">
         <v>100</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="26">
         <v>0.2</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="26">
         <v>0.2</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z12" s="26">
         <v>10</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA12" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="G13" s="32">
-        <v>1</v>
-      </c>
-      <c r="J13" s="31">
-        <v>1</v>
-      </c>
-      <c r="K13" s="31">
-        <v>1</v>
-      </c>
-      <c r="L13" s="31">
-        <v>1</v>
-      </c>
-      <c r="M13" s="31">
-        <v>1</v>
-      </c>
-      <c r="U13" s="32">
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="26">
+        <v>1</v>
+      </c>
+      <c r="M13" s="26">
+        <v>1</v>
+      </c>
+      <c r="U13" s="27">
         <v>200</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Y13" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z13" s="31">
+      <c r="Z13" s="26">
         <v>20</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AA13" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="31">
-        <v>1</v>
-      </c>
-      <c r="G14" s="32">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31">
-        <v>1</v>
-      </c>
-      <c r="I14" s="31">
-        <v>1</v>
-      </c>
-      <c r="L14" s="31">
-        <v>1</v>
-      </c>
-      <c r="U14" s="32">
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="L14" s="26">
+        <v>1</v>
+      </c>
+      <c r="U14" s="27">
         <v>200</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y14" s="31">
+      <c r="Y14" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z14" s="31">
+      <c r="Z14" s="26">
         <v>25</v>
       </c>
-      <c r="AA14" s="31">
+      <c r="AA14" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="31">
-        <v>1</v>
-      </c>
-      <c r="G15" s="32">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31">
-        <v>1</v>
-      </c>
-      <c r="L15" s="31">
-        <v>1</v>
-      </c>
-      <c r="M15" s="31">
-        <v>1</v>
-      </c>
-      <c r="U15" s="32">
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="26">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26">
+        <v>1</v>
+      </c>
+      <c r="U15" s="27">
         <v>300</v>
       </c>
-      <c r="W15" s="33" t="s">
+      <c r="W15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Y15" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z15" s="26">
         <v>18</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
-        <v>1</v>
-      </c>
-      <c r="L16" s="31">
-        <v>1</v>
-      </c>
-      <c r="U16" s="32">
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="L16" s="26">
+        <v>1</v>
+      </c>
+      <c r="U16" s="27">
         <v>250</v>
       </c>
-      <c r="W16" s="33" t="s">
+      <c r="W16" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X16" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y16" s="31">
+      <c r="Y16" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z16" s="31">
+      <c r="Z16" s="26">
         <v>28</v>
       </c>
-      <c r="AA16" s="31">
+      <c r="AA16" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:27">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="31">
-        <v>1</v>
-      </c>
-      <c r="G17" s="32">
-        <v>1</v>
-      </c>
-      <c r="H17" s="31">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31">
-        <v>1</v>
-      </c>
-      <c r="L17" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>1</v>
-      </c>
-      <c r="R17" s="31">
-        <v>1</v>
-      </c>
-      <c r="S17" s="31">
-        <v>1</v>
-      </c>
-      <c r="U17" s="32">
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="L17" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>1</v>
+      </c>
+      <c r="R17" s="26">
+        <v>1</v>
+      </c>
+      <c r="S17" s="26">
+        <v>1</v>
+      </c>
+      <c r="U17" s="27">
         <v>280</v>
       </c>
-      <c r="W17" s="33" t="s">
+      <c r="W17" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="X17" s="31">
+      <c r="X17" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y17" s="31">
+      <c r="Y17" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z17" s="31">
+      <c r="Z17" s="26">
         <v>35</v>
       </c>
-      <c r="AA17" s="31">
+      <c r="AA17" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:27">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="31">
-        <v>1</v>
-      </c>
-      <c r="G18" s="32">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31">
-        <v>1</v>
-      </c>
-      <c r="K18" s="31">
-        <v>1</v>
-      </c>
-      <c r="L18" s="31">
-        <v>1</v>
-      </c>
-      <c r="M18" s="31">
-        <v>1</v>
-      </c>
-      <c r="N18" s="31">
-        <v>1</v>
-      </c>
-      <c r="O18" s="31">
-        <v>1</v>
-      </c>
-      <c r="P18" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="31">
-        <v>1</v>
-      </c>
-      <c r="R18" s="31">
-        <v>1</v>
-      </c>
-      <c r="S18" s="31">
-        <v>1</v>
-      </c>
-      <c r="T18" s="31">
-        <v>1</v>
-      </c>
-      <c r="U18" s="32">
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+      <c r="L18" s="26">
+        <v>1</v>
+      </c>
+      <c r="M18" s="26">
+        <v>1</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
+      <c r="O18" s="26">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>1</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>1</v>
+      </c>
+      <c r="T18" s="26">
+        <v>1</v>
+      </c>
+      <c r="U18" s="27">
         <v>300</v>
       </c>
-      <c r="W18" s="33" t="s">
+      <c r="W18" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="X18" s="31">
+      <c r="X18" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y18" s="31">
+      <c r="Y18" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z18" s="31">
+      <c r="Z18" s="26">
         <v>30</v>
       </c>
-      <c r="AA18" s="31">
+      <c r="AA18" s="26">
         <v>18</v>
       </c>
     </row>
@@ -1842,31 +1842,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -1970,15 +1970,15 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
     <col min="2" max="7" width="15.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="8" max="8" width="9.140625" style="14"/>
     <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -2024,7 +2024,7 @@
       <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
@@ -2099,7 +2099,7 @@
       <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="9" t="s">
@@ -2466,7 +2466,7 @@
       <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
@@ -2514,29 +2514,29 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:13" s="23" customFormat="1">
+      <c r="A26" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="45">
       <c r="A27" s="9" t="s">
@@ -2577,7 +2577,7 @@
       <c r="G29" s="12">
         <v>0</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
@@ -2624,28 +2624,28 @@
       <c r="G31" s="10">
         <v>0.25</v>
       </c>
-      <c r="H31" s="17">
-        <f>B9+(1-B9)*B31</f>
+      <c r="H31" s="16">
+        <f t="shared" ref="H31:H43" si="0">B9+(1-B9)*B31</f>
         <v>0.96</v>
       </c>
-      <c r="I31" s="18">
-        <f t="shared" ref="I31:L31" si="0">C9+(1-C9)*C31</f>
+      <c r="I31" s="17">
+        <f t="shared" ref="I31:L31" si="1">C9+(1-C9)*C31</f>
         <v>0.87749999999999995</v>
       </c>
-      <c r="J31" s="18">
-        <f t="shared" si="0"/>
+      <c r="J31" s="17">
+        <f t="shared" si="1"/>
         <v>0.7975000000000001</v>
       </c>
-      <c r="K31" s="18">
-        <f t="shared" si="0"/>
+      <c r="K31" s="17">
+        <f t="shared" si="1"/>
         <v>0.69750000000000001</v>
       </c>
-      <c r="L31" s="18">
-        <f t="shared" si="0"/>
+      <c r="L31" s="17">
+        <f t="shared" si="1"/>
         <v>0.5774999999999999</v>
       </c>
-      <c r="M31" s="18">
-        <f>G9+(1-G9)*G31</f>
+      <c r="M31" s="17">
+        <f t="shared" ref="M31:M43" si="2">G9+(1-G9)*G31</f>
         <v>0.4375</v>
       </c>
     </row>
@@ -2671,28 +2671,28 @@
       <c r="G32" s="10">
         <v>0.25</v>
       </c>
-      <c r="H32" s="17">
-        <f>B10+(1-B10)*B32</f>
+      <c r="H32" s="16">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="I32" s="18">
-        <f>C10+(1-C10)*C32</f>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32:I43" si="3">C10+(1-C10)*C32</f>
         <v>0.77249999999999996</v>
       </c>
-      <c r="J32" s="18">
-        <f>D10+(1-D10)*D32</f>
+      <c r="J32" s="17">
+        <f t="shared" ref="J32:J43" si="4">D10+(1-D10)*D32</f>
         <v>0.66250000000000009</v>
       </c>
-      <c r="K32" s="18">
-        <f>E10+(1-E10)*E32</f>
+      <c r="K32" s="17">
+        <f t="shared" ref="K32:K43" si="5">E10+(1-E10)*E32</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L32" s="18">
-        <f>F10+(1-F10)*F32</f>
+      <c r="L32" s="17">
+        <f t="shared" ref="L32:L43" si="6">F10+(1-F10)*F32</f>
         <v>0.41500000000000004</v>
       </c>
-      <c r="M32" s="18">
-        <f>G10+(1-G10)*G32</f>
+      <c r="M32" s="17">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2718,28 +2718,28 @@
       <c r="G33" s="10">
         <v>0.15</v>
       </c>
-      <c r="H33" s="17">
-        <f>B11+(1-B11)*B33</f>
+      <c r="H33" s="16">
+        <f t="shared" si="0"/>
         <v>0.87999999999999989</v>
       </c>
-      <c r="I33" s="18">
-        <f>C11+(1-C11)*C33</f>
+      <c r="I33" s="17">
+        <f t="shared" si="3"/>
         <v>0.75250000000000006</v>
       </c>
-      <c r="J33" s="18">
-        <f>D11+(1-D11)*D33</f>
+      <c r="J33" s="17">
+        <f t="shared" si="4"/>
         <v>0.64250000000000007</v>
       </c>
-      <c r="K33" s="18">
-        <f>E11+(1-E11)*E33</f>
+      <c r="K33" s="17">
+        <f t="shared" si="5"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="L33" s="18">
-        <f>F11+(1-F11)*F33</f>
+      <c r="L33" s="17">
+        <f t="shared" si="6"/>
         <v>0.36249999999999999</v>
       </c>
-      <c r="M33" s="18">
-        <f>G11+(1-G11)*G33</f>
+      <c r="M33" s="17">
+        <f t="shared" si="2"/>
         <v>0.1925</v>
       </c>
     </row>
@@ -2765,28 +2765,28 @@
       <c r="G34" s="10">
         <v>0.05</v>
       </c>
-      <c r="H34" s="17">
-        <f>B12+(1-B12)*B34</f>
+      <c r="H34" s="16">
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="I34" s="18">
-        <f>C12+(1-C12)*C34</f>
+      <c r="I34" s="17">
+        <f t="shared" si="3"/>
         <v>0.69750000000000001</v>
       </c>
-      <c r="J34" s="18">
-        <f>D12+(1-D12)*D34</f>
+      <c r="J34" s="17">
+        <f t="shared" si="4"/>
         <v>0.5774999999999999</v>
       </c>
-      <c r="K34" s="18">
-        <f>E12+(1-E12)*E34</f>
+      <c r="K34" s="17">
+        <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
-      <c r="L34" s="18">
-        <f>F12+(1-F12)*F34</f>
+      <c r="L34" s="17">
+        <f t="shared" si="6"/>
         <v>0.27749999999999997</v>
       </c>
-      <c r="M34" s="18">
-        <f>G12+(1-G12)*G34</f>
+      <c r="M34" s="17">
+        <f t="shared" si="2"/>
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
@@ -2812,28 +2812,28 @@
       <c r="G35" s="10">
         <v>0.15</v>
       </c>
-      <c r="H35" s="17">
-        <f>B13+(1-B13)*B35</f>
+      <c r="H35" s="16">
+        <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="I35" s="18">
-        <f>C13+(1-C13)*C35</f>
+      <c r="I35" s="17">
+        <f t="shared" si="3"/>
         <v>0.7975000000000001</v>
       </c>
-      <c r="J35" s="18">
-        <f>D13+(1-D13)*D35</f>
+      <c r="J35" s="17">
+        <f t="shared" si="4"/>
         <v>0.69750000000000001</v>
       </c>
-      <c r="K35" s="18">
-        <f>E13+(1-E13)*E35</f>
+      <c r="K35" s="17">
+        <f t="shared" si="5"/>
         <v>0.5774999999999999</v>
       </c>
-      <c r="L35" s="18">
-        <f>F13+(1-F13)*F35</f>
+      <c r="L35" s="17">
+        <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
-      <c r="M35" s="18">
-        <f>G13+(1-G13)*G35</f>
+      <c r="M35" s="17">
+        <f t="shared" si="2"/>
         <v>0.27749999999999997</v>
       </c>
     </row>
@@ -2859,28 +2859,28 @@
       <c r="G36" s="10">
         <v>0.6</v>
       </c>
-      <c r="H36" s="17">
-        <f>B14+(1-B14)*B36</f>
+      <c r="H36" s="16">
+        <f t="shared" si="0"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="I36" s="18">
-        <f>C14+(1-C14)*C36</f>
+      <c r="I36" s="17">
+        <f t="shared" si="3"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="J36" s="18">
-        <f>D14+(1-D14)*D36</f>
+      <c r="J36" s="17">
+        <f t="shared" si="4"/>
         <v>0.78749999999999998</v>
       </c>
-      <c r="K36" s="18">
-        <f>E14+(1-E14)*E36</f>
+      <c r="K36" s="17">
+        <f t="shared" si="5"/>
         <v>0.71499999999999997</v>
       </c>
-      <c r="L36" s="18">
-        <f>F14+(1-F14)*F36</f>
+      <c r="L36" s="17">
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="M36" s="18">
-        <f>G14+(1-G14)*G36</f>
+      <c r="M36" s="17">
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2906,28 +2906,28 @@
       <c r="G37" s="10">
         <v>0.6</v>
       </c>
-      <c r="H37" s="17">
-        <f>B15+(1-B15)*B37</f>
+      <c r="H37" s="16">
+        <f t="shared" si="0"/>
         <v>0.92000000000000015</v>
       </c>
-      <c r="I37" s="18">
-        <f>C15+(1-C15)*C37</f>
+      <c r="I37" s="17">
+        <f t="shared" si="3"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="J37" s="18">
-        <f>D15+(1-D15)*D37</f>
+      <c r="J37" s="17">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="K37" s="18">
-        <f>E15+(1-E15)*E37</f>
+      <c r="K37" s="17">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="L37" s="18">
-        <f>F15+(1-F15)*F37</f>
+      <c r="L37" s="17">
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="M37" s="18">
-        <f>G15+(1-G15)*G37</f>
+      <c r="M37" s="17">
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2953,28 +2953,28 @@
       <c r="G38" s="10">
         <v>0.15</v>
       </c>
-      <c r="H38" s="17">
-        <f>B16+(1-B16)*B38</f>
+      <c r="H38" s="16">
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="I38" s="18">
-        <f>C16+(1-C16)*C38</f>
+      <c r="I38" s="17">
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
-      <c r="J38" s="18">
-        <f>D16+(1-D16)*D38</f>
+      <c r="J38" s="17">
+        <f t="shared" si="4"/>
         <v>0.86250000000000004</v>
       </c>
-      <c r="K38" s="18">
-        <f>E16+(1-E16)*E38</f>
+      <c r="K38" s="17">
+        <f t="shared" si="5"/>
         <v>0.80499999999999994</v>
       </c>
-      <c r="L38" s="18">
-        <f>F16+(1-F16)*F38</f>
+      <c r="L38" s="17">
+        <f t="shared" si="6"/>
         <v>0.73750000000000004</v>
       </c>
-      <c r="M38" s="18">
-        <f>G16+(1-G16)*G38</f>
+      <c r="M38" s="17">
+        <f t="shared" si="2"/>
         <v>0.65999999999999992</v>
       </c>
     </row>
@@ -3000,28 +3000,28 @@
       <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="17">
-        <f>B17+(1-B17)*B39</f>
+      <c r="H39" s="16">
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="I39" s="18">
-        <f>C17+(1-C17)*C39</f>
+      <c r="I39" s="17">
+        <f t="shared" si="3"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="J39" s="18">
-        <f>D17+(1-D17)*D39</f>
+      <c r="J39" s="17">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="K39" s="18">
-        <f>E17+(1-E17)*E39</f>
+      <c r="K39" s="17">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="L39" s="18">
-        <f>F17+(1-F17)*F39</f>
+      <c r="L39" s="17">
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="M39" s="18">
-        <f>G17+(1-G17)*G39</f>
+      <c r="M39" s="17">
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3047,28 +3047,28 @@
       <c r="G40" s="10">
         <v>0</v>
       </c>
-      <c r="H40" s="17">
-        <f>B18+(1-B18)*B40</f>
+      <c r="H40" s="16">
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I40" s="18">
-        <f>C18+(1-C18)*C40</f>
+      <c r="I40" s="17">
+        <f t="shared" si="3"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="J40" s="18">
-        <f>D18+(1-D18)*D40</f>
+      <c r="J40" s="17">
+        <f t="shared" si="4"/>
         <v>0.36249999999999999</v>
       </c>
-      <c r="K40" s="18">
-        <f>E18+(1-E18)*E40</f>
+      <c r="K40" s="17">
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
-      <c r="L40" s="18">
-        <f>F18+(1-F18)*F40</f>
+      <c r="L40" s="17">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="M40" s="18">
-        <f>G18+(1-G18)*G40</f>
+      <c r="M40" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3094,28 +3094,28 @@
       <c r="G41" s="10">
         <v>0.25</v>
       </c>
-      <c r="H41" s="17">
-        <f>B19+(1-B19)*B41</f>
+      <c r="H41" s="16">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="I41" s="18">
-        <f>C19+(1-C19)*C41</f>
+      <c r="I41" s="17">
+        <f t="shared" si="3"/>
         <v>0.77249999999999996</v>
       </c>
-      <c r="J41" s="18">
-        <f>D19+(1-D19)*D41</f>
+      <c r="J41" s="17">
+        <f t="shared" si="4"/>
         <v>0.66250000000000009</v>
       </c>
-      <c r="K41" s="18">
-        <f>E19+(1-E19)*E41</f>
+      <c r="K41" s="17">
+        <f t="shared" si="5"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L41" s="18">
-        <f>F19+(1-F19)*F41</f>
+      <c r="L41" s="17">
+        <f t="shared" si="6"/>
         <v>0.41500000000000004</v>
       </c>
-      <c r="M41" s="18">
-        <f>G19+(1-G19)*G41</f>
+      <c r="M41" s="17">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3141,28 +3141,28 @@
       <c r="G42" s="10">
         <v>0.25</v>
       </c>
-      <c r="H42" s="17">
-        <f>B20+(1-B20)*B42</f>
+      <c r="H42" s="16">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="I42" s="18">
-        <f>C20+(1-C20)*C42</f>
+      <c r="I42" s="17">
+        <f t="shared" si="3"/>
         <v>0.73750000000000004</v>
       </c>
-      <c r="J42" s="18">
-        <f>D20+(1-D20)*D42</f>
+      <c r="J42" s="17">
+        <f t="shared" si="4"/>
         <v>0.61750000000000005</v>
       </c>
-      <c r="K42" s="18">
-        <f>E20+(1-E20)*E42</f>
+      <c r="K42" s="17">
+        <f t="shared" si="5"/>
         <v>0.47749999999999998</v>
       </c>
-      <c r="L42" s="18">
-        <f>F20+(1-F20)*F42</f>
+      <c r="L42" s="17">
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="M42" s="18">
-        <f>G20+(1-G20)*G42</f>
+      <c r="M42" s="17">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3188,28 +3188,28 @@
       <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="17">
-        <f>B21+(1-B21)*B43</f>
+      <c r="H43" s="16">
+        <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="I43" s="18">
-        <f>C21+(1-C21)*C43</f>
+      <c r="I43" s="17">
+        <f t="shared" si="3"/>
         <v>0.68500000000000005</v>
       </c>
-      <c r="J43" s="18">
-        <f>D21+(1-D21)*D43</f>
+      <c r="J43" s="17">
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K43" s="18">
-        <f>E21+(1-E21)*E43</f>
+      <c r="K43" s="17">
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="L43" s="18">
-        <f>F21+(1-F21)*F43</f>
+      <c r="L43" s="17">
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="M43" s="18">
-        <f>G21+(1-G21)*G43</f>
+      <c r="M43" s="17">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       <c r="G48" s="12">
         <v>0</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" ref="I55:I57" si="1">13-SUM(B55:F55)</f>
+        <f t="shared" ref="I55:I57" si="7">13-SUM(B55:F55)</f>
         <v>0</v>
       </c>
     </row>
@@ -3410,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="I57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -3442,8 +3442,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="21"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -3589,7 +3589,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B5">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -3840,7 +3840,7 @@
       <c r="D16" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>126</v>
       </c>
       <c r="F16" t="s">
@@ -3857,60 +3857,60 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>0.25</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>0.25</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>0.17</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>0.17</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>0.25</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>0.25</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>0.17</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>0.25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>0.25</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>0.33</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>0.33</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>0.25</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>0.25</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>0.33</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>0.33</v>
       </c>
     </row>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycode\KongFuWeb\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -147,69 +147,21 @@
     <t>攀打</t>
   </si>
   <si>
-    <t>推手</t>
-  </si>
-  <si>
-    <t>擒拿</t>
-  </si>
-  <si>
     <t>双峰贯耳</t>
   </si>
   <si>
-    <t>鸳鸯腿</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>肘底捶</t>
-  </si>
-  <si>
-    <t>炮锤</t>
-  </si>
-  <si>
     <t>泰拳</t>
   </si>
   <si>
     <t>直拳</t>
   </si>
   <si>
-    <t>左右勾拳</t>
-  </si>
-  <si>
-    <t>上勾拳</t>
-  </si>
-  <si>
-    <t>肘击</t>
-  </si>
-  <si>
-    <t>膝撞</t>
-  </si>
-  <si>
-    <t>蹬腿</t>
-  </si>
-  <si>
     <t>攻击发出部位</t>
   </si>
   <si>
-    <t>扫腿</t>
-  </si>
-  <si>
-    <t>几率踉跄</t>
-  </si>
-  <si>
-    <t>50%破防</t>
-  </si>
-  <si>
-    <t>第二70%破防</t>
-  </si>
-  <si>
-    <t>绊摔</t>
-  </si>
-  <si>
-    <t>30%破防</t>
-  </si>
-  <si>
     <t>力量</t>
   </si>
   <si>
@@ -226,9 +178,6 @@
   </si>
   <si>
     <t>稳定</t>
-  </si>
-  <si>
-    <t>消耗稳定度</t>
   </si>
   <si>
     <t>s</t>
@@ -520,28 +469,97 @@
     <t>-10%</t>
   </si>
   <si>
-    <t>倒地稳定清零，防御后不受伤害</t>
-  </si>
-  <si>
     <t>-5%</t>
+  </si>
+  <si>
+    <t>攻击时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗稳定度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擒拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘底捶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二70%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绊摔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御后不受伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹬腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -549,7 +567,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -557,7 +575,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,7 +583,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -573,7 +591,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -581,7 +599,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,7 +607,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -657,7 +675,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -730,6 +748,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,60 +1085,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="27" customWidth="1"/>
-    <col min="8" max="11" width="5" style="26" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="26" customWidth="1"/>
-    <col min="13" max="18" width="5" style="26" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="28" customWidth="1"/>
-    <col min="24" max="26" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="34" style="32" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5" style="32" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
       <c r="U1" s="27" t="s">
         <v>27</v>
       </c>
@@ -1125,25 +1151,28 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="AB1" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+        <v>138</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1227,22 +1256,25 @@
       <c r="X3" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="26">
+      <c r="Y3" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="AA3" s="26">
         <v>5</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AB3" s="26">
         <v>3</v>
       </c>
-      <c r="AB3" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -1262,19 +1294,22 @@
       <c r="X4" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="AA4" s="26">
         <v>80</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AB4" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -1294,19 +1329,22 @@
       <c r="X5" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="AA5" s="26">
         <v>10</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AB5" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -1321,27 +1359,27 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="AA6" s="26">
         <v>10</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AB6" s="26">
         <v>5</v>
       </c>
-      <c r="AB6" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -1368,27 +1406,30 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z7" s="26">
+      <c r="AA7" s="26">
         <v>15</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>5</v>
       </c>
-      <c r="AB7" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -1411,19 +1452,22 @@
       <c r="X8" s="26">
         <v>0.6</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="AA8" s="26">
         <v>60</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AB8" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -1443,22 +1487,25 @@
       <c r="X9" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="AA9" s="26">
         <v>25</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>15</v>
       </c>
-      <c r="AB9" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -1479,30 +1526,33 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="AA10" s="26">
         <v>200</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AB10" s="26">
         <v>15</v>
       </c>
-      <c r="AB10" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC10" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -1525,19 +1575,22 @@
       <c r="X12" s="26">
         <v>0.2</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="26">
         <v>0.2</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="AA12" s="26">
         <v>10</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AB12" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -1563,19 +1616,22 @@
       <c r="X13" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="Y13" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="AA13" s="26">
         <v>20</v>
       </c>
-      <c r="AA13" s="26">
+      <c r="AB13" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -1598,19 +1654,22 @@
       <c r="X14" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="Y14" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="AA14" s="26">
         <v>25</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AB14" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1631,24 +1690,27 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="Y15" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="AA15" s="26">
         <v>18</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AB15" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -1669,24 +1731,27 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
       </c>
-      <c r="Y16" s="26">
+      <c r="Y16" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="26">
         <v>0.3</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="AA16" s="26">
         <v>28</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AB16" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -1716,24 +1781,27 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y17" s="26">
+      <c r="Y17" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="AA17" s="26">
         <v>35</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AB17" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -1778,18 +1846,21 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
       </c>
-      <c r="Y18" s="26">
+      <c r="Y18" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="AA18" s="26">
         <v>30</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AB18" s="26">
         <v>18</v>
       </c>
     </row>
@@ -1810,8 +1881,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1824,49 +1896,49 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -1883,7 +1955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +2020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1961,6 +2033,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:W1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1969,20 +2042,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2" max="7" width="15.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="14"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="20.75" style="9" customWidth="1"/>
+    <col min="2" max="7" width="15.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="14"/>
+    <col min="9" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="9">
         <v>5</v>
       </c>
@@ -2002,9 +2075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12">
         <v>5</v>
@@ -2026,9 +2099,9 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10">
         <v>1.75</v>
@@ -2049,37 +2122,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="D4" s="10">
+        <v>1.55</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="F4" s="10">
         <v>1.25</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
       <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
@@ -2101,30 +2174,30 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10">
         <v>0.5</v>
@@ -2145,9 +2218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10">
         <v>0.8</v>
@@ -2168,9 +2241,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10">
         <v>0.5</v>
@@ -2191,9 +2264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B11" s="10">
         <v>0.6</v>
@@ -2214,9 +2287,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B12" s="10">
         <v>0.6</v>
@@ -2237,9 +2310,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B13" s="10">
         <v>0.7</v>
@@ -2260,9 +2333,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B14" s="10">
         <v>0.4</v>
@@ -2283,9 +2356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B15" s="10">
         <v>0.2</v>
@@ -2306,9 +2379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B16" s="10">
         <v>0.9</v>
@@ -2329,9 +2402,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B17" s="10">
         <v>0.9</v>
@@ -2352,9 +2425,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B18" s="10">
         <v>0.4</v>
@@ -2375,9 +2448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B19" s="10">
         <v>0.5</v>
@@ -2398,9 +2471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B20" s="10">
         <v>0.4</v>
@@ -2421,9 +2494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B21" s="10">
         <v>0.8</v>
@@ -2444,9 +2517,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="12" customFormat="1">
+    <row r="23" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B23" s="12">
         <v>5</v>
@@ -2468,9 +2541,9 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B24" s="10">
         <v>0.25</v>
@@ -2491,73 +2564,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="45">
+    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="23" customFormat="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:13" ht="45">
+    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="12" customFormat="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B29" s="12">
         <v>5</v>
@@ -2579,9 +2652,9 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B30" s="10">
         <v>0.5</v>
@@ -2602,9 +2675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B31" s="10">
         <v>0.8</v>
@@ -2649,9 +2722,9 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B32" s="10">
         <v>0.8</v>
@@ -2696,9 +2769,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B33" s="10">
         <v>0.7</v>
@@ -2743,9 +2816,9 @@
         <v>0.1925</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B34" s="10">
         <v>0.6</v>
@@ -2790,9 +2863,9 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B35" s="10">
         <v>0.7</v>
@@ -2837,9 +2910,9 @@
         <v>0.27749999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B36" s="10">
         <v>0.9</v>
@@ -2884,9 +2957,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B37" s="10">
         <v>0.9</v>
@@ -2931,9 +3004,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B38" s="10">
         <v>0.7</v>
@@ -2978,9 +3051,9 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B39" s="10">
         <v>0.2</v>
@@ -3025,9 +3098,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B40" s="10">
         <v>0.5</v>
@@ -3072,9 +3145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B41" s="10">
         <v>0.8</v>
@@ -3119,9 +3192,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B42" s="10">
         <v>0.8</v>
@@ -3166,9 +3239,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B43" s="10">
         <v>0.2</v>
@@ -3213,9 +3286,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B44" s="10">
         <v>0.5</v>
@@ -3236,9 +3309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B45" s="10">
         <v>0.2</v>
@@ -3259,9 +3332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B46" s="10">
         <v>0.8</v>
@@ -3282,9 +3355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="12" customFormat="1">
+    <row r="48" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D48" s="12">
         <v>3</v>
@@ -3300,9 +3373,9 @@
       </c>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D49" s="9">
         <v>150</v>
@@ -3317,9 +3390,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9">
         <v>3</v>
@@ -3334,24 +3407,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>3</v>
       </c>
@@ -3372,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>5</v>
       </c>
@@ -3393,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>5</v>
       </c>
@@ -3414,13 +3487,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I57" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3429,19 +3503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="19" t="s">
         <v>6</v>
@@ -3459,63 +3533,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3533,9 +3607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3553,9 +3627,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3588,9 +3662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3623,9 +3697,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3634,9 +3708,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3645,9 +3719,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3665,9 +3739,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3685,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
@@ -3702,63 +3776,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>124</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>141</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -3830,35 +3904,35 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="B17" s="22">
         <v>0.25</v>
@@ -3885,9 +3959,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1">
+    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B18" s="22">
         <v>0.25</v>
@@ -3915,6 +3989,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3929,104 +4004,104 @@
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="21" max="22" width="6.42578125" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" customWidth="1"/>
-    <col min="27" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="7.125" customWidth="1"/>
+    <col min="21" max="22" width="6.375" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
+    <col min="27" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N1">
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="T1">
         <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="V1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="X1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Z1">
         <v>0</v>
       </c>
       <c r="AA1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AC1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4046,7 +4121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -4070,7 +4145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -4097,7 +4172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -4124,7 +4199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -4151,7 +4226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -4178,7 +4253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -4205,7 +4280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -4232,7 +4307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -4259,7 +4334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -4286,7 +4361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4313,7 +4388,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -4352,7 +4427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -4392,7 +4467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -4432,7 +4507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -4468,7 +4543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -4504,7 +4579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -4543,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -4570,7 +4645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -4597,7 +4672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -4624,7 +4699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4651,7 +4726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -4678,7 +4753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -4705,7 +4780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -4732,7 +4807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -4759,7 +4834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -4786,7 +4861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -4814,7 +4889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -4842,7 +4917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -4870,7 +4945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -4913,7 +4988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4940,7 +5015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -4967,7 +5042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -4994,7 +5069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -5021,7 +5096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -5048,7 +5123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -5075,7 +5150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -5102,7 +5177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -5129,7 +5204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -5156,7 +5231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -5196,7 +5271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5236,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
@@ -5279,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -5306,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -5333,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -5360,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -5387,7 +5462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
@@ -5414,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -5441,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.8</v>
       </c>
@@ -5468,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -5495,7 +5570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -5522,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
@@ -5547,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -5572,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5.3</v>
       </c>
@@ -5608,7 +5683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -5644,7 +5719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -5683,7 +5758,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5.6</v>
       </c>
@@ -5710,7 +5785,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -5737,7 +5812,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -5764,7 +5839,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -5791,7 +5866,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -5818,7 +5893,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6.1</v>
       </c>
@@ -5845,7 +5920,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -5872,7 +5947,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6.3</v>
       </c>
@@ -5899,7 +5974,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -5926,7 +6001,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -5954,7 +6029,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6.6</v>
       </c>
@@ -5982,7 +6057,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -6010,7 +6085,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.8</v>
       </c>
@@ -6038,7 +6113,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -6062,7 +6137,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -6110,7 +6185,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7.1</v>
       </c>
@@ -6146,7 +6221,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -6182,7 +6257,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7.3</v>
       </c>
@@ -6218,7 +6293,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -6254,7 +6329,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -6290,7 +6365,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7.6</v>
       </c>
@@ -6326,7 +6401,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -6362,7 +6437,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7.8</v>
       </c>
@@ -6398,7 +6473,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -6434,7 +6509,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -6483,7 +6558,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -6532,7 +6607,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
@@ -6581,7 +6656,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -6630,7 +6705,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -6670,7 +6745,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -6706,7 +6781,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -6742,7 +6817,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
@@ -6778,7 +6853,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -6814,7 +6889,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -6850,7 +6925,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9</v>
       </c>
@@ -6886,7 +6961,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -6922,7 +6997,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
@@ -6958,7 +7033,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -6994,7 +7069,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -7031,7 +7106,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -7068,7 +7143,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9.6</v>
       </c>
@@ -7105,7 +7180,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
@@ -7145,7 +7220,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -7172,7 +7247,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -7199,7 +7274,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -7226,7 +7301,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -7253,7 +7328,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -7280,7 +7355,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -7307,7 +7382,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -7334,7 +7409,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -7361,7 +7436,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -7388,7 +7463,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -7413,7 +7488,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -7438,7 +7513,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -7463,7 +7538,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11</v>
       </c>
@@ -7493,207 +7568,208 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>11.1</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11.3</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>11.4</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11.5</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11.6</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11.7</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11.8</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11.9</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12.1</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12.2</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12.3</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12.4</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12.5</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12.6</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12.7</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12.8</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12.9</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13.1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13.2</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13.3</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13.4</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>13.5</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13.6</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13.7</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13.8</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13.9</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14.2</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14.3</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14.4</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14.5</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14.6</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14.7</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14.8</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14.9</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycode\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -234,9 +234,6 @@
     <t>后摇+0.1s</t>
   </si>
   <si>
-    <t>前摇+0.1s</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -542,24 +539,28 @@
   <si>
     <t>扫腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摇+0.1s
+前摇+0.1s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,7 +568,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -575,7 +576,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -583,7 +584,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,7 +592,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -599,7 +600,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -607,7 +608,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1094,16 +1095,16 @@
       <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
@@ -1111,11 +1112,11 @@
     <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.5" style="32" customWidth="1"/>
-    <col min="30" max="16384" width="9.125" style="26"/>
+    <col min="29" max="29" width="26.42578125" style="32" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1151,13 +1152,13 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
@@ -1166,13 +1167,13 @@
         <v>31</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1269,12 +1270,12 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="26" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -1307,9 +1308,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="B5" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -1342,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1377,9 +1378,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="B7" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -1406,7 +1407,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1424,12 +1425,12 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="26" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>144</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -1465,9 +1466,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="B9" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -1500,12 +1501,12 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="26" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -1526,7 +1527,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1544,10 +1545,10 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
@@ -1588,9 +1589,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="B13" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -1629,9 +1630,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="B14" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -1667,9 +1668,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="B15" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1690,7 +1691,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -1708,9 +1709,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="B16" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -1731,7 +1732,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -1749,9 +1750,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28">
       <c r="B17" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -1781,7 +1782,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -1799,9 +1800,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="B18" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -1846,7 +1847,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -1881,7 +1882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1896,18 +1897,18 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2042,20 +2043,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="9" customWidth="1"/>
-    <col min="2" max="7" width="15.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="14"/>
-    <col min="9" max="16384" width="9.125" style="9"/>
+    <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2" max="7" width="15.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" s="9">
         <v>5</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
@@ -2099,7 +2100,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
@@ -2145,12 +2146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="G5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2175,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
@@ -2191,11 +2192,11 @@
       <c r="F7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -2218,9 +2219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10">
         <v>0.8</v>
@@ -2241,9 +2242,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="10">
         <v>0.5</v>
@@ -2264,9 +2265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10">
         <v>0.6</v>
@@ -2287,9 +2288,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="10">
         <v>0.6</v>
@@ -2310,9 +2311,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10">
         <v>0.7</v>
@@ -2333,9 +2334,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10">
         <v>0.4</v>
@@ -2356,9 +2357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="10">
         <v>0.2</v>
@@ -2379,9 +2380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="10">
         <v>0.9</v>
@@ -2402,9 +2403,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="10">
         <v>0.9</v>
@@ -2425,9 +2426,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="10">
         <v>0.4</v>
@@ -2448,9 +2449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="10">
         <v>0.5</v>
@@ -2471,9 +2472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="10">
         <v>0.4</v>
@@ -2494,9 +2495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="10">
         <v>0.8</v>
@@ -2517,7 +2518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="12" customFormat="1">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -2541,9 +2542,9 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="10">
         <v>0.25</v>
@@ -2564,71 +2565,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="45">
       <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="D26" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="G26" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="45">
       <c r="A27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2652,9 +2653,9 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10">
         <v>0.5</v>
@@ -2675,9 +2676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="10">
         <v>0.8</v>
@@ -2722,9 +2723,9 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="10">
         <v>0.8</v>
@@ -2769,9 +2770,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="10">
         <v>0.7</v>
@@ -2816,9 +2817,9 @@
         <v>0.1925</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10">
         <v>0.6</v>
@@ -2863,9 +2864,9 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="10">
         <v>0.7</v>
@@ -2910,9 +2911,9 @@
         <v>0.27749999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="10">
         <v>0.9</v>
@@ -2957,9 +2958,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="10">
         <v>0.9</v>
@@ -3004,9 +3005,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="10">
         <v>0.7</v>
@@ -3051,9 +3052,9 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="10">
         <v>0.2</v>
@@ -3098,9 +3099,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="10">
         <v>0.5</v>
@@ -3145,9 +3146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="10">
         <v>0.8</v>
@@ -3192,9 +3193,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="10">
         <v>0.8</v>
@@ -3239,9 +3240,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="10">
         <v>0.2</v>
@@ -3286,9 +3287,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="10">
         <v>0.5</v>
@@ -3309,9 +3310,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="10">
         <v>0.2</v>
@@ -3332,9 +3333,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="10">
         <v>0.8</v>
@@ -3355,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="12" customFormat="1">
       <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
@@ -3373,7 +3374,7 @@
       </c>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>52</v>
       </c>
@@ -3404,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" s="9" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="B54" s="9">
         <v>3</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="B55" s="9">
         <v>5</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="B56" s="9">
         <v>5</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="I57" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -3507,15 +3508,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="20" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="20"/>
       <c r="B1" s="19" t="s">
         <v>6</v>
@@ -3533,216 +3534,216 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
@@ -3776,63 +3777,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
         <v>114</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>124</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -3904,35 +3905,35 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>107</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>110</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>111</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="22">
         <v>0.25</v>
@@ -3959,9 +3960,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="22">
         <v>0.25</v>
@@ -4004,24 +4005,24 @@
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="7.625" customWidth="1"/>
+    <col min="2" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.375" customWidth="1"/>
-    <col min="17" max="17" width="7.125" customWidth="1"/>
-    <col min="21" max="22" width="6.375" customWidth="1"/>
-    <col min="23" max="23" width="7.125" customWidth="1"/>
-    <col min="27" max="28" width="6.375" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="21" max="22" width="6.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="27" max="28" width="6.42578125" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>4.8</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>5</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>5.3</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>5.6</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>6</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>6.1</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>6.3</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>6.6</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>6.8</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>7</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>7.1</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>7.3</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>7.6</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>7.8</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>8</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -6745,7 +6746,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>9</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30">
       <c r="A98">
         <v>9.6</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30">
       <c r="A102">
         <v>10</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30">
       <c r="A112">
         <v>11</v>
       </c>
@@ -7568,202 +7569,202 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>11.1</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>11.3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>11.4</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>11.5</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>11.6</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>11.7</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>11.8</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>11.9</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>12.1</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>12.2</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>12.3</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>12.4</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>12.5</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>12.6</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>12.7</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>12.8</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>12.9</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>13.1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>13.2</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>13.3</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>13.4</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>13.5</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>13.6</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>13.7</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>13.8</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>13.9</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>14.2</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>14.3</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>14.4</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>14.5</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>14.6</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>14.7</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>14.8</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>14.9</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>15</v>
       </c>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
   <si>
     <t>招式</t>
   </si>
@@ -543,6 +543,9 @@
   <si>
     <t>后摇+0.1s
 前摇+0.1s</t>
+  </si>
+  <si>
+    <t>手</t>
   </si>
 </sst>
 </file>
@@ -1088,11 +1091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1178,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>13</v>
@@ -2043,9 +2046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3505,7 +3508,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycode\KongFuWeb\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
   <si>
     <t>招式</t>
   </si>
@@ -84,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -177,9 +177,6 @@
     <t>平衡</t>
   </si>
   <si>
-    <t>稳定</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -217,353 +214,545 @@
   </si>
   <si>
     <t>速度</t>
+  </si>
+  <si>
+    <t>后摇-0.1s，
+招式-0.1s</t>
+  </si>
+  <si>
+    <t>招式-0.1s</t>
+  </si>
+  <si>
+    <t>后摇+0.1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>暴击几率</t>
+  </si>
+  <si>
+    <t>情报</t>
+  </si>
+  <si>
+    <t>属性数值，
+损伤图例，
+损伤数值</t>
+  </si>
+  <si>
+    <t>属性数值，
+损伤图例，</t>
+  </si>
+  <si>
+    <t>属性程度</t>
+  </si>
+  <si>
+    <t>属性程度，
+损伤图例，</t>
+  </si>
+  <si>
+    <t>防御几率</t>
+  </si>
+  <si>
+    <t>攻击力浮动几率</t>
+  </si>
+  <si>
+    <t>70%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>80%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>60%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>50%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>20%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>30%几率正浮动
++10%~-10%</t>
+  </si>
+  <si>
+    <t>防御后反伤</t>
+  </si>
+  <si>
+    <t>一般反伤</t>
+  </si>
+  <si>
+    <t>【闪避】头</t>
+  </si>
+  <si>
+    <t>【闪避】胸部</t>
+  </si>
+  <si>
+    <t>【闪避】腹部</t>
+  </si>
+  <si>
+    <t>【闪避】肩关节</t>
+  </si>
+  <si>
+    <t>【闪避】上臂</t>
+  </si>
+  <si>
+    <t>【闪避】前臂</t>
+  </si>
+  <si>
+    <t>【闪避】手肘</t>
+  </si>
+  <si>
+    <t>【闪避】手腕</t>
+  </si>
+  <si>
+    <t>【闪避】大腿</t>
+  </si>
+  <si>
+    <t>【闪避】小腿</t>
+  </si>
+  <si>
+    <t>【闪避】膝关节</t>
+  </si>
+  <si>
+    <t>【闪避】踝关节</t>
+  </si>
+  <si>
+    <t>【防御率】头</t>
+  </si>
+  <si>
+    <t>【防御率】胸部</t>
+  </si>
+  <si>
+    <t>【防御率】腹部</t>
+  </si>
+  <si>
+    <t>【防御率】肩关节</t>
+  </si>
+  <si>
+    <t>【防御率】上臂</t>
+  </si>
+  <si>
+    <t>【防御率】前臂</t>
+  </si>
+  <si>
+    <t>【防御率】手肘</t>
+  </si>
+  <si>
+    <t>【防御率】手腕</t>
+  </si>
+  <si>
+    <t>【防御率】大腿</t>
+  </si>
+  <si>
+    <t>【防御率】小腿</t>
+  </si>
+  <si>
+    <t>【防御率】膝关节</t>
+  </si>
+  <si>
+    <t>【防御率】踝关节</t>
+  </si>
+  <si>
+    <t>【闪避】两腰</t>
+  </si>
+  <si>
+    <t>【防御率】两腰</t>
+  </si>
+  <si>
+    <t>防御稳定反弹</t>
+  </si>
+  <si>
+    <t>左上臂</t>
+  </si>
+  <si>
+    <t>右上臂</t>
+  </si>
+  <si>
+    <t>左前臂</t>
+  </si>
+  <si>
+    <t>右前臂</t>
+  </si>
+  <si>
+    <t>左大腿</t>
+  </si>
+  <si>
+    <t>右大腿</t>
+  </si>
+  <si>
+    <t>左小腿</t>
+  </si>
+  <si>
+    <t>右小腿</t>
+  </si>
+  <si>
+    <t>左肩关节</t>
+  </si>
+  <si>
+    <t>右肩关节</t>
+  </si>
+  <si>
+    <t>左手肘</t>
+  </si>
+  <si>
+    <t>右手肘</t>
+  </si>
+  <si>
+    <t>左手腕</t>
+  </si>
+  <si>
+    <t>右手腕</t>
+  </si>
+  <si>
+    <t>左膝关节</t>
+  </si>
+  <si>
+    <t>左踝关节</t>
+  </si>
+  <si>
+    <t>右膝关节</t>
+  </si>
+  <si>
+    <t>右踝关节</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>防御分摊外伤</t>
+  </si>
+  <si>
+    <t>被防御部分摊外伤</t>
+  </si>
+  <si>
+    <t>命中修正</t>
+  </si>
+  <si>
+    <t>命中率修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  2%</t>
+  </si>
+  <si>
+    <t>-10%</t>
+  </si>
+  <si>
+    <t>-5%</t>
+  </si>
+  <si>
+    <t>攻击时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗稳定度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擒拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘底捶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二70%破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绊摔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御后不受伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹬腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摇+0.1s
+前摇+0.1s</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>SX_Liliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_Minjie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_Zhili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_Tizhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_Pinheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baojishanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuduJC_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuduJC_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuduJC_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前摇-0.1s，
 后摇-0.1s，
 招式-0.1s</t>
-  </si>
-  <si>
-    <t>后摇-0.1s，
-招式-0.1s</t>
-  </si>
-  <si>
-    <t>招式-0.1s</t>
-  </si>
-  <si>
-    <t>后摇+0.1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>暴击几率</t>
-  </si>
-  <si>
-    <t>情报</t>
-  </si>
-  <si>
-    <t>属性数值，
-损伤图例，
-损伤数值</t>
-  </si>
-  <si>
-    <t>属性数值，
-损伤图例，</t>
-  </si>
-  <si>
-    <t>属性程度</t>
-  </si>
-  <si>
-    <t>属性程度，
-损伤图例，</t>
-  </si>
-  <si>
-    <t>防御几率</t>
-  </si>
-  <si>
-    <t>攻击力浮动几率</t>
-  </si>
-  <si>
-    <t>70%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>80%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>60%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>50%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>20%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>30%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>防御后反伤</t>
-  </si>
-  <si>
-    <t>一般反伤</t>
-  </si>
-  <si>
-    <t>【闪避】头</t>
-  </si>
-  <si>
-    <t>【闪避】胸部</t>
-  </si>
-  <si>
-    <t>【闪避】腹部</t>
-  </si>
-  <si>
-    <t>【闪避】肩关节</t>
-  </si>
-  <si>
-    <t>【闪避】上臂</t>
-  </si>
-  <si>
-    <t>【闪避】前臂</t>
-  </si>
-  <si>
-    <t>【闪避】手肘</t>
-  </si>
-  <si>
-    <t>【闪避】手腕</t>
-  </si>
-  <si>
-    <t>【闪避】大腿</t>
-  </si>
-  <si>
-    <t>【闪避】小腿</t>
-  </si>
-  <si>
-    <t>【闪避】膝关节</t>
-  </si>
-  <si>
-    <t>【闪避】踝关节</t>
-  </si>
-  <si>
-    <t>【防御率】头</t>
-  </si>
-  <si>
-    <t>【防御率】胸部</t>
-  </si>
-  <si>
-    <t>【防御率】腹部</t>
-  </si>
-  <si>
-    <t>【防御率】肩关节</t>
-  </si>
-  <si>
-    <t>【防御率】上臂</t>
-  </si>
-  <si>
-    <t>【防御率】前臂</t>
-  </si>
-  <si>
-    <t>【防御率】手肘</t>
-  </si>
-  <si>
-    <t>【防御率】手腕</t>
-  </si>
-  <si>
-    <t>【防御率】大腿</t>
-  </si>
-  <si>
-    <t>【防御率】小腿</t>
-  </si>
-  <si>
-    <t>【防御率】膝关节</t>
-  </si>
-  <si>
-    <t>【防御率】踝关节</t>
-  </si>
-  <si>
-    <t>【闪避】两腰</t>
-  </si>
-  <si>
-    <t>【防御率】两腰</t>
-  </si>
-  <si>
-    <t>防御稳定反弹</t>
-  </si>
-  <si>
-    <t>左上臂</t>
-  </si>
-  <si>
-    <t>右上臂</t>
-  </si>
-  <si>
-    <t>左前臂</t>
-  </si>
-  <si>
-    <t>右前臂</t>
-  </si>
-  <si>
-    <t>左大腿</t>
-  </si>
-  <si>
-    <t>右大腿</t>
-  </si>
-  <si>
-    <t>左小腿</t>
-  </si>
-  <si>
-    <t>右小腿</t>
-  </si>
-  <si>
-    <t>左肩关节</t>
-  </si>
-  <si>
-    <t>右肩关节</t>
-  </si>
-  <si>
-    <t>左手肘</t>
-  </si>
-  <si>
-    <t>右手肘</t>
-  </si>
-  <si>
-    <t>左手腕</t>
-  </si>
-  <si>
-    <t>右手腕</t>
-  </si>
-  <si>
-    <t>左膝关节</t>
-  </si>
-  <si>
-    <t>左踝关节</t>
-  </si>
-  <si>
-    <t>右膝关节</t>
-  </si>
-  <si>
-    <t>右踝关节</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>防御分摊外伤</t>
-  </si>
-  <si>
-    <t>被防御部分摊外伤</t>
-  </si>
-  <si>
-    <t>命中修正</t>
-  </si>
-  <si>
-    <t>命中率修正</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  2%</t>
-  </si>
-  <si>
-    <t>-10%</t>
-  </si>
-  <si>
-    <t>-5%</t>
-  </si>
-  <si>
-    <t>攻击时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗稳定度</t>
+    <t>招式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30%破防</t>
+    <t>SB_tou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推手</t>
+    <t>SB_xiong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>擒拿</t>
+    <t>SB_fu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肘底捶</t>
+    <t>SB_yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%破防</t>
+    <t>SB_jian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炮锤</t>
+    <t>SB_shangbi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸳鸯腿</t>
+    <t>SB_qianbi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二70%破防</t>
+    <t>SB_zhou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绊摔</t>
+    <t>SB_shouwan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御后不受伤害</t>
+    <t>SB_datui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左右勾拳</t>
+    <t>SB_xiaotui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上勾拳</t>
+    <t>SB_xi</t>
+  </si>
+  <si>
+    <t>SB_kuai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肘击</t>
+    <t>baojijilv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>膝撞</t>
+    <t>minzhongxz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蹬腿</t>
+    <t>FY_tou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫腿</t>
+    <t>FY_xiong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后摇+0.1s
-前摇+0.1s</t>
-  </si>
-  <si>
-    <t>手</t>
+    <t>FY_fu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_yao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_jian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_shangbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_qianbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_zhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_shouwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_datui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_xiaotui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY_kuai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wendinzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yibanfanshuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wendinhuifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongjiJC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongjifudongjilv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyufanshuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wendinfantan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,7 +760,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -579,7 +768,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,7 +776,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,7 +784,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -603,7 +792,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,8 +800,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,7 +898,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,6 +989,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1091,23 +1349,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
@@ -1115,8 +1373,8 @@
     <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.42578125" style="32" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="26"/>
+    <col min="29" max="29" width="26.375" style="32" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1155,13 +1413,13 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
@@ -1170,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1181,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>13</v>
@@ -1273,12 +1531,12 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="B4" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -1313,7 +1571,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -1363,7 +1621,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1383,7 +1641,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -1410,7 +1668,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1428,12 +1686,12 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -1471,7 +1729,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -1504,12 +1762,12 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -1530,7 +1788,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1548,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1594,7 +1852,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -1635,7 +1893,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -1673,7 +1931,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1694,7 +1952,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -1714,7 +1972,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -1735,7 +1993,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -1755,7 +2013,7 @@
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -1785,7 +2043,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -1805,7 +2063,7 @@
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -1850,7 +2108,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -1885,7 +2143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,15 +2158,15 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -2044,1462 +2302,1637 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2" max="7" width="15.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="14"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
+    <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="40" customWidth="1"/>
+    <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="14"/>
+    <col min="10" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="9">
+    <row r="1" spans="1:9">
+      <c r="C1" s="9">
         <v>5</v>
       </c>
-      <c r="C1" s="9">
+      <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="E1" s="45">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="F1" s="40">
         <v>2</v>
       </c>
-      <c r="F1" s="9">
-        <v>1</v>
-      </c>
       <c r="G1" s="9">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" s="12" customFormat="1">
+      <c r="A2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12">
+      <c r="C2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>4</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="46">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="F2" s="41">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
       <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="47">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1.55</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1.45</v>
+      </c>
+      <c r="G4" s="10">
         <v>1.25</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="H5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1">
+      <c r="A6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="46">
+        <v>3</v>
+      </c>
+      <c r="F6" s="41">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75">
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1.55</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="G5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.45</v>
       </c>
       <c r="D11" s="10">
         <v>0.35</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="47">
         <v>0.25</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="10">
         <v>0.15</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H14" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D15" s="10">
         <v>0.45</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E15" s="47">
         <v>0.35</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F15" s="42">
         <v>0.25</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G15" s="10">
         <v>0.15</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H15" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="C18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="47">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="F18" s="42">
         <v>0</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="10">
+      <c r="C24" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E24" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1">
+      <c r="A26" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12">
+        <v>4</v>
+      </c>
+      <c r="E26" s="46">
+        <v>3</v>
+      </c>
+      <c r="F26" s="41">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.5">
+      <c r="A28" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1">
+      <c r="A29" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" ht="42.75">
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="48"/>
+    </row>
+    <row r="33" spans="1:14" s="12" customFormat="1">
+      <c r="A33" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="12">
+        <v>5</v>
+      </c>
+      <c r="D33" s="12">
+        <v>4</v>
+      </c>
+      <c r="E33" s="46">
+        <v>3</v>
+      </c>
+      <c r="F33" s="41">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="10">
         <v>0.5</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="12" customFormat="1">
-      <c r="A23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="12">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12">
-        <v>3</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="45">
-      <c r="A25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="23" customFormat="1">
-      <c r="A26" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" ht="45">
-      <c r="A27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="12" customFormat="1">
-      <c r="A29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29" s="12">
-        <v>4</v>
-      </c>
-      <c r="D29" s="12">
-        <v>3</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" ref="H31:H43" si="0">B9+(1-B9)*B31</f>
-        <v>0.96</v>
-      </c>
-      <c r="I31" s="17">
-        <f t="shared" ref="I31:L31" si="1">C9+(1-C9)*C31</f>
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="1"/>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="1"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="1"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31:M43" si="2">G9+(1-G9)*G31</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I32" s="17">
-        <f t="shared" ref="I32:I43" si="3">C10+(1-C10)*C32</f>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" ref="J32:J43" si="4">D10+(1-D10)*D32</f>
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" ref="K32:K43" si="5">E10+(1-E10)*E32</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" ref="L32:L43" si="6">F10+(1-F10)*F32</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="0"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="I33" s="17">
-        <f t="shared" si="3"/>
-        <v>0.75250000000000006</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="4"/>
-        <v>0.64250000000000007</v>
-      </c>
-      <c r="K33" s="17">
-        <f t="shared" si="5"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="L33" s="17">
-        <f t="shared" si="6"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="M33" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1925</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.45</v>
       </c>
       <c r="D34" s="10">
         <v>0.35</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="47">
         <v>0.25</v>
       </c>
-      <c r="F34" s="10">
-        <v>0.15</v>
+      <c r="F34" s="42">
+        <v>0.2</v>
       </c>
       <c r="G34" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E35" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F35" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="16">
+        <f>C12+(1-C12)*C35</f>
+        <v>0.96</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" ref="J35:M35" si="0">D12+(1-D12)*D35</f>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="K35" s="17">
         <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="3"/>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
-      <c r="J34" s="17">
-        <f t="shared" si="4"/>
+      <c r="M35" s="17">
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
-      <c r="K34" s="17">
-        <f t="shared" si="5"/>
+      <c r="N35" s="17">
+        <f>H12+(1-H12)*H35</f>
         <v>0.4375</v>
       </c>
-      <c r="L34" s="17">
-        <f t="shared" si="6"/>
-        <v>0.27749999999999997</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="3"/>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="4"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="5"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="6"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="2"/>
-        <v>0.27749999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.9</v>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
       </c>
       <c r="C36" s="10">
         <v>0.8</v>
       </c>
       <c r="D36" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E36" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="16">
+        <f>C13+(1-C13)*C36</f>
+        <v>0.9</v>
+      </c>
+      <c r="J36" s="17">
+        <f>D13+(1-D13)*D36</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="K36" s="17">
+        <f>E13+(1-E13)*E36</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="L36" s="17">
+        <f>F13+(1-F13)*F36</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M36" s="17">
+        <f>G13+(1-G13)*G36</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="N36" s="17">
+        <f>H13+(1-H13)*H36</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="10">
         <v>0.7</v>
       </c>
-      <c r="F36" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="D37" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="16">
+        <f>C14+(1-C14)*C37</f>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="J37" s="17">
+        <f>D14+(1-D14)*D37</f>
+        <v>0.75250000000000006</v>
+      </c>
+      <c r="K37" s="17">
+        <f>E14+(1-E14)*E37</f>
+        <v>0.64250000000000007</v>
+      </c>
+      <c r="L37" s="17">
+        <f>F14+(1-F14)*F37</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="M37" s="17">
+        <f>G14+(1-G14)*G37</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N37" s="17">
+        <f>H14+(1-H14)*H37</f>
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="10">
         <v>0.6</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="0"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="I36" s="17">
-        <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="4"/>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="5"/>
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="L36" s="17">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92000000000000015</v>
-      </c>
-      <c r="I37" s="17">
-        <f t="shared" si="3"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="J37" s="17">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="L37" s="17">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
-      <c r="M37" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.55000000000000004</v>
       </c>
       <c r="D38" s="10">
         <v>0.45</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="47">
         <v>0.35</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="42">
         <v>0.25</v>
       </c>
       <c r="G38" s="10">
         <v>0.15</v>
       </c>
-      <c r="H38" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="I38" s="17">
-        <f t="shared" si="3"/>
-        <v>0.91</v>
+      <c r="H38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="16">
+        <f>C15+(1-C15)*C38</f>
+        <v>0.84</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" si="4"/>
-        <v>0.86250000000000004</v>
+        <f>D15+(1-D15)*D38</f>
+        <v>0.69750000000000001</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" si="5"/>
-        <v>0.80499999999999994</v>
+        <f>E15+(1-E15)*E38</f>
+        <v>0.5774999999999999</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" si="6"/>
-        <v>0.73750000000000004</v>
+        <f>F15+(1-F15)*F38</f>
+        <v>0.4375</v>
       </c>
       <c r="M38" s="17">
-        <f t="shared" si="2"/>
-        <v>0.65999999999999992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="10">
-        <v>0.2</v>
+        <f>G15+(1-G15)*G38</f>
+        <v>0.27749999999999997</v>
+      </c>
+      <c r="N38" s="17">
+        <f>H15+(1-H15)*H38</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
       </c>
       <c r="C39" s="10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E39" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.35</v>
       </c>
       <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="I39" s="17">
-        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I39" s="16">
+        <f>C16+(1-C16)*C39</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="J39" s="17">
+        <f>D16+(1-D16)*D39</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="K39" s="17">
+        <f>E16+(1-E16)*E39</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L39" s="17">
+        <f>F16+(1-F16)*F39</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="M39" s="17">
+        <f>G16+(1-G16)*G39</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N39" s="17">
+        <f>H16+(1-H16)*H39</f>
+        <v>0.27749999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I40" s="16">
+        <f>C17+(1-C17)*C40</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="J40" s="17">
+        <f>D17+(1-D17)*D40</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="K40" s="17">
+        <f>E17+(1-E17)*E40</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="L40" s="17">
+        <f>F17+(1-F17)*F40</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="M40" s="17">
+        <f>G17+(1-G17)*G40</f>
+        <v>0.65</v>
+      </c>
+      <c r="N40" s="17">
+        <f>H17+(1-H17)*H40</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I41" s="16">
+        <f>C18+(1-C18)*C41</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="J41" s="17">
+        <f>D18+(1-D18)*D41</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="J39" s="17">
-        <f t="shared" si="4"/>
+      <c r="K41" s="17">
+        <f>E18+(1-E18)*E41</f>
         <v>0.75</v>
       </c>
-      <c r="K39" s="17">
-        <f t="shared" si="5"/>
+      <c r="L41" s="17">
+        <f>F18+(1-F18)*F41</f>
         <v>0.7</v>
       </c>
-      <c r="L39" s="17">
-        <f t="shared" si="6"/>
+      <c r="M41" s="17">
+        <f>G18+(1-G18)*G41</f>
         <v>0.65</v>
       </c>
-      <c r="M39" s="17">
-        <f t="shared" si="2"/>
+      <c r="N41" s="17">
+        <f>H18+(1-H18)*H41</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <f t="shared" si="0"/>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="10">
         <v>0.7</v>
-      </c>
-      <c r="I40" s="17">
-        <f t="shared" si="3"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="4"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="K40" s="17">
-        <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="L40" s="17">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="M40" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I41" s="17">
-        <f t="shared" si="3"/>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="4"/>
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="K41" s="17">
-        <f t="shared" si="5"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L41" s="17">
-        <f t="shared" si="6"/>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="M41" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.65</v>
       </c>
       <c r="D42" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="47">
         <v>0.45</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="42">
         <v>0.35</v>
       </c>
       <c r="G42" s="10">
         <v>0.25</v>
       </c>
-      <c r="H42" s="16">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="I42" s="17">
-        <f t="shared" si="3"/>
+      <c r="H42" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I42" s="16">
+        <f>C19+(1-C19)*C42</f>
+        <v>0.97</v>
+      </c>
+      <c r="J42" s="17">
+        <f>D19+(1-D19)*D42</f>
+        <v>0.91</v>
+      </c>
+      <c r="K42" s="17">
+        <f>E19+(1-E19)*E42</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="L42" s="17">
+        <f>F19+(1-F19)*F42</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="M42" s="17">
+        <f>G19+(1-G19)*G42</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="J42" s="17">
-        <f t="shared" si="4"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K42" s="17">
-        <f t="shared" si="5"/>
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="L42" s="17">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="M42" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="10">
+      <c r="N42" s="17">
+        <f>H19+(1-H19)*H42</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="10">
         <v>0.2</v>
       </c>
-      <c r="C43" s="10">
+      <c r="D43" s="10">
         <v>0.1</v>
       </c>
-      <c r="D43" s="10">
+      <c r="E43" s="47">
         <v>0</v>
       </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="F43" s="42">
         <v>0</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="16">
-        <f t="shared" si="0"/>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f>C20+(1-C20)*C43</f>
+        <v>0.92</v>
+      </c>
+      <c r="J43" s="17">
+        <f>D20+(1-D20)*D43</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="K43" s="17">
+        <f>E20+(1-E20)*E43</f>
+        <v>0.75</v>
+      </c>
+      <c r="L43" s="17">
+        <f>F20+(1-F20)*F43</f>
+        <v>0.7</v>
+      </c>
+      <c r="M43" s="17">
+        <f>G20+(1-G20)*G43</f>
+        <v>0.65</v>
+      </c>
+      <c r="N43" s="17">
+        <f>H20+(1-H20)*H43</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f>C21+(1-C21)*C44</f>
+        <v>0.7</v>
+      </c>
+      <c r="J44" s="17">
+        <f>D21+(1-D21)*D44</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="K44" s="17">
+        <f>E21+(1-E21)*E44</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="L44" s="17">
+        <f>F21+(1-F21)*F44</f>
+        <v>0.24</v>
+      </c>
+      <c r="M44" s="17">
+        <f>G21+(1-G21)*G44</f>
+        <v>0.1</v>
+      </c>
+      <c r="N44" s="17">
+        <f>H21+(1-H21)*H44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E45" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="16">
+        <f>C22+(1-C22)*C45</f>
+        <v>0.9</v>
+      </c>
+      <c r="J45" s="17">
+        <f>D22+(1-D22)*D45</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="K45" s="17">
+        <f>E22+(1-E22)*E45</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="L45" s="17">
+        <f>F22+(1-F22)*F45</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M45" s="17">
+        <f>G22+(1-G22)*G45</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="N45" s="17">
+        <f>H22+(1-H22)*H45</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E46" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="16">
+        <f>C23+(1-C23)*C46</f>
+        <v>0.88</v>
+      </c>
+      <c r="J46" s="17">
+        <f>D23+(1-D23)*D46</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="K46" s="17">
+        <f>E23+(1-E23)*E46</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L46" s="17">
+        <f>F23+(1-F23)*F46</f>
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="M46" s="17">
+        <f>G23+(1-G23)*G46</f>
+        <v>0.35</v>
+      </c>
+      <c r="N46" s="17">
+        <f>H23+(1-H23)*H46</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="42">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <f>C24+(1-C24)*C47</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="I43" s="17">
-        <f t="shared" si="3"/>
+      <c r="J47" s="17">
+        <f>D24+(1-D24)*D47</f>
         <v>0.68500000000000005</v>
       </c>
-      <c r="J43" s="17">
-        <f t="shared" si="4"/>
+      <c r="K47" s="17">
+        <f>E24+(1-E24)*E47</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K43" s="17">
-        <f t="shared" si="5"/>
+      <c r="L47" s="17">
+        <f>F24+(1-F24)*F47</f>
         <v>0.45</v>
       </c>
-      <c r="L43" s="17">
-        <f t="shared" si="6"/>
+      <c r="M47" s="17">
+        <f>G24+(1-G24)*G47</f>
         <v>0.35</v>
       </c>
-      <c r="M43" s="17">
-        <f t="shared" si="2"/>
+      <c r="N47" s="17">
+        <f>H24+(1-H24)*H47</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="10">
+    <row r="48" spans="1:14">
+      <c r="A48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="10">
         <v>0.5</v>
       </c>
-      <c r="C44" s="10">
+      <c r="D48" s="10">
         <v>0.4</v>
       </c>
-      <c r="D44" s="10">
+      <c r="E48" s="47">
         <v>0.3</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F48" s="42">
         <v>0.2</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G48" s="10">
         <v>0.1</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H48" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="10">
+    <row r="49" spans="1:10">
+      <c r="A49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="10">
         <v>0.2</v>
       </c>
-      <c r="C45" s="10">
+      <c r="D49" s="10">
         <v>0.15</v>
       </c>
-      <c r="D45" s="10">
+      <c r="E49" s="47">
         <v>0.1</v>
       </c>
-      <c r="E45" s="10">
+      <c r="F49" s="42">
         <v>0.05</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G49" s="10">
         <v>0</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H49" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="10">
+    <row r="50" spans="1:10">
+      <c r="A50" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="10">
         <v>0.8</v>
       </c>
-      <c r="C46" s="10">
+      <c r="D50" s="10">
         <v>0.5</v>
       </c>
-      <c r="D46" s="10">
+      <c r="E50" s="47">
         <v>0.4</v>
       </c>
-      <c r="E46" s="10">
+      <c r="F50" s="42">
         <v>0.3</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G50" s="10">
         <v>0.2</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H50" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="12" customFormat="1">
-      <c r="A48" s="12" t="s">
+    <row r="52" spans="1:10" s="12" customFormat="1">
+      <c r="A52" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="12">
+      <c r="E52" s="46">
         <v>3</v>
       </c>
-      <c r="E48" s="12">
+      <c r="F52" s="41">
         <v>2</v>
       </c>
-      <c r="F48" s="12">
-        <v>1</v>
-      </c>
-      <c r="G48" s="12">
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="45">
         <v>150</v>
       </c>
-      <c r="E49" s="9">
+      <c r="F53" s="40">
         <v>120</v>
       </c>
-      <c r="F49" s="9">
+      <c r="G53" s="9">
         <v>100</v>
       </c>
-      <c r="G49" s="9">
+      <c r="H53" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="9">
+    <row r="54" spans="1:10">
+      <c r="A54" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="45">
         <v>3</v>
       </c>
-      <c r="E50" s="9">
+      <c r="F54" s="40">
         <v>2</v>
       </c>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="9" t="s">
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="C57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="E57" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="F57" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="9">
+    <row r="58" spans="1:10">
+      <c r="C58" s="9">
         <v>3</v>
       </c>
-      <c r="C54" s="9">
+      <c r="D58" s="9">
         <v>3</v>
       </c>
-      <c r="D54" s="9">
+      <c r="E58" s="45">
         <v>3</v>
       </c>
-      <c r="E54" s="9">
+      <c r="F58" s="40">
         <v>3</v>
       </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9">
-        <f>13-SUM(B54:F54)</f>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="J58" s="9">
+        <f>13-SUM(C58:G58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="9">
+    <row r="59" spans="1:10">
+      <c r="C59" s="9">
         <v>5</v>
       </c>
-      <c r="C55" s="9">
+      <c r="D59" s="9">
         <v>2</v>
       </c>
-      <c r="D55" s="9">
+      <c r="E59" s="45">
         <v>2</v>
       </c>
-      <c r="E55" s="9">
+      <c r="F59" s="40">
         <v>3</v>
       </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" ref="I55:I57" si="7">13-SUM(B55:F55)</f>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" ref="J59:J61" si="1">13-SUM(C59:G59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="9">
+    <row r="60" spans="1:10">
+      <c r="C60" s="9">
         <v>5</v>
       </c>
-      <c r="C56" s="9">
+      <c r="D60" s="9">
         <v>5</v>
       </c>
-      <c r="D56" s="9">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1</v>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="7"/>
+      <c r="E60" s="45">
+        <v>1</v>
+      </c>
+      <c r="F60" s="40">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="I57" s="9">
-        <f t="shared" si="7"/>
+    <row r="61" spans="1:10">
+      <c r="J61" s="9">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3511,12 +3944,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -3537,63 +3970,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3613,7 +4046,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3633,7 +4066,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3668,7 +4101,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3703,7 +4136,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3714,7 +4147,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3725,7 +4158,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3745,7 +4178,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3780,63 +4213,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -3910,33 +4343,33 @@
     </row>
     <row r="16" spans="1:24">
       <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30">
+    </row>
+    <row r="17" spans="1:9" ht="28.5">
       <c r="A17" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="22">
         <v>0.25</v>
@@ -3965,7 +4398,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="22">
         <v>0.25</v>
@@ -4008,101 +4441,101 @@
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="21" max="22" width="6.42578125" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" customWidth="1"/>
-    <col min="27" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="7.125" customWidth="1"/>
+    <col min="21" max="22" width="6.375" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
+    <col min="27" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
       </c>
       <c r="N1">
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
       </c>
       <c r="T1">
         <v>3</v>
       </c>
       <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
       </c>
       <c r="Z1">
         <v>0</v>
       </c>
       <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>50</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:30">

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="204">
   <si>
     <t>招式</t>
   </si>
@@ -287,42 +287,6 @@
     <t>一般反伤</t>
   </si>
   <si>
-    <t>【闪避】头</t>
-  </si>
-  <si>
-    <t>【闪避】胸部</t>
-  </si>
-  <si>
-    <t>【闪避】腹部</t>
-  </si>
-  <si>
-    <t>【闪避】肩关节</t>
-  </si>
-  <si>
-    <t>【闪避】上臂</t>
-  </si>
-  <si>
-    <t>【闪避】前臂</t>
-  </si>
-  <si>
-    <t>【闪避】手肘</t>
-  </si>
-  <si>
-    <t>【闪避】手腕</t>
-  </si>
-  <si>
-    <t>【闪避】大腿</t>
-  </si>
-  <si>
-    <t>【闪避】小腿</t>
-  </si>
-  <si>
-    <t>【闪避】膝关节</t>
-  </si>
-  <si>
-    <t>【闪避】踝关节</t>
-  </si>
-  <si>
     <t>【防御率】头</t>
   </si>
   <si>
@@ -357,9 +321,6 @@
   </si>
   <si>
     <t>【防御率】踝关节</t>
-  </si>
-  <si>
-    <t>【闪避】两腰</t>
   </si>
   <si>
     <t>【防御率】两腰</t>
@@ -734,6 +695,62 @@
   </si>
   <si>
     <t>wendinfantan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡削减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】腹部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】两腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】肩关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】上臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】前臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】手肘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】大腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】手腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】膝关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】踝关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】胸部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,21 +992,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1030,21 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1350,10 +1367,10 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1384,28 +1401,28 @@
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
       <c r="U1" s="27" t="s">
         <v>27</v>
       </c>
@@ -1413,22 +1430,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1439,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>13</v>
@@ -1531,12 +1548,12 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="B4" s="26" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -1571,7 +1588,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="26" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -1621,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1641,7 +1658,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -1668,7 +1685,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1686,12 +1703,12 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="26" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -1729,7 +1746,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -1762,12 +1779,12 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -1788,7 +1805,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1806,7 +1823,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1852,7 +1869,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="26" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -1893,7 +1910,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="26" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -1931,7 +1948,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="26" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1952,7 +1969,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -1972,7 +1989,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="26" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -1993,7 +2010,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2013,7 +2030,7 @@
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="26" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -2043,7 +2060,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2063,7 +2080,7 @@
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="26" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -2108,7 +2125,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2176,31 +2193,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2305,8 +2322,8 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2314,8 +2331,8 @@
     <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
     <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
     <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="14"/>
     <col min="10" max="16384" width="9.125" style="9"/>
@@ -2328,10 +2345,10 @@
       <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="40">
         <v>3</v>
       </c>
-      <c r="F1" s="40">
+      <c r="F1" s="35">
         <v>2</v>
       </c>
       <c r="G1" s="9">
@@ -2342,8 +2359,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1">
-      <c r="A2" s="39" t="s">
-        <v>154</v>
+      <c r="A2" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2354,10 +2371,10 @@
       <c r="D2" s="12">
         <v>4</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="41">
         <v>3</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="36">
         <v>2</v>
       </c>
       <c r="G2" s="12">
@@ -2370,7 +2387,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>52</v>
@@ -2381,10 +2398,10 @@
       <c r="D3" s="10">
         <v>1.5</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <v>1.25</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
       <c r="G3" s="10">
@@ -2396,7 +2413,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>53</v>
@@ -2407,10 +2424,10 @@
       <c r="D4" s="10">
         <v>1.65</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="42">
         <v>1.55</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="37">
         <v>1.45</v>
       </c>
       <c r="G4" s="10">
@@ -2426,8 +2443,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1">
-      <c r="A6" s="39" t="s">
-        <v>155</v>
+      <c r="A6" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2438,10 +2455,10 @@
       <c r="D6" s="12">
         <v>4</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>3</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="36">
         <v>2</v>
       </c>
       <c r="G6" s="12">
@@ -2457,61 +2474,61 @@
         <v>55</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
@@ -2525,10 +2542,10 @@
       <c r="D11" s="10">
         <v>0.35</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <v>0.25</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="37">
         <v>0.2</v>
       </c>
       <c r="G11" s="10">
@@ -2540,10 +2557,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C12" s="10">
         <v>0.8</v>
@@ -2551,10 +2568,10 @@
       <c r="D12" s="10">
         <v>0.65</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <v>0.45</v>
       </c>
       <c r="G12" s="10">
@@ -2566,10 +2583,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2577,10 +2594,10 @@
       <c r="D13" s="10">
         <v>0.35</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="42">
         <v>0.25</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="37">
         <v>0.2</v>
       </c>
       <c r="G13" s="10">
@@ -2592,10 +2609,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="C14" s="10">
         <v>0.6</v>
@@ -2603,10 +2620,10 @@
       <c r="D14" s="10">
         <v>0.45</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <v>0.35</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="37">
         <v>0.25</v>
       </c>
       <c r="G14" s="10">
@@ -2618,10 +2635,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C15" s="10">
         <v>0.6</v>
@@ -2629,10 +2646,10 @@
       <c r="D15" s="10">
         <v>0.45</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="42">
         <v>0.35</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="37">
         <v>0.25</v>
       </c>
       <c r="G15" s="10">
@@ -2644,10 +2661,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="C16" s="10">
         <v>0.7</v>
@@ -2655,10 +2672,10 @@
       <c r="D16" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="42">
         <v>0.45</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="37">
         <v>0.35</v>
       </c>
       <c r="G16" s="10">
@@ -2670,10 +2687,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="C17" s="10">
         <v>0.4</v>
@@ -2681,10 +2698,10 @@
       <c r="D17" s="10">
         <v>0.25</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="42">
         <v>0.15</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="37">
         <v>0.05</v>
       </c>
       <c r="G17" s="10">
@@ -2696,10 +2713,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="C18" s="10">
         <v>0.2</v>
@@ -2707,10 +2724,10 @@
       <c r="D18" s="10">
         <v>0.1</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="42">
         <v>0</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="37">
         <v>0</v>
       </c>
       <c r="G18" s="10">
@@ -2722,10 +2739,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="C19" s="10">
         <v>0.9</v>
@@ -2733,10 +2750,10 @@
       <c r="D19" s="10">
         <v>0.8</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="42">
         <v>0.75</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="37">
         <v>0.7</v>
       </c>
       <c r="G19" s="10">
@@ -2748,10 +2765,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C20" s="10">
         <v>0.9</v>
@@ -2759,10 +2776,10 @@
       <c r="D20" s="10">
         <v>0.8</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="42">
         <v>0.75</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="37">
         <v>0.7</v>
       </c>
       <c r="G20" s="10">
@@ -2774,10 +2791,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="C21" s="10">
         <v>0.4</v>
@@ -2785,10 +2802,10 @@
       <c r="D21" s="10">
         <v>0.25</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="42">
         <v>0.15</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="37">
         <v>0.05</v>
       </c>
       <c r="G21" s="10">
@@ -2800,10 +2817,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C22" s="10">
         <v>0.5</v>
@@ -2811,10 +2828,10 @@
       <c r="D22" s="10">
         <v>0.35</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="42">
         <v>0.25</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="37">
         <v>0.2</v>
       </c>
       <c r="G22" s="10">
@@ -2826,10 +2843,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C23" s="10">
         <v>0.4</v>
@@ -2837,10 +2854,10 @@
       <c r="D23" s="10">
         <v>0.25</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="42">
         <v>0.15</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="37">
         <v>0.05</v>
       </c>
       <c r="G23" s="10">
@@ -2852,10 +2869,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C24" s="10">
         <v>0.8</v>
@@ -2863,10 +2880,10 @@
       <c r="D24" s="10">
         <v>0.65</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="37">
         <v>0.45</v>
       </c>
       <c r="G24" s="10">
@@ -2877,8 +2894,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1">
-      <c r="A26" s="39" t="s">
-        <v>156</v>
+      <c r="A26" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>40</v>
@@ -2889,10 +2906,10 @@
       <c r="D26" s="12">
         <v>4</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>3</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="36">
         <v>2</v>
       </c>
       <c r="G26" s="12">
@@ -2905,7 +2922,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>60</v>
@@ -2916,10 +2933,10 @@
       <c r="D27" s="10">
         <v>0.2</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="42">
         <v>0.15</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="37">
         <v>0.1</v>
       </c>
       <c r="G27" s="10">
@@ -2931,7 +2948,7 @@
     </row>
     <row r="28" spans="1:9" ht="28.5">
       <c r="A28" s="9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>67</v>
@@ -2942,10 +2959,10 @@
       <c r="D28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="46" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="13" t="s">
@@ -2957,28 +2974,28 @@
     </row>
     <row r="29" spans="1:9" s="23" customFormat="1">
       <c r="A29" s="23" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I29" s="25"/>
     </row>
@@ -2992,21 +3009,21 @@
       <c r="D30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="48"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="33" spans="1:14" s="12" customFormat="1">
-      <c r="A33" s="39" t="s">
-        <v>157</v>
+      <c r="A33" s="34" t="s">
+        <v>144</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>41</v>
@@ -3017,10 +3034,10 @@
       <c r="D33" s="12">
         <v>4</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <v>3</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="36">
         <v>2</v>
       </c>
       <c r="G33" s="12">
@@ -3041,10 +3058,10 @@
       <c r="D34" s="10">
         <v>0.35</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="42">
         <v>0.25</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="37">
         <v>0.2</v>
       </c>
       <c r="G34" s="10">
@@ -3056,10 +3073,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C35" s="10">
         <v>0.8</v>
@@ -3067,10 +3084,10 @@
       <c r="D35" s="10">
         <v>0.65</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="37">
         <v>0.45</v>
       </c>
       <c r="G35" s="10">
@@ -3080,36 +3097,36 @@
         <v>0.25</v>
       </c>
       <c r="I35" s="16">
-        <f>C12+(1-C12)*C35</f>
+        <f t="shared" ref="I35:I47" si="0">C12+(1-C12)*C35</f>
         <v>0.96</v>
       </c>
       <c r="J35" s="17">
-        <f t="shared" ref="J35:M35" si="0">D12+(1-D12)*D35</f>
+        <f t="shared" ref="J35:M35" si="1">D12+(1-D12)*D35</f>
         <v>0.87749999999999995</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7975000000000001</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="N35" s="17">
-        <f>H12+(1-H12)*H35</f>
+        <f t="shared" ref="N35:N47" si="2">H12+(1-H12)*H35</f>
         <v>0.4375</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C36" s="10">
         <v>0.8</v>
@@ -3117,10 +3134,10 @@
       <c r="D36" s="10">
         <v>0.65</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="37">
         <v>0.45</v>
       </c>
       <c r="G36" s="10">
@@ -3130,36 +3147,36 @@
         <v>0.25</v>
       </c>
       <c r="I36" s="16">
-        <f>C13+(1-C13)*C36</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="J36" s="17">
-        <f>D13+(1-D13)*D36</f>
+        <f t="shared" ref="J36:J47" si="3">D13+(1-D13)*D36</f>
         <v>0.77249999999999996</v>
       </c>
       <c r="K36" s="17">
-        <f>E13+(1-E13)*E36</f>
+        <f t="shared" ref="K36:K47" si="4">E13+(1-E13)*E36</f>
         <v>0.66250000000000009</v>
       </c>
       <c r="L36" s="17">
-        <f>F13+(1-F13)*F36</f>
+        <f t="shared" ref="L36:L47" si="5">F13+(1-F13)*F36</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="M36" s="17">
-        <f>G13+(1-G13)*G36</f>
+        <f t="shared" ref="M36:M47" si="6">G13+(1-G13)*G36</f>
         <v>0.41500000000000004</v>
       </c>
       <c r="N36" s="17">
-        <f>H13+(1-H13)*H36</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C37" s="10">
         <v>0.7</v>
@@ -3167,10 +3184,10 @@
       <c r="D37" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="42">
         <v>0.45</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="37">
         <v>0.35</v>
       </c>
       <c r="G37" s="10">
@@ -3180,36 +3197,36 @@
         <v>0.15</v>
       </c>
       <c r="I37" s="16">
-        <f>C14+(1-C14)*C37</f>
+        <f t="shared" si="0"/>
         <v>0.87999999999999989</v>
       </c>
       <c r="J37" s="17">
-        <f>D14+(1-D14)*D37</f>
+        <f t="shared" si="3"/>
         <v>0.75250000000000006</v>
       </c>
       <c r="K37" s="17">
-        <f>E14+(1-E14)*E37</f>
+        <f t="shared" si="4"/>
         <v>0.64250000000000007</v>
       </c>
       <c r="L37" s="17">
-        <f>F14+(1-F14)*F37</f>
+        <f t="shared" si="5"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="M37" s="17">
-        <f>G14+(1-G14)*G37</f>
+        <f t="shared" si="6"/>
         <v>0.36249999999999999</v>
       </c>
       <c r="N37" s="17">
-        <f>H14+(1-H14)*H37</f>
+        <f t="shared" si="2"/>
         <v>0.1925</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="9" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C38" s="10">
         <v>0.6</v>
@@ -3217,10 +3234,10 @@
       <c r="D38" s="10">
         <v>0.45</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="42">
         <v>0.35</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="37">
         <v>0.25</v>
       </c>
       <c r="G38" s="10">
@@ -3230,36 +3247,36 @@
         <v>0.05</v>
       </c>
       <c r="I38" s="16">
-        <f>C15+(1-C15)*C38</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="J38" s="17">
-        <f>D15+(1-D15)*D38</f>
+        <f t="shared" si="3"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="K38" s="17">
-        <f>E15+(1-E15)*E38</f>
+        <f t="shared" si="4"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="L38" s="17">
-        <f>F15+(1-F15)*F38</f>
+        <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
       <c r="M38" s="17">
-        <f>G15+(1-G15)*G38</f>
+        <f t="shared" si="6"/>
         <v>0.27749999999999997</v>
       </c>
       <c r="N38" s="17">
-        <f>H15+(1-H15)*H38</f>
+        <f t="shared" si="2"/>
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C39" s="10">
         <v>0.7</v>
@@ -3267,10 +3284,10 @@
       <c r="D39" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="42">
         <v>0.45</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="37">
         <v>0.35</v>
       </c>
       <c r="G39" s="10">
@@ -3280,36 +3297,36 @@
         <v>0.15</v>
       </c>
       <c r="I39" s="16">
-        <f>C16+(1-C16)*C39</f>
+        <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="J39" s="17">
-        <f>D16+(1-D16)*D39</f>
+        <f t="shared" si="3"/>
         <v>0.7975000000000001</v>
       </c>
       <c r="K39" s="17">
-        <f>E16+(1-E16)*E39</f>
+        <f t="shared" si="4"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="L39" s="17">
-        <f>F16+(1-F16)*F39</f>
+        <f t="shared" si="5"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="M39" s="17">
-        <f>G16+(1-G16)*G39</f>
+        <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
       <c r="N39" s="17">
-        <f>H16+(1-H16)*H39</f>
+        <f t="shared" si="2"/>
         <v>0.27749999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C40" s="10">
         <v>0.9</v>
@@ -3317,10 +3334,10 @@
       <c r="D40" s="10">
         <v>0.8</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="42">
         <v>0.75</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="37">
         <v>0.7</v>
       </c>
       <c r="G40" s="10">
@@ -3330,36 +3347,36 @@
         <v>0.6</v>
       </c>
       <c r="I40" s="16">
-        <f>C17+(1-C17)*C40</f>
+        <f t="shared" si="0"/>
         <v>0.94000000000000006</v>
       </c>
       <c r="J40" s="17">
-        <f>D17+(1-D17)*D40</f>
+        <f t="shared" si="3"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="K40" s="17">
-        <f>E17+(1-E17)*E40</f>
+        <f t="shared" si="4"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="L40" s="17">
-        <f>F17+(1-F17)*F40</f>
+        <f t="shared" si="5"/>
         <v>0.71499999999999997</v>
       </c>
       <c r="M40" s="17">
-        <f>G17+(1-G17)*G40</f>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="N40" s="17">
-        <f>H17+(1-H17)*H40</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C41" s="10">
         <v>0.9</v>
@@ -3367,10 +3384,10 @@
       <c r="D41" s="10">
         <v>0.8</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="42">
         <v>0.75</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="37">
         <v>0.7</v>
       </c>
       <c r="G41" s="10">
@@ -3380,36 +3397,36 @@
         <v>0.6</v>
       </c>
       <c r="I41" s="16">
-        <f>C18+(1-C18)*C41</f>
+        <f t="shared" si="0"/>
         <v>0.92000000000000015</v>
       </c>
       <c r="J41" s="17">
-        <f>D18+(1-D18)*D41</f>
+        <f t="shared" si="3"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="K41" s="17">
-        <f>E18+(1-E18)*E41</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="L41" s="17">
-        <f>F18+(1-F18)*F41</f>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="M41" s="17">
-        <f>G18+(1-G18)*G41</f>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="N41" s="17">
-        <f>H18+(1-H18)*H41</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="9" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C42" s="10">
         <v>0.7</v>
@@ -3417,10 +3434,10 @@
       <c r="D42" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="42">
         <v>0.45</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="37">
         <v>0.35</v>
       </c>
       <c r="G42" s="10">
@@ -3430,36 +3447,36 @@
         <v>0.15</v>
       </c>
       <c r="I42" s="16">
-        <f>C19+(1-C19)*C42</f>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
       <c r="J42" s="17">
-        <f>D19+(1-D19)*D42</f>
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
       <c r="K42" s="17">
-        <f>E19+(1-E19)*E42</f>
+        <f t="shared" si="4"/>
         <v>0.86250000000000004</v>
       </c>
       <c r="L42" s="17">
-        <f>F19+(1-F19)*F42</f>
+        <f t="shared" si="5"/>
         <v>0.80499999999999994</v>
       </c>
       <c r="M42" s="17">
-        <f>G19+(1-G19)*G42</f>
+        <f t="shared" si="6"/>
         <v>0.73750000000000004</v>
       </c>
       <c r="N42" s="17">
-        <f>H19+(1-H19)*H42</f>
+        <f t="shared" si="2"/>
         <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="9" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C43" s="10">
         <v>0.2</v>
@@ -3467,10 +3484,10 @@
       <c r="D43" s="10">
         <v>0.1</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="42">
         <v>0</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="37">
         <v>0</v>
       </c>
       <c r="G43" s="10">
@@ -3480,36 +3497,36 @@
         <v>0</v>
       </c>
       <c r="I43" s="16">
-        <f>C20+(1-C20)*C43</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="J43" s="17">
-        <f>D20+(1-D20)*D43</f>
+        <f t="shared" si="3"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="K43" s="17">
-        <f>E20+(1-E20)*E43</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="L43" s="17">
-        <f>F20+(1-F20)*F43</f>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="M43" s="17">
-        <f>G20+(1-G20)*G43</f>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="N43" s="17">
-        <f>H20+(1-H20)*H43</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -3517,10 +3534,10 @@
       <c r="D44" s="10">
         <v>0.35</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="42">
         <v>0.25</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="37">
         <v>0.2</v>
       </c>
       <c r="G44" s="10">
@@ -3530,36 +3547,36 @@
         <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f>C21+(1-C21)*C44</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="J44" s="17">
-        <f>D21+(1-D21)*D44</f>
+        <f t="shared" si="3"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="K44" s="17">
-        <f>E21+(1-E21)*E44</f>
+        <f t="shared" si="4"/>
         <v>0.36249999999999999</v>
       </c>
       <c r="L44" s="17">
-        <f>F21+(1-F21)*F44</f>
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
       <c r="M44" s="17">
-        <f>G21+(1-G21)*G44</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N44" s="17">
-        <f>H21+(1-H21)*H44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C45" s="10">
         <v>0.8</v>
@@ -3567,10 +3584,10 @@
       <c r="D45" s="10">
         <v>0.65</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="37">
         <v>0.45</v>
       </c>
       <c r="G45" s="10">
@@ -3580,36 +3597,36 @@
         <v>0.25</v>
       </c>
       <c r="I45" s="16">
-        <f>C22+(1-C22)*C45</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="J45" s="17">
-        <f>D22+(1-D22)*D45</f>
+        <f t="shared" si="3"/>
         <v>0.77249999999999996</v>
       </c>
       <c r="K45" s="17">
-        <f>E22+(1-E22)*E45</f>
+        <f t="shared" si="4"/>
         <v>0.66250000000000009</v>
       </c>
       <c r="L45" s="17">
-        <f>F22+(1-F22)*F45</f>
+        <f t="shared" si="5"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="M45" s="17">
-        <f>G22+(1-G22)*G45</f>
+        <f t="shared" si="6"/>
         <v>0.41500000000000004</v>
       </c>
       <c r="N45" s="17">
-        <f>H22+(1-H22)*H45</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="9" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C46" s="10">
         <v>0.8</v>
@@ -3617,10 +3634,10 @@
       <c r="D46" s="10">
         <v>0.65</v>
       </c>
-      <c r="E46" s="47">
+      <c r="E46" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="37">
         <v>0.45</v>
       </c>
       <c r="G46" s="10">
@@ -3630,36 +3647,36 @@
         <v>0.25</v>
       </c>
       <c r="I46" s="16">
-        <f>C23+(1-C23)*C46</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="J46" s="17">
-        <f>D23+(1-D23)*D46</f>
+        <f t="shared" si="3"/>
         <v>0.73750000000000004</v>
       </c>
       <c r="K46" s="17">
-        <f>E23+(1-E23)*E46</f>
+        <f t="shared" si="4"/>
         <v>0.61750000000000005</v>
       </c>
       <c r="L46" s="17">
-        <f>F23+(1-F23)*F46</f>
+        <f t="shared" si="5"/>
         <v>0.47749999999999998</v>
       </c>
       <c r="M46" s="17">
-        <f>G23+(1-G23)*G46</f>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="N46" s="17">
-        <f>H23+(1-H23)*H46</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C47" s="10">
         <v>0.2</v>
@@ -3667,10 +3684,10 @@
       <c r="D47" s="10">
         <v>0.1</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="42">
         <v>0</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="37">
         <v>0</v>
       </c>
       <c r="G47" s="10">
@@ -3680,33 +3697,33 @@
         <v>0</v>
       </c>
       <c r="I47" s="16">
-        <f>C24+(1-C24)*C47</f>
+        <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
       <c r="J47" s="17">
-        <f>D24+(1-D24)*D47</f>
+        <f t="shared" si="3"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="K47" s="17">
-        <f>E24+(1-E24)*E47</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="L47" s="17">
-        <f>F24+(1-F24)*F47</f>
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
       <c r="M47" s="17">
-        <f>G24+(1-G24)*G47</f>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="N47" s="17">
-        <f>H24+(1-H24)*H47</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>74</v>
@@ -3717,10 +3734,10 @@
       <c r="D48" s="10">
         <v>0.4</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="42">
         <v>0.3</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="37">
         <v>0.2</v>
       </c>
       <c r="G48" s="10">
@@ -3732,7 +3749,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>75</v>
@@ -3743,10 +3760,10 @@
       <c r="D49" s="10">
         <v>0.15</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="42">
         <v>0.1</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="37">
         <v>0.05</v>
       </c>
       <c r="G49" s="10">
@@ -3758,10 +3775,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="9" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C50" s="10">
         <v>0.8</v>
@@ -3769,10 +3786,10 @@
       <c r="D50" s="10">
         <v>0.5</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="42">
         <v>0.4</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="37">
         <v>0.3</v>
       </c>
       <c r="G50" s="10">
@@ -3783,16 +3800,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="12" customFormat="1">
-      <c r="A52" s="39" t="s">
-        <v>158</v>
+      <c r="A52" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="41">
         <v>3</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="36">
         <v>2</v>
       </c>
       <c r="G52" s="12">
@@ -3805,15 +3822,15 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="45">
+        <v>184</v>
+      </c>
+      <c r="E53" s="40">
         <v>150</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="35">
         <v>120</v>
       </c>
       <c r="G53" s="9">
@@ -3825,15 +3842,15 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="40">
         <v>3</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="35">
         <v>2</v>
       </c>
       <c r="G54" s="9">
@@ -3850,10 +3867,10 @@
       <c r="D57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="35" t="s">
         <v>41</v>
       </c>
       <c r="G57" s="9" t="s">
@@ -3867,10 +3884,10 @@
       <c r="D58" s="9">
         <v>3</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="40">
         <v>3</v>
       </c>
-      <c r="F58" s="40">
+      <c r="F58" s="35">
         <v>3</v>
       </c>
       <c r="G58" s="9">
@@ -3888,17 +3905,17 @@
       <c r="D59" s="9">
         <v>2</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="40">
         <v>2</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="35">
         <v>3</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" ref="J59:J61" si="1">13-SUM(C59:G59)</f>
+        <f t="shared" ref="J59:J61" si="7">13-SUM(C59:G59)</f>
         <v>0</v>
       </c>
     </row>
@@ -3909,23 +3926,23 @@
       <c r="D60" s="9">
         <v>5</v>
       </c>
-      <c r="E60" s="45">
-        <v>1</v>
-      </c>
-      <c r="F60" s="40">
+      <c r="E60" s="40">
+        <v>1</v>
+      </c>
+      <c r="F60" s="35">
         <v>1</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="J61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -3970,63 +3987,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4046,7 +4063,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4066,7 +4083,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4101,7 +4118,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="18" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4136,7 +4153,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4147,7 +4164,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4158,7 +4175,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4178,7 +4195,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4213,63 +4230,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4343,33 +4360,33 @@
     </row>
     <row r="16" spans="1:24">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5">
       <c r="A17" s="21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B17" s="22">
         <v>0.25</v>
@@ -4398,7 +4415,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B18" s="22">
         <v>0.25</v>
@@ -4437,7 +4454,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycode\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="214">
   <si>
     <t>招式</t>
   </si>
@@ -84,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -235,22 +235,6 @@
     <t>情报</t>
   </si>
   <si>
-    <t>属性数值，
-损伤图例，
-损伤数值</t>
-  </si>
-  <si>
-    <t>属性数值，
-损伤图例，</t>
-  </si>
-  <si>
-    <t>属性程度</t>
-  </si>
-  <si>
-    <t>属性程度，
-损伤图例，</t>
-  </si>
-  <si>
     <t>防御几率</t>
   </si>
   <si>
@@ -434,35 +418,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擒拿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肘底捶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50%破防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炮锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二70%破防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绊摔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,47 +523,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SB_fu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_yao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_jian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_shangbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_qianbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_zhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_shouwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_datui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_xiaotui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SB_xi</t>
-  </si>
-  <si>
-    <t>SB_kuai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baojijilv</t>
@@ -614,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FY_tou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FY_xiong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,52 +622,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【闪避】腹部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】两腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】肩关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】上臂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】前臂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】手肘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】大腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】手腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】小腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】膝关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】踝关节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【闪避】胸部</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】腹部</t>
+  </si>
+  <si>
+    <t>SB_fu</t>
+  </si>
+  <si>
+    <t>【闪避】腰部</t>
+  </si>
+  <si>
+    <t>SB_yao</t>
+  </si>
+  <si>
+    <t>【闪避】肩关节</t>
+  </si>
+  <si>
+    <t>SB_jian</t>
+  </si>
+  <si>
+    <t>【闪避】上臂</t>
+  </si>
+  <si>
+    <t>SB_shangbi</t>
+  </si>
+  <si>
+    <t>【闪避】前臂</t>
+  </si>
+  <si>
+    <t>SB_qianbi</t>
+  </si>
+  <si>
+    <t>【闪避】手肘</t>
+  </si>
+  <si>
+    <t>SB_zhou</t>
+  </si>
+  <si>
+    <t>【闪避】手腕</t>
+  </si>
+  <si>
+    <t>SB_shouwan</t>
+  </si>
+  <si>
+    <t>【闪避】大腿</t>
+  </si>
+  <si>
+    <t>SB_datui</t>
+  </si>
+  <si>
+    <t>【闪避】小腿</t>
+  </si>
+  <si>
+    <t>SB_xiaotui</t>
+  </si>
+  <si>
+    <t>【闪避】膝关节</t>
+  </si>
+  <si>
+    <t>【闪避】踝关节</t>
+  </si>
+  <si>
+    <t>SB_kuai</t>
+  </si>
+  <si>
+    <t>FY_tou</t>
+  </si>
+  <si>
+    <t>己方损伤数值</t>
+  </si>
+  <si>
+    <t>对方属性数值</t>
+  </si>
+  <si>
+    <t>对方损伤数值</t>
+  </si>
+  <si>
+    <t>对方损伤图例</t>
+  </si>
+  <si>
+    <t>qbshunshangzhi</t>
+  </si>
+  <si>
+    <t>qbshuxin</t>
+  </si>
+  <si>
+    <t>qbshunshangtu</t>
+  </si>
+  <si>
+    <t>qbjifhangzhi</t>
+  </si>
+  <si>
+    <t>qinbao</t>
+  </si>
+  <si>
+    <t>天眼</t>
+  </si>
+  <si>
+    <t>无知</t>
+  </si>
+  <si>
+    <t>自知</t>
+  </si>
+  <si>
+    <t>觉彼</t>
+  </si>
+  <si>
+    <t>明敌</t>
+  </si>
+  <si>
+    <t>推手</t>
+  </si>
+  <si>
+    <t>擒拿</t>
+  </si>
+  <si>
+    <t>肘底捶</t>
+  </si>
+  <si>
+    <t>炮锤</t>
+  </si>
+  <si>
+    <t>鸳鸯腿</t>
+  </si>
+  <si>
+    <t>绊摔</t>
   </si>
 </sst>
 </file>
@@ -762,14 +760,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -777,7 +775,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,7 +783,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -793,7 +791,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,7 +799,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -809,7 +807,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -817,14 +815,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -832,21 +830,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1366,23 +1364,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
@@ -1390,8 +1388,8 @@
     <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.375" style="32" customWidth="1"/>
-    <col min="30" max="16384" width="9.125" style="26"/>
+    <col min="29" max="29" width="26.42578125" style="32" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1430,22 +1428,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1456,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>13</v>
@@ -1548,12 +1546,12 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="B4" s="26" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -1588,7 +1586,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="26" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -1638,7 +1636,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1658,7 +1656,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="26" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -1685,7 +1683,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1703,12 +1701,12 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="26" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -1746,7 +1744,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="26" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -1779,12 +1777,12 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="26" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -1805,7 +1803,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1823,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1869,7 +1867,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
@@ -1910,7 +1908,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
@@ -1948,7 +1946,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C15" s="26">
         <v>1</v>
@@ -1969,7 +1967,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -1989,7 +1987,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="26" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -2010,7 +2008,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -2060,7 +2058,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2080,7 +2078,7 @@
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -2125,7 +2123,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2160,7 +2158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,15 +2173,15 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -2319,23 +2317,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="14"/>
-    <col min="10" max="16384" width="9.125" style="9"/>
+    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2360,7 +2358,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2387,7 +2385,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>52</v>
@@ -2413,7 +2411,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>53</v>
@@ -2444,7 +2442,7 @@
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1">
       <c r="A6" s="34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2469,12 +2467,12 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75">
+    <row r="7" spans="1:9" ht="45">
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>56</v>
@@ -2487,15 +2485,15 @@
         <v>58</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2506,10 +2504,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2520,10 +2518,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2557,10 +2555,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C12" s="10">
         <v>0.8</v>
@@ -2583,10 +2581,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2609,10 +2607,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C14" s="10">
         <v>0.6</v>
@@ -2635,10 +2633,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C15" s="10">
         <v>0.6</v>
@@ -2661,10 +2659,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C16" s="10">
         <v>0.7</v>
@@ -2687,10 +2685,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C17" s="10">
         <v>0.4</v>
@@ -2713,10 +2711,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10">
         <v>0.2</v>
@@ -2739,10 +2737,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C19" s="10">
         <v>0.9</v>
@@ -2765,10 +2763,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C20" s="10">
         <v>0.9</v>
@@ -2791,10 +2789,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C21" s="10">
         <v>0.4</v>
@@ -2817,10 +2815,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C22" s="10">
         <v>0.5</v>
@@ -2843,10 +2841,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C23" s="10">
         <v>0.4</v>
@@ -2869,10 +2867,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C24" s="10">
         <v>0.8</v>
@@ -2895,7 +2893,7 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1">
       <c r="A26" s="34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>40</v>
@@ -2922,7 +2920,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>60</v>
@@ -2946,737 +2944,614 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5">
+    <row r="28" spans="1:9" ht="45">
       <c r="A28" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="23" customFormat="1">
       <c r="A29" s="23" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="H29" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" ht="42.75">
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="37" spans="1:14" s="12" customFormat="1">
+      <c r="A37" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="12">
+        <v>5</v>
+      </c>
+      <c r="D37" s="12">
+        <v>4</v>
+      </c>
+      <c r="E37" s="41">
+        <v>3</v>
+      </c>
+      <c r="F37" s="36">
+        <v>2</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="43"/>
-    </row>
-    <row r="33" spans="1:14" s="12" customFormat="1">
-      <c r="A33" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="12">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12">
-        <v>4</v>
-      </c>
-      <c r="E33" s="41">
-        <v>3</v>
-      </c>
-      <c r="F33" s="36">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12">
+      <c r="C38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E38" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="10">
         <v>0</v>
-      </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E35" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F35" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" ref="I35:I47" si="0">C12+(1-C12)*C35</f>
-        <v>0.96</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" ref="J35:M35" si="1">D12+(1-D12)*D35</f>
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="1"/>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="1"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="1"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" ref="N35:N47" si="2">H12+(1-H12)*H35</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E36" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" ref="J36:J47" si="3">D13+(1-D13)*D36</f>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" ref="K36:K47" si="4">E13+(1-E13)*E36</f>
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="L36" s="17">
-        <f t="shared" ref="L36:L47" si="5">F13+(1-F13)*F36</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" ref="M36:M47" si="6">G13+(1-G13)*G36</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="N36" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E37" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="0"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="J37" s="17">
-        <f t="shared" si="3"/>
-        <v>0.75250000000000006</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="4"/>
-        <v>0.64250000000000007</v>
-      </c>
-      <c r="L37" s="17">
-        <f t="shared" si="5"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M37" s="17">
-        <f t="shared" si="6"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="N37" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1925</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I38" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" si="3"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K38" s="17">
-        <f t="shared" si="4"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L38" s="17">
-        <f t="shared" si="5"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M38" s="17">
-        <f t="shared" si="6"/>
-        <v>0.27749999999999997</v>
-      </c>
-      <c r="N38" s="17">
-        <f t="shared" si="2"/>
-        <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+        <v>193</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D39" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E39" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E39" s="42">
+      <c r="F39" s="37">
         <v>0.45</v>
       </c>
-      <c r="F39" s="37">
+      <c r="G39" s="10">
         <v>0.35</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>0.25</v>
       </c>
-      <c r="H39" s="10">
-        <v>0.15</v>
-      </c>
       <c r="I39" s="16">
-        <f t="shared" si="0"/>
-        <v>0.90999999999999992</v>
+        <f>C12+(1-C12)*C39</f>
+        <v>0.96</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" si="3"/>
+        <f>D12+(1-D12)*D39</f>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="K39" s="17">
+        <f>E12+(1-E12)*E39</f>
         <v>0.7975000000000001</v>
       </c>
-      <c r="K39" s="17">
-        <f t="shared" si="4"/>
+      <c r="L39" s="17">
+        <f>F12+(1-F12)*F39</f>
         <v>0.69750000000000001</v>
       </c>
-      <c r="L39" s="17">
-        <f t="shared" si="5"/>
+      <c r="M39" s="17">
+        <f>G12+(1-G12)*G39</f>
         <v>0.5774999999999999</v>
       </c>
-      <c r="M39" s="17">
-        <f t="shared" si="6"/>
+      <c r="N39" s="17">
+        <f>H12+(1-H12)*H39</f>
         <v>0.4375</v>
-      </c>
-      <c r="N39" s="17">
-        <f t="shared" si="2"/>
-        <v>0.27749999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E40" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F40" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="16">
+        <f>C13+(1-C13)*C40</f>
         <v>0.9</v>
       </c>
-      <c r="D40" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F40" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I40" s="16">
-        <f t="shared" si="0"/>
-        <v>0.94000000000000006</v>
-      </c>
       <c r="J40" s="17">
-        <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
+        <f>D13+(1-D13)*D40</f>
+        <v>0.77249999999999996</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" si="4"/>
-        <v>0.78749999999999998</v>
+        <f>E13+(1-E13)*E40</f>
+        <v>0.66250000000000009</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" si="5"/>
-        <v>0.71499999999999997</v>
+        <f>F13+(1-F13)*F40</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M40" s="17">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
+        <f>G13+(1-G13)*G40</f>
+        <v>0.41500000000000004</v>
       </c>
       <c r="N40" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>H13+(1-H13)*H40</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D41" s="10">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E41" s="42">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="F41" s="37">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="G41" s="10">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="H41" s="10">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92000000000000015</v>
+        <f>C14+(1-C14)*C41</f>
+        <v>0.87999999999999989</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="3"/>
-        <v>0.82000000000000006</v>
+        <f>D14+(1-D14)*D41</f>
+        <v>0.75250000000000006</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f>E14+(1-E14)*E41</f>
+        <v>0.64250000000000007</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
+        <f>F14+(1-F14)*F41</f>
+        <v>0.51249999999999996</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
+        <f>G14+(1-G14)*G41</f>
+        <v>0.36249999999999999</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>H14+(1-H14)*H41</f>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D42" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="E42" s="42">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F42" s="37">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="10">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H42" s="10">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
+        <f>C15+(1-C15)*C42</f>
+        <v>0.84</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="3"/>
-        <v>0.91</v>
+        <f>D15+(1-D15)*D42</f>
+        <v>0.69750000000000001</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" si="4"/>
-        <v>0.86250000000000004</v>
+        <f>E15+(1-E15)*E42</f>
+        <v>0.5774999999999999</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" si="5"/>
-        <v>0.80499999999999994</v>
+        <f>F15+(1-F15)*F42</f>
+        <v>0.4375</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" si="6"/>
-        <v>0.73750000000000004</v>
+        <f>G15+(1-G15)*G42</f>
+        <v>0.27749999999999997</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" si="2"/>
-        <v>0.65999999999999992</v>
+        <f>H15+(1-H15)*H42</f>
+        <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
       </c>
       <c r="C43" s="10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D43" s="10">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E43" s="42">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F43" s="37">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G43" s="10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H43" s="10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
+        <f>C16+(1-C16)*C43</f>
+        <v>0.90999999999999992</v>
       </c>
       <c r="J43" s="17">
-        <f t="shared" si="3"/>
-        <v>0.82000000000000006</v>
+        <f>D16+(1-D16)*D43</f>
+        <v>0.7975000000000001</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f>E16+(1-E16)*E43</f>
+        <v>0.69750000000000001</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
+        <f>F16+(1-F16)*F43</f>
+        <v>0.5774999999999999</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
+        <f>G16+(1-G16)*G43</f>
+        <v>0.4375</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>H16+(1-H16)*H43</f>
+        <v>0.27749999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" s="10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D44" s="10">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="E44" s="42">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F44" s="37">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G44" s="10">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="H44" s="10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f>C17+(1-C17)*C44</f>
+        <v>0.94000000000000006</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="3"/>
-        <v>0.51249999999999996</v>
+        <f>D17+(1-D17)*D44</f>
+        <v>0.85000000000000009</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="4"/>
-        <v>0.36249999999999999</v>
+        <f>E17+(1-E17)*E44</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" si="5"/>
-        <v>0.24</v>
+        <f>F17+(1-F17)*F44</f>
+        <v>0.71499999999999997</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f>G17+(1-G17)*G44</f>
+        <v>0.65</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>H17+(1-H17)*H44</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="9" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D45" s="10">
         <v>0.8</v>
       </c>
-      <c r="D45" s="10">
+      <c r="E45" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="G45" s="10">
         <v>0.65</v>
       </c>
-      <c r="E45" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F45" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0.35</v>
-      </c>
       <c r="H45" s="10">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I45" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+        <f>C18+(1-C18)*C45</f>
+        <v>0.92000000000000015</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="3"/>
-        <v>0.77249999999999996</v>
+        <f>D18+(1-D18)*D45</f>
+        <v>0.82000000000000006</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="4"/>
-        <v>0.66250000000000009</v>
+        <f>E18+(1-E18)*E45</f>
+        <v>0.75</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" si="5"/>
-        <v>0.56000000000000005</v>
+        <f>F18+(1-F18)*F45</f>
+        <v>0.7</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" si="6"/>
-        <v>0.41500000000000004</v>
+        <f>G18+(1-G18)*G45</f>
+        <v>0.65</v>
       </c>
       <c r="N45" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>H18+(1-H18)*H45</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="9" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D46" s="10">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E46" s="42">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="F46" s="37">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="G46" s="10">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H46" s="10">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I46" s="16">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
+        <f>C19+(1-C19)*C46</f>
+        <v>0.97</v>
       </c>
       <c r="J46" s="17">
-        <f t="shared" si="3"/>
+        <f>D19+(1-D19)*D46</f>
+        <v>0.91</v>
+      </c>
+      <c r="K46" s="17">
+        <f>E19+(1-E19)*E46</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="L46" s="17">
+        <f>F19+(1-F19)*F46</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="M46" s="17">
+        <f>G19+(1-G19)*G46</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="K46" s="17">
-        <f t="shared" si="4"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="L46" s="17">
-        <f t="shared" si="5"/>
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="M46" s="17">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
       <c r="N46" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>H19+(1-H19)*H46</f>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C47" s="10">
         <v>0.2</v>
@@ -3697,45 +3572,45 @@
         <v>0</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <f>C20+(1-C20)*C47</f>
+        <v>0.92</v>
       </c>
       <c r="J47" s="17">
-        <f t="shared" si="3"/>
-        <v>0.68500000000000005</v>
+        <f>D20+(1-D20)*D47</f>
+        <v>0.82000000000000006</v>
       </c>
       <c r="K47" s="17">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
+        <f>E20+(1-E20)*E47</f>
+        <v>0.75</v>
       </c>
       <c r="L47" s="17">
-        <f t="shared" si="5"/>
-        <v>0.45</v>
+        <f>F20+(1-F20)*F47</f>
+        <v>0.7</v>
       </c>
       <c r="M47" s="17">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
+        <f>G20+(1-G20)*G47</f>
+        <v>0.65</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>H20+(1-H20)*H47</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="10">
         <v>0.5</v>
       </c>
       <c r="D48" s="10">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E48" s="42">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F48" s="37">
         <v>0.2</v>
@@ -3746,203 +3621,403 @@
       <c r="H48" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="I48" s="16">
+        <f>C21+(1-C21)*C48</f>
+        <v>0.7</v>
+      </c>
+      <c r="J48" s="17">
+        <f>D21+(1-D21)*D48</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="K48" s="17">
+        <f>E21+(1-E21)*E48</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="L48" s="17">
+        <f>F21+(1-F21)*F48</f>
+        <v>0.24</v>
+      </c>
+      <c r="M48" s="17">
+        <f>G21+(1-G21)*G48</f>
+        <v>0.1</v>
+      </c>
+      <c r="N48" s="17">
+        <f>H21+(1-H21)*H48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>75</v>
+        <v>158</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C49" s="10">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D49" s="10">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="E49" s="42">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F49" s="37">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="G49" s="10">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="16">
+        <f>C22+(1-C22)*C49</f>
+        <v>0.9</v>
+      </c>
+      <c r="J49" s="17">
+        <f>D22+(1-D22)*D49</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="K49" s="17">
+        <f>E22+(1-E22)*E49</f>
+        <v>0.66250000000000009</v>
+      </c>
+      <c r="L49" s="17">
+        <f>F22+(1-F22)*F49</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M49" s="17">
+        <f>G22+(1-G22)*G49</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="N49" s="17">
+        <f>H22+(1-H22)*H49</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>89</v>
+        <v>159</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C50" s="10">
         <v>0.8</v>
       </c>
       <c r="D50" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="E50" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="16">
+        <f>C23+(1-C23)*C50</f>
+        <v>0.88</v>
+      </c>
+      <c r="J50" s="17">
+        <f>D23+(1-D23)*D50</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="K50" s="17">
+        <f>E23+(1-E23)*E50</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L50" s="17">
+        <f>F23+(1-F23)*F50</f>
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="M50" s="17">
+        <f>G23+(1-G23)*G50</f>
+        <v>0.35</v>
+      </c>
+      <c r="N50" s="17">
+        <f>H23+(1-H23)*H50</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <f>C24+(1-C24)*C51</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="J51" s="17">
+        <f>D24+(1-D24)*D51</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K51" s="17">
+        <f>E24+(1-E24)*E51</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L51" s="17">
+        <f>F24+(1-F24)*F51</f>
+        <v>0.45</v>
+      </c>
+      <c r="M51" s="17">
+        <f>G24+(1-G24)*G51</f>
+        <v>0.35</v>
+      </c>
+      <c r="N51" s="17">
+        <f>H24+(1-H24)*H51</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="10">
         <v>0.5</v>
       </c>
-      <c r="E50" s="42">
+      <c r="D52" s="10">
         <v>0.4</v>
       </c>
-      <c r="F50" s="37">
+      <c r="E52" s="42">
         <v>0.3</v>
       </c>
-      <c r="G50" s="10">
+      <c r="F52" s="37">
         <v>0.2</v>
       </c>
-      <c r="H50" s="10">
+      <c r="G52" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="12" customFormat="1">
-      <c r="A52" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="12" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E53" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="12" customFormat="1">
+      <c r="A56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E56" s="41">
         <v>3</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F56" s="36">
         <v>2</v>
       </c>
-      <c r="G52" s="12">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12">
+      <c r="G56" s="12">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
         <v>0</v>
       </c>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="40">
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="40">
         <v>150</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F57" s="35">
         <v>120</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G57" s="9">
         <v>100</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H57" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="9" t="s">
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E54" s="40">
-        <v>3</v>
-      </c>
-      <c r="F54" s="35">
-        <v>2</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="C57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="C58" s="9">
-        <v>3</v>
-      </c>
-      <c r="D58" s="9">
-        <v>3</v>
       </c>
       <c r="E58" s="40">
         <v>3</v>
       </c>
       <c r="F58" s="35">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="C61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="G58" s="9">
-        <v>1</v>
-      </c>
-      <c r="J58" s="9">
-        <f>13-SUM(C58:G58)</f>
+      <c r="D62" s="9">
+        <v>3</v>
+      </c>
+      <c r="E62" s="40">
+        <v>3</v>
+      </c>
+      <c r="F62" s="35">
+        <v>3</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="J62" s="9">
+        <f>13-SUM(C62:G62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="C59" s="9">
+    <row r="63" spans="1:14">
+      <c r="C63" s="9">
         <v>5</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D63" s="9">
         <v>2</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E63" s="40">
         <v>2</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F63" s="35">
         <v>3</v>
       </c>
-      <c r="G59" s="9">
-        <v>1</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" ref="J59:J61" si="7">13-SUM(C59:G59)</f>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" ref="J63:J65" si="0">13-SUM(C63:G63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="C60" s="9">
+    <row r="64" spans="1:14">
+      <c r="C64" s="9">
         <v>5</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D64" s="9">
         <v>5</v>
       </c>
-      <c r="E60" s="40">
-        <v>1</v>
-      </c>
-      <c r="F60" s="35">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9">
-        <v>1</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" si="7"/>
+      <c r="E64" s="40">
+        <v>1</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="J61" s="9">
-        <f t="shared" si="7"/>
+    <row r="65" spans="10:10">
+      <c r="J65" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -3961,12 +4036,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="20" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -3987,63 +4062,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4063,7 +4138,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4083,7 +4158,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4118,7 +4193,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4153,7 +4228,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4164,7 +4239,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4175,7 +4250,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4195,7 +4270,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4230,63 +4305,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H13" t="s">
+      <c r="P13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4360,33 +4435,33 @@
     </row>
     <row r="16" spans="1:24">
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.5">
+    </row>
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" s="22">
         <v>0.25</v>
@@ -4415,7 +4490,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" s="22">
         <v>0.25</v>
@@ -4458,21 +4533,21 @@
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="7.625" customWidth="1"/>
+    <col min="2" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.375" customWidth="1"/>
-    <col min="17" max="17" width="7.125" customWidth="1"/>
-    <col min="21" max="22" width="6.375" customWidth="1"/>
-    <col min="23" max="23" width="7.125" customWidth="1"/>
-    <col min="27" max="28" width="6.375" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="21" max="22" width="6.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="27" max="28" width="6.42578125" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="属性" sheetId="4" r:id="rId4"/>
     <sheet name="HP防御" sheetId="5" r:id="rId5"/>
     <sheet name="时间" sheetId="6" r:id="rId6"/>
+    <sheet name="fight" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="231">
   <si>
     <t>招式</t>
   </si>
@@ -751,12 +752,109 @@
   <si>
     <t>绊摔</t>
   </si>
+  <si>
+    <t>你</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>打出</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>勾拳</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>闪避了</t>
+  </si>
+  <si>
+    <t>击向</t>
+  </si>
+  <si>
+    <t>对方</t>
+  </si>
+  <si>
+    <t>（80/80/20）</t>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/20）</t>
+    </r>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>防御了</t>
+  </si>
+  <si>
+    <t>造成</t>
+  </si>
+  <si>
+    <t>左拳 -5，左上臂 -5，左肘 -5，左肩 -5，平衡 -10</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>削衡</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +945,22 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1364,11 +1478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3172,27 +3286,27 @@
         <v>0.25</v>
       </c>
       <c r="I39" s="16">
-        <f>C12+(1-C12)*C39</f>
+        <f t="shared" ref="I39:I51" si="0">C12+(1-C12)*C39</f>
         <v>0.96</v>
       </c>
       <c r="J39" s="17">
-        <f>D12+(1-D12)*D39</f>
+        <f t="shared" ref="J39:J51" si="1">D12+(1-D12)*D39</f>
         <v>0.87749999999999995</v>
       </c>
       <c r="K39" s="17">
-        <f>E12+(1-E12)*E39</f>
+        <f t="shared" ref="K39:K51" si="2">E12+(1-E12)*E39</f>
         <v>0.7975000000000001</v>
       </c>
       <c r="L39" s="17">
-        <f>F12+(1-F12)*F39</f>
+        <f t="shared" ref="L39:L51" si="3">F12+(1-F12)*F39</f>
         <v>0.69750000000000001</v>
       </c>
       <c r="M39" s="17">
-        <f>G12+(1-G12)*G39</f>
+        <f t="shared" ref="M39:M51" si="4">G12+(1-G12)*G39</f>
         <v>0.5774999999999999</v>
       </c>
       <c r="N39" s="17">
-        <f>H12+(1-H12)*H39</f>
+        <f t="shared" ref="N39:N51" si="5">H12+(1-H12)*H39</f>
         <v>0.4375</v>
       </c>
     </row>
@@ -3222,27 +3336,27 @@
         <v>0.25</v>
       </c>
       <c r="I40" s="16">
-        <f>C13+(1-C13)*C40</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="J40" s="17">
-        <f>D13+(1-D13)*D40</f>
+        <f t="shared" si="1"/>
         <v>0.77249999999999996</v>
       </c>
       <c r="K40" s="17">
-        <f>E13+(1-E13)*E40</f>
+        <f t="shared" si="2"/>
         <v>0.66250000000000009</v>
       </c>
       <c r="L40" s="17">
-        <f>F13+(1-F13)*F40</f>
+        <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="M40" s="17">
-        <f>G13+(1-G13)*G40</f>
+        <f t="shared" si="4"/>
         <v>0.41500000000000004</v>
       </c>
       <c r="N40" s="17">
-        <f>H13+(1-H13)*H40</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3272,27 +3386,27 @@
         <v>0.15</v>
       </c>
       <c r="I41" s="16">
-        <f>C14+(1-C14)*C41</f>
+        <f t="shared" si="0"/>
         <v>0.87999999999999989</v>
       </c>
       <c r="J41" s="17">
-        <f>D14+(1-D14)*D41</f>
+        <f t="shared" si="1"/>
         <v>0.75250000000000006</v>
       </c>
       <c r="K41" s="17">
-        <f>E14+(1-E14)*E41</f>
+        <f t="shared" si="2"/>
         <v>0.64250000000000007</v>
       </c>
       <c r="L41" s="17">
-        <f>F14+(1-F14)*F41</f>
+        <f t="shared" si="3"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="M41" s="17">
-        <f>G14+(1-G14)*G41</f>
+        <f t="shared" si="4"/>
         <v>0.36249999999999999</v>
       </c>
       <c r="N41" s="17">
-        <f>H14+(1-H14)*H41</f>
+        <f t="shared" si="5"/>
         <v>0.1925</v>
       </c>
     </row>
@@ -3322,27 +3436,27 @@
         <v>0.05</v>
       </c>
       <c r="I42" s="16">
-        <f>C15+(1-C15)*C42</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="J42" s="17">
-        <f>D15+(1-D15)*D42</f>
+        <f t="shared" si="1"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="K42" s="17">
-        <f>E15+(1-E15)*E42</f>
+        <f t="shared" si="2"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="L42" s="17">
-        <f>F15+(1-F15)*F42</f>
+        <f t="shared" si="3"/>
         <v>0.4375</v>
       </c>
       <c r="M42" s="17">
-        <f>G15+(1-G15)*G42</f>
+        <f t="shared" si="4"/>
         <v>0.27749999999999997</v>
       </c>
       <c r="N42" s="17">
-        <f>H15+(1-H15)*H42</f>
+        <f t="shared" si="5"/>
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
@@ -3372,27 +3486,27 @@
         <v>0.15</v>
       </c>
       <c r="I43" s="16">
-        <f>C16+(1-C16)*C43</f>
+        <f t="shared" si="0"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="J43" s="17">
-        <f>D16+(1-D16)*D43</f>
+        <f t="shared" si="1"/>
         <v>0.7975000000000001</v>
       </c>
       <c r="K43" s="17">
-        <f>E16+(1-E16)*E43</f>
+        <f t="shared" si="2"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="L43" s="17">
-        <f>F16+(1-F16)*F43</f>
+        <f t="shared" si="3"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="M43" s="17">
-        <f>G16+(1-G16)*G43</f>
+        <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
       <c r="N43" s="17">
-        <f>H16+(1-H16)*H43</f>
+        <f t="shared" si="5"/>
         <v>0.27749999999999997</v>
       </c>
     </row>
@@ -3422,27 +3536,27 @@
         <v>0.6</v>
       </c>
       <c r="I44" s="16">
-        <f>C17+(1-C17)*C44</f>
+        <f t="shared" si="0"/>
         <v>0.94000000000000006</v>
       </c>
       <c r="J44" s="17">
-        <f>D17+(1-D17)*D44</f>
+        <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="K44" s="17">
-        <f>E17+(1-E17)*E44</f>
+        <f t="shared" si="2"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="L44" s="17">
-        <f>F17+(1-F17)*F44</f>
+        <f t="shared" si="3"/>
         <v>0.71499999999999997</v>
       </c>
       <c r="M44" s="17">
-        <f>G17+(1-G17)*G44</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="N44" s="17">
-        <f>H17+(1-H17)*H44</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3472,27 +3586,27 @@
         <v>0.6</v>
       </c>
       <c r="I45" s="16">
-        <f>C18+(1-C18)*C45</f>
+        <f t="shared" si="0"/>
         <v>0.92000000000000015</v>
       </c>
       <c r="J45" s="17">
-        <f>D18+(1-D18)*D45</f>
+        <f t="shared" si="1"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="K45" s="17">
-        <f>E18+(1-E18)*E45</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="L45" s="17">
-        <f>F18+(1-F18)*F45</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M45" s="17">
-        <f>G18+(1-G18)*G45</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="N45" s="17">
-        <f>H18+(1-H18)*H45</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3522,27 +3636,27 @@
         <v>0.15</v>
       </c>
       <c r="I46" s="16">
-        <f>C19+(1-C19)*C46</f>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
       <c r="J46" s="17">
-        <f>D19+(1-D19)*D46</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
       <c r="K46" s="17">
-        <f>E19+(1-E19)*E46</f>
+        <f t="shared" si="2"/>
         <v>0.86250000000000004</v>
       </c>
       <c r="L46" s="17">
-        <f>F19+(1-F19)*F46</f>
+        <f t="shared" si="3"/>
         <v>0.80499999999999994</v>
       </c>
       <c r="M46" s="17">
-        <f>G19+(1-G19)*G46</f>
+        <f t="shared" si="4"/>
         <v>0.73750000000000004</v>
       </c>
       <c r="N46" s="17">
-        <f>H19+(1-H19)*H46</f>
+        <f t="shared" si="5"/>
         <v>0.65999999999999992</v>
       </c>
     </row>
@@ -3572,27 +3686,27 @@
         <v>0</v>
       </c>
       <c r="I47" s="16">
-        <f>C20+(1-C20)*C47</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="J47" s="17">
-        <f>D20+(1-D20)*D47</f>
+        <f t="shared" si="1"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="K47" s="17">
-        <f>E20+(1-E20)*E47</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="L47" s="17">
-        <f>F20+(1-F20)*F47</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M47" s="17">
-        <f>G20+(1-G20)*G47</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="N47" s="17">
-        <f>H20+(1-H20)*H47</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3622,27 +3736,27 @@
         <v>0</v>
       </c>
       <c r="I48" s="16">
-        <f>C21+(1-C21)*C48</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="J48" s="17">
-        <f>D21+(1-D21)*D48</f>
+        <f t="shared" si="1"/>
         <v>0.51249999999999996</v>
       </c>
       <c r="K48" s="17">
-        <f>E21+(1-E21)*E48</f>
+        <f t="shared" si="2"/>
         <v>0.36249999999999999</v>
       </c>
       <c r="L48" s="17">
-        <f>F21+(1-F21)*F48</f>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="M48" s="17">
-        <f>G21+(1-G21)*G48</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="N48" s="17">
-        <f>H21+(1-H21)*H48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,27 +3786,27 @@
         <v>0.25</v>
       </c>
       <c r="I49" s="16">
-        <f>C22+(1-C22)*C49</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="J49" s="17">
-        <f>D22+(1-D22)*D49</f>
+        <f t="shared" si="1"/>
         <v>0.77249999999999996</v>
       </c>
       <c r="K49" s="17">
-        <f>E22+(1-E22)*E49</f>
+        <f t="shared" si="2"/>
         <v>0.66250000000000009</v>
       </c>
       <c r="L49" s="17">
-        <f>F22+(1-F22)*F49</f>
+        <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="M49" s="17">
-        <f>G22+(1-G22)*G49</f>
+        <f t="shared" si="4"/>
         <v>0.41500000000000004</v>
       </c>
       <c r="N49" s="17">
-        <f>H22+(1-H22)*H49</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3722,27 +3836,27 @@
         <v>0.25</v>
       </c>
       <c r="I50" s="16">
-        <f>C23+(1-C23)*C50</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="J50" s="17">
-        <f>D23+(1-D23)*D50</f>
+        <f t="shared" si="1"/>
         <v>0.73750000000000004</v>
       </c>
       <c r="K50" s="17">
-        <f>E23+(1-E23)*E50</f>
+        <f t="shared" si="2"/>
         <v>0.61750000000000005</v>
       </c>
       <c r="L50" s="17">
-        <f>F23+(1-F23)*F50</f>
+        <f t="shared" si="3"/>
         <v>0.47749999999999998</v>
       </c>
       <c r="M50" s="17">
-        <f>G23+(1-G23)*G50</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="N50" s="17">
-        <f>H23+(1-H23)*H50</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3772,27 +3886,27 @@
         <v>0</v>
       </c>
       <c r="I51" s="16">
-        <f>C24+(1-C24)*C51</f>
+        <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
       <c r="J51" s="17">
-        <f>D24+(1-D24)*D51</f>
+        <f t="shared" si="1"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="K51" s="17">
-        <f>E24+(1-E24)*E51</f>
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="L51" s="17">
-        <f>F24+(1-F24)*F51</f>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="M51" s="17">
-        <f>G24+(1-G24)*G51</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="N51" s="17">
-        <f>H24+(1-H24)*H51</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3990,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" ref="J63:J65" si="0">13-SUM(C63:G63)</f>
+        <f t="shared" ref="J63:J65" si="6">13-SUM(C63:G63)</f>
         <v>0</v>
       </c>
     </row>
@@ -4011,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="10:10">
       <c r="J65" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -4033,7 +4147,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B14" sqref="B14:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4529,8 +4643,8 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8000,6 +8114,9 @@
         <v>1</v>
       </c>
       <c r="D109" s="7"/>
+      <c r="E109" s="8">
+        <v>1</v>
+      </c>
       <c r="L109">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -8025,6 +8142,9 @@
         <v>1</v>
       </c>
       <c r="D110" s="7"/>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
       <c r="L110">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -8050,6 +8170,12 @@
         <v>1</v>
       </c>
       <c r="D111" s="7"/>
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
       <c r="L111">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -8071,14 +8197,12 @@
       <c r="A112">
         <v>11</v>
       </c>
-      <c r="B112">
-        <f>SUM(B2:B111)</f>
-        <v>66</v>
-      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="4">
-        <f>SUM(E2:E111)</f>
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>2</v>
       </c>
       <c r="L112">
         <f t="shared" si="4"/>
@@ -8097,82 +8221,142 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F115" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>12.1</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>12.2</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="E125" s="4">
+        <f>SUM(E2:E122)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>12.4</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>12.5</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>12.6</v>
       </c>
@@ -8302,4 +8486,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="21">
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,6 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 3" xfId="4" builtinId="39"/>
@@ -4144,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:X14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4547,87 +4548,184 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="B16" t="s">
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>97</v>
+      </c>
+      <c r="B15" s="52">
+        <f>($A$15/$Q$14)*B14</f>
+        <v>48.5</v>
+      </c>
+      <c r="C15" s="52">
+        <f t="shared" ref="C15:X15" si="0">($A$15/$Q$14)*C14</f>
+        <v>87.3</v>
+      </c>
+      <c r="D15" s="52">
+        <f t="shared" si="0"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E15" s="52">
+        <f t="shared" si="0"/>
+        <v>59.17</v>
+      </c>
+      <c r="F15" s="52">
+        <f t="shared" si="0"/>
+        <v>59.17</v>
+      </c>
+      <c r="G15" s="52">
+        <f t="shared" si="0"/>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="H15" s="52">
+        <f t="shared" si="0"/>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="0"/>
+        <v>87.3</v>
+      </c>
+      <c r="J15" s="52">
+        <f t="shared" si="0"/>
+        <v>87.3</v>
+      </c>
+      <c r="K15" s="52">
+        <f t="shared" si="0"/>
+        <v>59.17</v>
+      </c>
+      <c r="L15" s="52">
+        <f t="shared" si="0"/>
+        <v>59.17</v>
+      </c>
+      <c r="M15" s="52">
+        <f t="shared" si="0"/>
+        <v>30.07</v>
+      </c>
+      <c r="N15" s="52">
+        <f t="shared" si="0"/>
+        <v>30.07</v>
+      </c>
+      <c r="O15" s="52">
+        <f t="shared" si="0"/>
+        <v>27.16</v>
+      </c>
+      <c r="P15" s="52">
+        <f t="shared" si="0"/>
+        <v>27.16</v>
+      </c>
+      <c r="Q15" s="52">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="R15" s="52">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="S15" s="52">
+        <f t="shared" si="0"/>
+        <v>77.600000000000009</v>
+      </c>
+      <c r="T15" s="52">
+        <f t="shared" si="0"/>
+        <v>77.600000000000009</v>
+      </c>
+      <c r="U15" s="52">
+        <f t="shared" si="0"/>
+        <v>30.07</v>
+      </c>
+      <c r="V15" s="52">
+        <f t="shared" si="0"/>
+        <v>30.07</v>
+      </c>
+      <c r="W15" s="52">
+        <f t="shared" si="0"/>
+        <v>27.16</v>
+      </c>
+      <c r="X15" s="52">
+        <f t="shared" si="0"/>
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="21" t="s">
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B19" s="22">
         <v>0.25</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C19" s="22">
         <v>0.25</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D19" s="22">
         <v>0.17</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E19" s="22">
         <v>0.17</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F19" s="22">
         <v>0.25</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G19" s="22">
         <v>0.25</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H19" s="22">
         <v>0.17</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I19" s="22">
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="20" spans="1:9" ht="48" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B20" s="22">
         <v>0.25</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C20" s="22">
         <v>0.25</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D20" s="22">
         <v>0.33</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E20" s="22">
         <v>0.33</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F20" s="22">
         <v>0.25</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G20" s="22">
         <v>0.25</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H20" s="22">
         <v>0.33</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I20" s="22">
         <v>0.33</v>
       </c>
     </row>
@@ -8492,8 +8590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="247">
   <si>
     <t>招式</t>
   </si>
@@ -848,6 +848,54 @@
   </si>
   <si>
     <t>削衡</t>
+  </si>
+  <si>
+    <t>tj_panda</t>
+  </si>
+  <si>
+    <t>tj_tuishou</t>
+  </si>
+  <si>
+    <t>tj_qingna</t>
+  </si>
+  <si>
+    <t>tj_shuangfong</t>
+  </si>
+  <si>
+    <t>tj_zhoudicui</t>
+  </si>
+  <si>
+    <t>tj_paocui</t>
+  </si>
+  <si>
+    <t>tj_yuanyangtui</t>
+  </si>
+  <si>
+    <t>tj_banshuai</t>
+  </si>
+  <si>
+    <t>tq_zhiquan</t>
+  </si>
+  <si>
+    <t>tq_lrgouquan</t>
+  </si>
+  <si>
+    <t>tq_sgouquan</t>
+  </si>
+  <si>
+    <t>tq_zhouji</t>
+  </si>
+  <si>
+    <t>tq_xizhuang</t>
+  </si>
+  <si>
+    <t>tq_dengtui</t>
+  </si>
+  <si>
+    <t>tq_shaotui</t>
+  </si>
+  <si>
+    <t>腰</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1075,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1146,6 +1194,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,7 +1210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 3" xfId="4" builtinId="39"/>
@@ -1479,20 +1530,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="47" customWidth="1"/>
+    <col min="4" max="7" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="7.140625" style="26" bestFit="1" customWidth="1"/>
@@ -1514,28 +1566,27 @@
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="52"/>
       <c r="U1" s="27" t="s">
         <v>27</v>
       </c>
@@ -1565,32 +1616,29 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>9</v>
-      </c>
       <c r="K2" s="26" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1627,16 +1675,19 @@
       <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="C3" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27">
         <v>1</v>
       </c>
       <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26">
         <v>1</v>
       </c>
       <c r="L3" s="26">
@@ -1668,13 +1719,16 @@
       <c r="B4" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="C4" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26">
         <v>1</v>
       </c>
       <c r="U4" s="27">
@@ -1703,7 +1757,10 @@
       <c r="B5" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="26">
+      <c r="C5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="26">
         <v>1</v>
       </c>
       <c r="L5" s="26">
@@ -1738,10 +1795,13 @@
       <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="C6" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="27">
         <v>1</v>
       </c>
       <c r="U6" s="27">
@@ -1773,10 +1833,10 @@
       <c r="B7" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="C7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="26">
         <v>1</v>
       </c>
       <c r="I7" s="26">
@@ -1823,13 +1883,16 @@
       <c r="B8" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="C8" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="26">
         <v>1</v>
       </c>
       <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26">
         <v>1</v>
       </c>
       <c r="L8" s="26">
@@ -1861,16 +1924,19 @@
       <c r="B9" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="C9" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
         <v>1</v>
       </c>
       <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
         <v>1</v>
       </c>
       <c r="U9" s="27">
@@ -1899,7 +1965,10 @@
       <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="26">
+      <c r="C10" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="26">
         <v>1</v>
       </c>
       <c r="O10" s="26">
@@ -1946,16 +2015,19 @@
       <c r="B12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="C12" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27">
         <v>1</v>
       </c>
       <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26">
         <v>1</v>
       </c>
       <c r="L12" s="26">
@@ -1984,13 +2056,13 @@
       <c r="B13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27">
-        <v>1</v>
-      </c>
-      <c r="J13" s="26">
+      <c r="C13" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27">
         <v>1</v>
       </c>
       <c r="K13" s="26">
@@ -2025,16 +2097,19 @@
       <c r="B14" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="C14" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27">
         <v>1</v>
       </c>
       <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26">
         <v>1</v>
       </c>
       <c r="L14" s="26">
@@ -2063,13 +2138,16 @@
       <c r="B15" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="C15" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26">
         <v>1</v>
       </c>
       <c r="L15" s="26">
@@ -2104,19 +2182,19 @@
       <c r="B16" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="C16" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="27">
         <v>1</v>
       </c>
       <c r="I16" s="26">
         <v>1</v>
       </c>
-      <c r="L16" s="26">
+      <c r="J16" s="26">
         <v>1</v>
       </c>
       <c r="U16" s="27">
@@ -2145,16 +2223,19 @@
       <c r="B17" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <v>1</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="C17" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27">
         <v>1</v>
       </c>
       <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="26">
         <v>1</v>
       </c>
       <c r="L17" s="26">
@@ -2195,13 +2276,13 @@
       <c r="B18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="J18" s="26">
+      <c r="C18" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
         <v>1</v>
       </c>
       <c r="K18" s="26">
@@ -2258,8 +2339,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:T1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2306,31 +2387,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2516,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4147,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4552,95 +4633,95 @@
       <c r="A15">
         <v>97</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="48">
         <f>($A$15/$Q$14)*B14</f>
         <v>48.5</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="48">
         <f t="shared" ref="C15:X15" si="0">($A$15/$Q$14)*C14</f>
         <v>87.3</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="48">
         <f t="shared" si="0"/>
         <v>67.900000000000006</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="48">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="48">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="48">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="48">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="48">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="48">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="48">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="48">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="48">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="48">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="P15" s="52">
+      <c r="P15" s="48">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="48">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="R15" s="52">
+      <c r="R15" s="48">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="S15" s="52">
+      <c r="S15" s="48">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="48">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="U15" s="52">
+      <c r="U15" s="48">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="V15" s="52">
+      <c r="V15" s="48">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="W15" s="52">
+      <c r="W15" s="48">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="X15" s="52">
+      <c r="X15" s="48">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1534,7 +1534,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LLLS\Git\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="时间" sheetId="6" r:id="rId6"/>
     <sheet name="fight" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -791,7 +791,7 @@
         <b/>
         <sz val="14"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -801,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -813,7 +813,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -906,14 +906,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -921,7 +921,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -929,7 +929,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -937,7 +937,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -945,7 +945,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -953,7 +953,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -961,14 +961,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -976,21 +976,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -999,7 +999,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1007,7 +1007,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1530,24 +1530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:T9"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="47" customWidth="1"/>
-    <col min="4" max="7" width="3.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
@@ -1555,8 +1555,8 @@
     <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.42578125" style="32" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="26"/>
+    <col min="29" max="29" width="26.375" style="32" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2354,7 +2354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,15 +2369,15 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -2520,16 +2520,16 @@
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="14"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
+    <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="14"/>
+    <col min="10" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="42.75">
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45">
+    <row r="28" spans="1:9" ht="28.5">
       <c r="A28" s="9" t="s">
         <v>166</v>
       </c>
@@ -4232,12 +4232,12 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4752,7 +4752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="28.5">
       <c r="A19" s="21" t="s">
         <v>105</v>
       </c>
@@ -4826,21 +4826,21 @@
       <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="2" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="21" max="22" width="6.42578125" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" customWidth="1"/>
-    <col min="27" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="7.125" customWidth="1"/>
+    <col min="21" max="22" width="6.375" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
+    <col min="27" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -8675,20 +8675,20 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
@@ -8729,7 +8729,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="21">
+    <row r="3" spans="2:19" ht="20.25">
       <c r="F3" t="s">
         <v>224</v>
       </c>
@@ -8779,6 +8779,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LLLS\Git\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="249">
   <si>
     <t>招式</t>
   </si>
@@ -897,12 +897,20 @@
   <si>
     <t>腰</t>
   </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按实时hp比例，分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,14 +1538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
@@ -1559,7 +1567,7 @@
     <col min="30" max="16384" width="9.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>208</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>209</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>210</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>211</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>212</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>123</v>
       </c>
@@ -2093,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>124</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>125</v>
       </c>
@@ -2178,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>126</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>127</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>128</v>
       </c>
@@ -2350,12 +2358,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2369,7 +2390,7 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3.125" bestFit="1" customWidth="1"/>
@@ -2380,7 +2401,7 @@
     <col min="24" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +2449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2541,7 @@
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
@@ -2532,7 +2553,7 @@
     <col min="10" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1" s="9">
         <v>5</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>131</v>
       </c>
@@ -2579,7 +2600,7 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>165</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>136</v>
       </c>
@@ -2631,12 +2652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>132</v>
       </c>
@@ -2663,7 +2684,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75">
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -2684,7 +2705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>137</v>
       </c>
@@ -2698,7 +2719,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>138</v>
       </c>
@@ -2712,7 +2733,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>139</v>
       </c>
@@ -2726,7 +2747,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
@@ -2749,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>144</v>
       </c>
@@ -2775,7 +2796,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>145</v>
       </c>
@@ -2801,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -2827,7 +2848,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
@@ -2853,7 +2874,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>177</v>
       </c>
@@ -2879,7 +2900,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>179</v>
       </c>
@@ -2905,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>181</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>183</v>
       </c>
@@ -2957,7 +2978,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>185</v>
       </c>
@@ -2983,7 +3004,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>187</v>
       </c>
@@ -3009,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>189</v>
       </c>
@@ -3035,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>146</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>192</v>
       </c>
@@ -3087,7 +3108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1">
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>133</v>
       </c>
@@ -3114,7 +3135,7 @@
       </c>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>147</v>
       </c>
@@ -3140,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>166</v>
       </c>
@@ -3166,7 +3187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="23" customFormat="1">
+    <row r="29" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>148</v>
       </c>
@@ -3193,7 +3214,7 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>202</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>198</v>
       </c>
@@ -3233,7 +3254,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>199</v>
       </c>
@@ -3249,7 +3270,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>200</v>
       </c>
@@ -3267,7 +3288,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>201</v>
       </c>
@@ -3287,12 +3308,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="43"/>
     </row>
-    <row r="37" spans="1:14" s="12" customFormat="1">
+    <row r="37" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>134</v>
       </c>
@@ -3319,7 +3340,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>62</v>
       </c>
@@ -3342,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>193</v>
       </c>
@@ -3392,7 +3413,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>149</v>
       </c>
@@ -3442,7 +3463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>150</v>
       </c>
@@ -3492,7 +3513,7 @@
         <v>0.1925</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
@@ -3542,7 +3563,7 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>152</v>
       </c>
@@ -3592,7 +3613,7 @@
         <v>0.27749999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>153</v>
       </c>
@@ -3642,7 +3663,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>154</v>
       </c>
@@ -3692,7 +3713,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>155</v>
       </c>
@@ -3742,7 +3763,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>156</v>
       </c>
@@ -3792,7 +3813,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>157</v>
       </c>
@@ -3842,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>158</v>
       </c>
@@ -3892,7 +3913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>159</v>
       </c>
@@ -3942,7 +3963,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>160</v>
       </c>
@@ -3992,7 +4013,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>167</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>162</v>
       </c>
@@ -4044,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>168</v>
       </c>
@@ -4070,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="12" customFormat="1">
+    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
         <v>135</v>
       </c>
@@ -4091,7 +4112,7 @@
       </c>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>161</v>
       </c>
@@ -4111,7 +4132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>164</v>
       </c>
@@ -4131,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C61" s="9" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +4169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>3</v>
       </c>
@@ -4169,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C63" s="9">
         <v>5</v>
       </c>
@@ -4190,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C64" s="9">
         <v>5</v>
       </c>
@@ -4211,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="9">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4229,10 +4250,10 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="7.375" customWidth="1"/>
@@ -4240,7 +4261,7 @@
     <col min="21" max="24" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="19" t="s">
         <v>6</v>
@@ -4312,7 +4333,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -4332,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -4387,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>89</v>
       </c>
@@ -4422,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -4433,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4444,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4484,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
@@ -4555,7 +4576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -4629,7 +4650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>97</v>
       </c>
@@ -4726,7 +4747,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -4752,7 +4773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>105</v>
       </c>
@@ -4781,7 +4802,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="48" customHeight="1">
+    <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>106</v>
       </c>
@@ -4826,7 +4847,7 @@
       <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="6.125" customWidth="1"/>
@@ -4843,7 +4864,7 @@
     <col min="29" max="29" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4943,7 +4964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -4967,7 +4988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -4994,7 +5015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -5021,7 +5042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -5075,7 +5096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -5102,7 +5123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -5129,7 +5150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -5156,7 +5177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -5183,7 +5204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5210,7 +5231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -5249,7 +5270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -5289,7 +5310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -5329,7 +5350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -5365,7 +5386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -5401,7 +5422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -5440,7 +5461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -5467,7 +5488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -5494,7 +5515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -5521,7 +5542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5548,7 +5569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -5575,7 +5596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -5602,7 +5623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -5629,7 +5650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -5683,7 +5704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -5711,7 +5732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -5739,7 +5760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -5767,7 +5788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -5810,7 +5831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5837,7 +5858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -5864,7 +5885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -5891,7 +5912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -5918,7 +5939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -5945,7 +5966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -5972,7 +5993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -5999,7 +6020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -6026,7 +6047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -6053,7 +6074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -6093,7 +6114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6133,7 +6154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
@@ -6176,7 +6197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -6203,7 +6224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -6230,7 +6251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -6257,7 +6278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -6284,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
@@ -6311,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -6338,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.8</v>
       </c>
@@ -6365,7 +6386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -6392,7 +6413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -6419,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5.3</v>
       </c>
@@ -6505,7 +6526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -6541,7 +6562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -6580,7 +6601,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5.6</v>
       </c>
@@ -6607,7 +6628,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -6661,7 +6682,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -6688,7 +6709,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -6715,7 +6736,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6.1</v>
       </c>
@@ -6742,7 +6763,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6.3</v>
       </c>
@@ -6796,7 +6817,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -6823,7 +6844,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -6851,7 +6872,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6.6</v>
       </c>
@@ -6879,7 +6900,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -6907,7 +6928,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.8</v>
       </c>
@@ -6935,7 +6956,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -6959,7 +6980,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7.1</v>
       </c>
@@ -7043,7 +7064,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -7079,7 +7100,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7.3</v>
       </c>
@@ -7115,7 +7136,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -7151,7 +7172,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -7187,7 +7208,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7.6</v>
       </c>
@@ -7223,7 +7244,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -7259,7 +7280,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7.8</v>
       </c>
@@ -7295,7 +7316,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -7331,7 +7352,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -7380,7 +7401,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -7429,7 +7450,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
@@ -7478,7 +7499,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -7567,7 +7588,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -7603,7 +7624,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -7639,7 +7660,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
@@ -7675,7 +7696,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -7711,7 +7732,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -7747,7 +7768,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9</v>
       </c>
@@ -7783,7 +7804,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -7819,7 +7840,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
@@ -7855,7 +7876,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -7891,7 +7912,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -7928,7 +7949,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -7965,7 +7986,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9.6</v>
       </c>
@@ -8002,7 +8023,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
@@ -8042,7 +8063,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -8069,7 +8090,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -8096,7 +8117,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -8123,7 +8144,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -8150,7 +8171,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -8177,7 +8198,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -8231,7 +8252,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -8258,7 +8279,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -8285,7 +8306,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -8313,7 +8334,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -8341,7 +8362,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -8372,7 +8393,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11</v>
       </c>
@@ -8400,7 +8421,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>11.1</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11.2</v>
       </c>
@@ -8422,7 +8443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11.3</v>
       </c>
@@ -8433,7 +8454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>11.4</v>
       </c>
@@ -8444,7 +8465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11.5</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11.6</v>
       </c>
@@ -8466,7 +8487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11.7</v>
       </c>
@@ -8477,7 +8498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11.8</v>
       </c>
@@ -8488,7 +8509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11.9</v>
       </c>
@@ -8497,7 +8518,7 @@
       </c>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
@@ -8506,17 +8527,17 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12.1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12.2</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12.3</v>
       </c>
@@ -8525,137 +8546,137 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12.4</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12.5</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12.6</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12.7</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12.8</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12.9</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13.1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13.2</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13.3</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13.4</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>13.5</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13.6</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13.7</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13.8</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13.9</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14.2</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14.3</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14.4</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14.5</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14.6</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14.7</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14.8</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14.9</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15</v>
       </c>
@@ -8675,7 +8696,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="6.375" customWidth="1"/>
@@ -8691,7 +8712,7 @@
     <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>214</v>
       </c>
@@ -8729,7 +8750,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="20.25">
+    <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>224</v>
       </c>
@@ -8749,7 +8770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>228</v>
       </c>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74906F-45B1-4937-87A7-9389B5CAB5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="1695" yWindow="1275" windowWidth="18390" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,25 @@
     <sheet name="时间" sheetId="6" r:id="rId6"/>
     <sheet name="fight" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="257">
   <si>
     <t>招式</t>
   </si>
@@ -588,10 +597,6 @@
   </si>
   <si>
     <t>yibanfanshuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -905,11 +910,47 @@
     <t>按实时hp比例，分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躯干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1535,14 +1576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1655,7 @@
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB1" s="26" t="s">
         <v>118</v>
@@ -1646,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1684,7 +1725,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -1725,10 +1766,10 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -1763,10 +1804,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1804,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -1839,10 +1880,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -1889,10 +1930,10 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1930,10 +1971,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1971,10 +2012,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -2024,7 +2065,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2065,7 +2106,7 @@
         <v>123</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2106,7 +2147,7 @@
         <v>124</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -2147,7 +2188,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -2191,7 +2232,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -2232,7 +2273,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -2285,7 +2326,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -2357,23 +2398,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,12 +2574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2602,7 +2643,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>52</v>
@@ -2775,7 +2816,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="10">
         <v>0.8</v>
@@ -2801,7 +2842,7 @@
         <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2824,10 +2865,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="10">
         <v>0.6</v>
@@ -2850,10 +2891,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="10">
         <v>0.6</v>
@@ -2876,10 +2917,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="10">
         <v>0.7</v>
@@ -2902,10 +2943,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="10">
         <v>0.4</v>
@@ -2928,10 +2969,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="10">
         <v>0.2</v>
@@ -2954,10 +2995,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="10">
         <v>0.9</v>
@@ -2980,10 +3021,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="10">
         <v>0.9</v>
@@ -3006,10 +3047,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="10">
         <v>0.4</v>
@@ -3032,10 +3073,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="10">
         <v>0.5</v>
@@ -3061,7 +3102,7 @@
         <v>146</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="10">
         <v>0.4</v>
@@ -3084,10 +3125,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="10">
         <v>0.8</v>
@@ -3163,7 +3204,7 @@
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>63</v>
@@ -3216,36 +3257,36 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="H30" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
@@ -3256,10 +3297,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -3272,10 +3313,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
@@ -3290,10 +3331,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
@@ -3365,7 +3406,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>72</v>
@@ -4015,7 +4056,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>70</v>
@@ -4067,7 +4108,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>85</v>
@@ -4096,7 +4137,7 @@
         <v>135</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="E56" s="41">
         <v>3</v>
@@ -4117,7 +4158,7 @@
         <v>161</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="E57" s="40">
         <v>150</v>
@@ -4134,7 +4175,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>51</v>
@@ -4246,11 +4287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4831,6 +4872,49 @@
         <v>0.33</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>800</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
+        <v>1300</v>
+      </c>
+      <c r="G24">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4839,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8689,7 +8773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8714,86 +8798,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" t="s">
-        <v>219</v>
-      </c>
       <c r="H2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" t="s">
         <v>221</v>
-      </c>
-      <c r="I2" t="s">
-        <v>222</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" t="s">
         <v>219</v>
-      </c>
-      <c r="L2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" t="s">
         <v>224</v>
-      </c>
-      <c r="L3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" t="s">
-        <v>225</v>
       </c>
       <c r="N3" t="s">
         <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R4" t="s">
         <v>229</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>219</v>
-      </c>
-      <c r="R4" t="s">
-        <v>230</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74906F-45B1-4937-87A7-9389B5CAB5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A82AB-41D2-41E7-9B85-B5A7497F1B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1275" windowWidth="18390" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="223">
   <si>
     <t>招式</t>
   </si>
@@ -220,9 +220,6 @@
     <t>暴击伤害</t>
   </si>
   <si>
-    <t>闪避</t>
-  </si>
-  <si>
     <t>速度</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>暴击几率</t>
-  </si>
-  <si>
     <t>情报</t>
   </si>
   <si>
@@ -281,45 +275,6 @@
     <t>一般反伤</t>
   </si>
   <si>
-    <t>【防御率】头</t>
-  </si>
-  <si>
-    <t>【防御率】胸部</t>
-  </si>
-  <si>
-    <t>【防御率】腹部</t>
-  </si>
-  <si>
-    <t>【防御率】肩关节</t>
-  </si>
-  <si>
-    <t>【防御率】上臂</t>
-  </si>
-  <si>
-    <t>【防御率】前臂</t>
-  </si>
-  <si>
-    <t>【防御率】手肘</t>
-  </si>
-  <si>
-    <t>【防御率】手腕</t>
-  </si>
-  <si>
-    <t>【防御率】大腿</t>
-  </si>
-  <si>
-    <t>【防御率】小腿</t>
-  </si>
-  <si>
-    <t>【防御率】膝关节</t>
-  </si>
-  <si>
-    <t>【防御率】踝关节</t>
-  </si>
-  <si>
-    <t>【防御率】两腰</t>
-  </si>
-  <si>
     <t>防御稳定反弹</t>
   </si>
   <si>
@@ -392,22 +347,13 @@
     <t>命中率修正</t>
   </si>
   <si>
-    <t xml:space="preserve"> +  5%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +  10%</t>
   </si>
   <si>
     <t xml:space="preserve"> +  0%</t>
   </si>
   <si>
-    <t xml:space="preserve"> -  5%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -  10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  2%</t>
   </si>
   <si>
     <t>-10%</t>
@@ -533,9 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SB_xi</t>
-  </si>
-  <si>
     <t>baojijilv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,42 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FY_jian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_shangbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_qianbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_zhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_shouwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_datui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_xiaotui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_xi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_kuai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wendinzhi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,73 +535,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【闪避】胸部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【闪避】腹部</t>
-  </si>
-  <si>
     <t>SB_fu</t>
   </si>
   <si>
-    <t>【闪避】腰部</t>
-  </si>
-  <si>
     <t>SB_yao</t>
   </si>
   <si>
-    <t>【闪避】肩关节</t>
-  </si>
-  <si>
-    <t>SB_jian</t>
-  </si>
-  <si>
-    <t>【闪避】上臂</t>
-  </si>
-  <si>
-    <t>SB_shangbi</t>
-  </si>
-  <si>
-    <t>【闪避】前臂</t>
-  </si>
-  <si>
-    <t>SB_qianbi</t>
-  </si>
-  <si>
-    <t>【闪避】手肘</t>
-  </si>
-  <si>
-    <t>SB_zhou</t>
-  </si>
-  <si>
-    <t>【闪避】手腕</t>
-  </si>
-  <si>
-    <t>SB_shouwan</t>
-  </si>
-  <si>
-    <t>【闪避】大腿</t>
-  </si>
-  <si>
-    <t>SB_datui</t>
-  </si>
-  <si>
-    <t>【闪避】小腿</t>
-  </si>
-  <si>
-    <t>SB_xiaotui</t>
-  </si>
-  <si>
-    <t>【闪避】膝关节</t>
-  </si>
-  <si>
-    <t>【闪避】踝关节</t>
-  </si>
-  <si>
-    <t>SB_kuai</t>
-  </si>
-  <si>
     <t>FY_tou</t>
   </si>
   <si>
@@ -702,9 +548,6 @@
   </si>
   <si>
     <t>对方属性数值</t>
-  </si>
-  <si>
-    <t>对方损伤数值</t>
   </si>
   <si>
     <t>对方损伤图例</t>
@@ -944,6 +787,66 @@
   </si>
   <si>
     <t>右脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽发现加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】躯干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【闪避】脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【格挡率】脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【格挡率】手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【格挡率】头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【格挡率】躯干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不被击中概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方破绽率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方破绽率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方损伤数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,22 +1546,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1669,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>13</v>
@@ -1687,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1725,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -1761,15 +1664,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -1804,10 +1707,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1845,7 +1748,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -1860,7 +1763,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1880,10 +1783,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -1907,7 +1810,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1925,15 +1828,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1971,10 +1874,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -2007,15 +1910,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -2036,7 +1939,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -2054,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2065,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2103,10 +2006,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2144,10 +2047,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -2185,10 +2088,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -2209,7 +2112,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -2229,10 +2132,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -2250,7 +2153,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2270,10 +2173,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -2303,7 +2206,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2323,10 +2226,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -2368,7 +2271,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2409,12 +2312,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2575,11 +2478,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2519,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2643,7 +2546,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>52</v>
@@ -2669,7 +2572,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>53</v>
@@ -2695,12 +2598,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2727,31 +2630,31 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="43" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>57</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2762,10 +2665,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2776,10 +2679,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2789,1493 +2692,808 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>54</v>
+      <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11" s="10">
         <v>0.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="E11" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="10">
         <v>0.35</v>
       </c>
-      <c r="E11" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.1</v>
-      </c>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
       </c>
       <c r="C12" s="10">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="D12" s="10">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="42">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="37">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="10">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="H12" s="10">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
       </c>
       <c r="D13" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="37">
         <v>0.35</v>
       </c>
-      <c r="E13" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="G13" s="10">
         <v>0.2</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.1</v>
-      </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C14" s="10">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="D14" s="10">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="42">
         <v>0.35</v>
       </c>
       <c r="F14" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="10">
         <v>0.25</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.15</v>
-      </c>
       <c r="H14" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="F15" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="41">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.25</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.4</v>
-      </c>
       <c r="D17" s="10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="42">
         <v>0.15</v>
       </c>
       <c r="F17" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="10">
         <v>0.05</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
       </c>
       <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="10">
+        <v>137</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="41">
+        <v>3</v>
+      </c>
+      <c r="F29" s="36">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="16">
+        <f>1-(1-C11)*(1-C31)</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J31" s="17">
+        <f>1-(1-D11)*(1-D31)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="17">
+        <f>1-(1-E11)*(1-E31)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L31" s="17">
+        <f>1-(1-F11)*(1-F31)</f>
+        <v>0.64</v>
+      </c>
+      <c r="M31" s="17">
+        <f>1-(1-G11)*(1-G31)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="N31" s="17">
+        <f>1-(1-H11)*(1-H31)</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="37">
         <v>0.2</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="42">
+      <c r="G32" s="10">
         <v>0.15</v>
       </c>
-      <c r="F21" s="37">
+      <c r="H32" s="10">
         <v>0.05</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0.15</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E24" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="12">
-        <v>5</v>
-      </c>
-      <c r="D26" s="12">
-        <v>4</v>
-      </c>
-      <c r="E26" s="41">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36">
-        <v>2</v>
-      </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="42">
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="I32" s="16">
+        <f>1-(1-C12)*(1-C32)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="J32" s="17">
+        <f>1-(1-D12)*(1-D32)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K32" s="17">
+        <f>1-(1-E12)*(1-E32)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="L32" s="17">
+        <f>1-(1-F12)*(1-F32)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="M32" s="17">
+        <f>1-(1-G12)*(1-G32)</f>
+        <v>0.27750000000000008</v>
+      </c>
+      <c r="N32" s="17">
+        <f>1-(1-H12)*(1-H32)</f>
+        <v>9.7500000000000031E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I33" s="16">
+        <f>1-(1-C13)*(1-C33)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="17">
+        <f>1-(1-D13)*(1-D33)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K33" s="17">
+        <f>1-(1-E13)*(1-E33)</f>
+        <v>0.64</v>
+      </c>
+      <c r="L33" s="17">
+        <f>1-(1-F13)*(1-F33)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="M33" s="17">
+        <f>1-(1-G13)*(1-G33)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="N33" s="17">
+        <f>1-(1-H13)*(1-H33)</f>
+        <v>0.27750000000000008</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="16">
+        <f>1-(1-C14)*(1-C34)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J34" s="17">
+        <f>1-(1-D14)*(1-D34)</f>
+        <v>0.64</v>
+      </c>
+      <c r="K34" s="17">
+        <f>1-(1-E14)*(1-E34)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L34" s="17">
+        <f>1-(1-F14)*(1-F34)</f>
+        <v>0.51</v>
+      </c>
+      <c r="M34" s="17">
+        <f>1-(1-G14)*(1-G34)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N34" s="17">
+        <f>1-(1-H14)*(1-H34)</f>
+        <v>0.18999999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="43"/>
-    </row>
-    <row r="37" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="12">
-        <v>5</v>
-      </c>
-      <c r="D37" s="12">
-        <v>4</v>
-      </c>
-      <c r="E37" s="41">
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E36" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="41">
         <v>3</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F39" s="36">
         <v>2</v>
       </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12">
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12">
         <v>0</v>
       </c>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E39" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F39" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" ref="I39:I51" si="0">C12+(1-C12)*C39</f>
-        <v>0.96</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" ref="J39:J51" si="1">D12+(1-D12)*D39</f>
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" ref="K39:K51" si="2">E12+(1-E12)*E39</f>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="L39" s="17">
-        <f t="shared" ref="L39:L51" si="3">F12+(1-F12)*F39</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="M39" s="17">
-        <f t="shared" ref="M39:M51" si="4">G12+(1-G12)*G39</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="N39" s="17">
-        <f t="shared" ref="N39:N51" si="5">H12+(1-H12)*H39</f>
-        <v>0.4375</v>
-      </c>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E40" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F40" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I40" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="1"/>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="K40" s="17">
-        <f t="shared" si="2"/>
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="L40" s="17">
-        <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M40" s="17">
-        <f t="shared" si="4"/>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="N40" s="17">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>133</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="40">
+        <v>150</v>
+      </c>
+      <c r="F40" s="35">
+        <v>120</v>
+      </c>
+      <c r="G40" s="9">
+        <v>100</v>
+      </c>
+      <c r="H40" s="9">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E41" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F41" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I41" s="16">
-        <f t="shared" si="0"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="1"/>
-        <v>0.75250000000000006</v>
-      </c>
-      <c r="K41" s="17">
-        <f t="shared" si="2"/>
-        <v>0.64250000000000007</v>
-      </c>
-      <c r="L41" s="17">
-        <f t="shared" si="3"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="M41" s="17">
-        <f t="shared" si="4"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="N41" s="17">
-        <f t="shared" si="5"/>
-        <v>0.1925</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="F42" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I42" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="1"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K42" s="17">
-        <f t="shared" si="2"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L42" s="17">
-        <f t="shared" si="3"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M42" s="17">
-        <f t="shared" si="4"/>
-        <v>0.27749999999999997</v>
-      </c>
-      <c r="N42" s="17">
-        <f t="shared" si="5"/>
-        <v>9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E43" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I43" s="16">
-        <f t="shared" si="0"/>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="1"/>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="K43" s="17">
-        <f t="shared" si="2"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="L43" s="17">
-        <f t="shared" si="3"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="M43" s="17">
-        <f t="shared" si="4"/>
-        <v>0.4375</v>
-      </c>
-      <c r="N43" s="17">
-        <f t="shared" si="5"/>
-        <v>0.27749999999999997</v>
+        <v>135</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="40">
+        <v>3</v>
+      </c>
+      <c r="F41" s="35">
+        <v>2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E44" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F44" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="0"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="K44" s="17">
-        <f t="shared" si="2"/>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="L44" s="17">
-        <f t="shared" si="3"/>
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="M44" s="17">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="N44" s="17">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+      <c r="C44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="F45" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92000000000000015</v>
-      </c>
-      <c r="J45" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="K45" s="17">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="L45" s="17">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="M45" s="17">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="N45" s="17">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="40">
+        <v>3</v>
+      </c>
+      <c r="F45" s="35">
+        <v>3</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9">
+        <f>13-SUM(C45:G45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E46" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F46" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I46" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.91</v>
-      </c>
-      <c r="K46" s="17">
-        <f t="shared" si="2"/>
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="L46" s="17">
-        <f t="shared" si="3"/>
-        <v>0.80499999999999994</v>
-      </c>
-      <c r="M46" s="17">
-        <f t="shared" si="4"/>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="N46" s="17">
-        <f t="shared" si="5"/>
-        <v>0.65999999999999992</v>
+      <c r="C46" s="9">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="40">
+        <v>2</v>
+      </c>
+      <c r="F46" s="35">
+        <v>3</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" ref="J46:J48" si="0">13-SUM(C46:G46)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="42">
+      <c r="C47" s="9">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>5</v>
+      </c>
+      <c r="E47" s="40">
+        <v>1</v>
+      </c>
+      <c r="F47" s="35">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="37">
-        <v>0</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-      <c r="I47" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="K47" s="17">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="L47" s="17">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="M47" s="17">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="N47" s="17">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="E48" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F48" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="K48" s="17">
-        <f t="shared" si="2"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="L48" s="17">
-        <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="M48" s="17">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="N48" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E49" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F49" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I49" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="J49" s="17">
-        <f t="shared" si="1"/>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="K49" s="17">
-        <f t="shared" si="2"/>
-        <v>0.66250000000000009</v>
-      </c>
-      <c r="L49" s="17">
-        <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M49" s="17">
-        <f t="shared" si="4"/>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="N49" s="17">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E50" s="42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F50" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I50" s="16">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="J50" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="K50" s="17">
-        <f t="shared" si="2"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="L50" s="17">
-        <f t="shared" si="3"/>
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="M50" s="17">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
-      </c>
-      <c r="N50" s="17">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="42">
-        <v>0</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-      <c r="I51" s="16">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="J51" s="17">
-        <f t="shared" si="1"/>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K51" s="17">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L51" s="17">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="M51" s="17">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
-      </c>
-      <c r="N51" s="17">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E52" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="F52" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E53" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F53" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="F54" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="41">
-        <v>3</v>
-      </c>
-      <c r="F56" s="36">
-        <v>2</v>
-      </c>
-      <c r="G56" s="12">
-        <v>1</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="40">
-        <v>150</v>
-      </c>
-      <c r="F57" s="35">
-        <v>120</v>
-      </c>
-      <c r="G57" s="9">
-        <v>100</v>
-      </c>
-      <c r="H57" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="40">
-        <v>3</v>
-      </c>
-      <c r="F58" s="35">
-        <v>2</v>
-      </c>
-      <c r="G58" s="9">
-        <v>1</v>
-      </c>
-      <c r="H58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C62" s="9">
-        <v>3</v>
-      </c>
-      <c r="D62" s="9">
-        <v>3</v>
-      </c>
-      <c r="E62" s="40">
-        <v>3</v>
-      </c>
-      <c r="F62" s="35">
-        <v>3</v>
-      </c>
-      <c r="G62" s="9">
-        <v>1</v>
-      </c>
-      <c r="J62" s="9">
-        <f>13-SUM(C62:G62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C63" s="9">
-        <v>5</v>
-      </c>
-      <c r="D63" s="9">
-        <v>2</v>
-      </c>
-      <c r="E63" s="40">
-        <v>2</v>
-      </c>
-      <c r="F63" s="35">
-        <v>3</v>
-      </c>
-      <c r="G63" s="9">
-        <v>1</v>
-      </c>
-      <c r="J63" s="9">
-        <f t="shared" ref="J63:J65" si="6">13-SUM(C63:G63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C64" s="9">
-        <v>5</v>
-      </c>
-      <c r="D64" s="9">
-        <v>5</v>
-      </c>
-      <c r="E64" s="40">
-        <v>1</v>
-      </c>
-      <c r="F64" s="35">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9">
-        <v>1</v>
-      </c>
-      <c r="J64" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="9">
-        <f t="shared" si="6"/>
+      <c r="J48" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -4320,63 +3538,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4396,7 +3614,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4416,7 +3634,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4451,7 +3669,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4486,7 +3704,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4497,7 +3715,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4508,7 +3726,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4528,7 +3746,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4563,63 +3781,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4790,33 +4008,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B19" s="22">
         <v>0.25</v>
@@ -4845,7 +4063,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B20" s="22">
         <v>0.25</v>
@@ -4874,27 +4092,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8798,86 +8016,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="Q4" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="R4" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A82AB-41D2-41E7-9B85-B5A7497F1B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225767E-5F97-4754-BCF5-5ADFF53A9C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2482,7 +2482,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42:G42"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3098,27 +3098,27 @@
         <v>0.3</v>
       </c>
       <c r="I31" s="16">
-        <f>1-(1-C11)*(1-C31)</f>
+        <f t="shared" ref="I31:N34" si="0">1-(1-C11)*(1-C31)</f>
         <v>0.7975000000000001</v>
       </c>
       <c r="J31" s="17">
-        <f>1-(1-D11)*(1-D31)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K31" s="17">
-        <f>1-(1-E11)*(1-E31)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="L31" s="17">
-        <f>1-(1-F11)*(1-F31)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="M31" s="17">
-        <f>1-(1-G11)*(1-G31)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="N31" s="17">
-        <f>1-(1-H11)*(1-H31)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
     </row>
@@ -3148,27 +3148,27 @@
         <v>0.05</v>
       </c>
       <c r="I32" s="16">
-        <f>1-(1-C12)*(1-C32)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="J32" s="17">
-        <f>1-(1-D12)*(1-D32)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="K32" s="17">
-        <f>1-(1-E12)*(1-E32)</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="L32" s="17">
-        <f>1-(1-F12)*(1-F32)</f>
+        <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="M32" s="17">
-        <f>1-(1-G12)*(1-G32)</f>
+        <f t="shared" si="0"/>
         <v>0.27750000000000008</v>
       </c>
       <c r="N32" s="17">
-        <f>1-(1-H12)*(1-H32)</f>
+        <f t="shared" si="0"/>
         <v>9.7500000000000031E-2</v>
       </c>
     </row>
@@ -3198,27 +3198,27 @@
         <v>0.15</v>
       </c>
       <c r="I33" s="16">
-        <f>1-(1-C13)*(1-C33)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J33" s="17">
-        <f>1-(1-D13)*(1-D33)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="K33" s="17">
-        <f>1-(1-E13)*(1-E33)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="L33" s="17">
-        <f>1-(1-F13)*(1-F33)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="M33" s="17">
-        <f>1-(1-G13)*(1-G33)</f>
+        <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="N33" s="17">
-        <f>1-(1-H13)*(1-H33)</f>
+        <f t="shared" si="0"/>
         <v>0.27750000000000008</v>
       </c>
     </row>
@@ -3248,27 +3248,27 @@
         <v>0.1</v>
       </c>
       <c r="I34" s="16">
-        <f>1-(1-C14)*(1-C34)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="J34" s="17">
-        <f>1-(1-D14)*(1-D34)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="K34" s="17">
-        <f>1-(1-E14)*(1-E34)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="L34" s="17">
-        <f>1-(1-F14)*(1-F34)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="M34" s="17">
-        <f>1-(1-G14)*(1-G34)</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="N34" s="17">
-        <f>1-(1-H14)*(1-H34)</f>
+        <f t="shared" si="0"/>
         <v>0.18999999999999995</v>
       </c>
     </row>
@@ -3379,16 +3379,16 @@
         <v>200</v>
       </c>
       <c r="E40" s="40">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F40" s="35">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G40" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H40" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" ref="J46:J48" si="0">13-SUM(C46:G46)</f>
+        <f t="shared" ref="J46:J48" si="1">13-SUM(C46:G46)</f>
         <v>0</v>
       </c>
     </row>
@@ -3487,13 +3487,13 @@
         <v>1</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225767E-5F97-4754-BCF5-5ADFF53A9C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A75B49-01F5-4A99-9CE2-13F6BD753B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2482,7 +2482,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3379,16 +3379,16 @@
         <v>200</v>
       </c>
       <c r="E40" s="40">
+        <v>180</v>
+      </c>
+      <c r="F40" s="35">
+        <v>140</v>
+      </c>
+      <c r="G40" s="9">
+        <v>110</v>
+      </c>
+      <c r="H40" s="9">
         <v>80</v>
-      </c>
-      <c r="F40" s="35">
-        <v>70</v>
-      </c>
-      <c r="G40" s="9">
-        <v>60</v>
-      </c>
-      <c r="H40" s="9">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3399,16 +3399,16 @@
         <v>51</v>
       </c>
       <c r="E41" s="40">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F41" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H41" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A75B49-01F5-4A99-9CE2-13F6BD753B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA4776-7340-44AC-B3AC-D65739151AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2481,8 +2481,8 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA4776-7340-44AC-B3AC-D65739151AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F7A7F-1FD0-4E9B-A3F0-95478BBF6A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="222">
   <si>
     <t>招式</t>
   </si>
@@ -182,9 +180,6 @@
   </si>
   <si>
     <t>体质</t>
-  </si>
-  <si>
-    <t>平衡</t>
   </si>
   <si>
     <t>s</t>
@@ -1546,22 +1541,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1572,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>13</v>
@@ -1590,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1628,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -1664,15 +1659,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -1707,10 +1702,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1748,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -1763,7 +1758,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1783,10 +1778,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -1810,7 +1805,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1828,15 +1823,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1874,10 +1869,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1910,15 +1905,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -1939,7 +1934,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1957,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1968,7 +1963,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2006,10 +2001,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2047,10 +2042,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -2088,10 +2083,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -2112,7 +2107,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -2132,10 +2127,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -2153,7 +2148,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2173,10 +2168,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -2206,7 +2201,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2226,10 +2221,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -2271,7 +2266,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2312,12 +2307,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2519,7 +2514,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2546,10 +2541,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10">
         <v>1.75</v>
@@ -2572,10 +2567,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2598,12 +2593,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2630,31 +2625,31 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="43" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2665,10 +2660,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2679,10 +2674,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2693,10 +2688,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10">
         <v>0.55000000000000004</v>
@@ -2719,10 +2714,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="10">
         <v>0.35</v>
@@ -2745,10 +2740,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2771,10 +2766,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="10">
         <v>0.45</v>
@@ -2797,7 +2792,7 @@
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>40</v>
@@ -2824,10 +2819,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="10">
         <v>0.25</v>
@@ -2850,89 +2845,89 @@
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="G18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="G19" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -2943,10 +2938,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -2959,7 +2954,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2972,7 +2967,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -2987,10 +2982,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3005,10 +3000,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -3033,7 +3028,7 @@
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3060,7 +3055,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3069,15 +3064,15 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="10">
         <v>0.55000000000000004</v>
@@ -3124,10 +3119,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="10">
         <v>0.35</v>
@@ -3174,10 +3169,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="10">
         <v>0.5</v>
@@ -3224,10 +3219,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="10">
         <v>0.45</v>
@@ -3274,10 +3269,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="10">
         <v>0.5</v>
@@ -3300,10 +3295,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="10">
         <v>0.2</v>
@@ -3326,10 +3321,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="10">
         <v>0.8</v>
@@ -3352,10 +3347,10 @@
     </row>
     <row r="39" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" s="41">
         <v>3</v>
@@ -3373,10 +3368,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="40">
         <v>180</v>
@@ -3393,10 +3388,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="40">
         <v>1.1000000000000001</v>
@@ -3425,7 +3420,7 @@
         <v>41</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -3538,63 +3533,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3614,7 +3609,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3634,7 +3629,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3669,7 +3664,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3704,7 +3699,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3715,7 +3710,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3726,7 +3721,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3746,7 +3741,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3781,63 +3776,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4008,33 +4003,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="22">
         <v>0.25</v>
@@ -4063,7 +4058,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="22">
         <v>0.25</v>
@@ -4092,27 +4087,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
         <v>202</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>203</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>204</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>205</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>206</v>
-      </c>
-      <c r="G23" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -4168,82 +4163,82 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
       </c>
       <c r="N1">
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
       </c>
       <c r="T1">
         <v>3</v>
       </c>
       <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
       </c>
       <c r="Z1">
         <v>0</v>
       </c>
       <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>49</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -8016,86 +8011,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
         <v>168</v>
       </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
       <c r="H2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" t="s">
         <v>171</v>
-      </c>
-      <c r="I2" t="s">
-        <v>172</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
         <v>169</v>
-      </c>
-      <c r="L2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" t="s">
         <v>174</v>
       </c>
-      <c r="L3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
         <v>175</v>
       </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>176</v>
-      </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R4" t="s">
         <v>179</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>169</v>
-      </c>
-      <c r="R4" t="s">
-        <v>180</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F7A7F-1FD0-4E9B-A3F0-95478BBF6A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63962599-6CC4-467F-BF91-2048E506273E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -212,9 +214,6 @@
     <t>攻击力加成</t>
   </si>
   <si>
-    <t>暴击伤害</t>
-  </si>
-  <si>
     <t>速度</t>
   </si>
   <si>
@@ -268,9 +267,6 @@
   </si>
   <si>
     <t>一般反伤</t>
-  </si>
-  <si>
-    <t>防御稳定反弹</t>
   </si>
   <si>
     <t>左上臂</t>
@@ -515,10 +511,6 @@
   </si>
   <si>
     <t>fangyufanshuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wendinfantan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -842,6 +834,18 @@
   </si>
   <si>
     <t>对方损伤数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤防御力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1541,22 +1545,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1567,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>13</v>
@@ -1585,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1623,7 +1627,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -1659,15 +1663,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -1702,10 +1706,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1743,7 +1747,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -1758,7 +1762,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1778,10 +1782,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -1805,7 +1809,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1823,15 +1827,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1869,10 +1873,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1905,15 +1909,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -1934,7 +1938,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1952,7 +1956,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1963,7 +1967,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2001,10 +2005,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2042,10 +2046,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -2083,10 +2087,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -2107,7 +2111,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -2127,10 +2131,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -2148,7 +2152,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2168,10 +2172,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -2201,7 +2205,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2221,10 +2225,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -2266,7 +2270,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2307,12 +2311,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2473,11 +2477,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2541,7 +2545,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>51</v>
@@ -2567,10 +2571,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2593,12 +2597,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2625,31 +2629,31 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="43" t="s">
         <v>54</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2660,10 +2664,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2674,10 +2678,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2688,10 +2692,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="10">
         <v>0.55000000000000004</v>
@@ -2714,10 +2718,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="10">
         <v>0.35</v>
@@ -2740,10 +2744,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2766,10 +2770,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="10">
         <v>0.45</v>
@@ -2792,7 +2796,7 @@
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>40</v>
@@ -2819,10 +2823,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" s="10">
         <v>0.25</v>
@@ -2845,89 +2849,89 @@
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="G18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="G19" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -2938,10 +2942,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -2954,7 +2958,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2967,7 +2971,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -2982,10 +2986,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3000,10 +3004,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -3028,7 +3032,7 @@
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3055,7 +3059,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3064,15 +3068,15 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C31" s="10">
         <v>0.55000000000000004</v>
@@ -3119,10 +3123,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C32" s="10">
         <v>0.35</v>
@@ -3169,10 +3173,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C33" s="10">
         <v>0.5</v>
@@ -3219,10 +3223,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C34" s="10">
         <v>0.45</v>
@@ -3268,191 +3272,202 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="B35" s="9" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="C35" s="10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D35" s="10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E35" s="42">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F35" s="37">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H35" s="10">
         <v>0</v>
       </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="B36" s="9" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="C36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="10">
         <v>0.2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="E36" s="42">
         <v>0.15</v>
       </c>
-      <c r="E36" s="42">
+      <c r="F36" s="37">
         <v>0.1</v>
       </c>
-      <c r="F36" s="37">
+      <c r="G36" s="10">
         <v>0.05</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
       </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E37" s="42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F37" s="37">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="41">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E38" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="41">
         <v>3</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F40" s="36">
         <v>2</v>
       </c>
-      <c r="G39" s="12">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12">
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
         <v>0</v>
       </c>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="40">
-        <v>180</v>
-      </c>
-      <c r="F40" s="35">
-        <v>140</v>
-      </c>
-      <c r="G40" s="9">
-        <v>110</v>
-      </c>
-      <c r="H40" s="9">
-        <v>80</v>
-      </c>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="40">
+        <v>180</v>
+      </c>
+      <c r="F41" s="35">
+        <v>140</v>
+      </c>
+      <c r="G41" s="9">
+        <v>110</v>
+      </c>
+      <c r="H41" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E42" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F41" s="35">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="F42" s="35">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
         <v>0.9</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="9" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E45" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F45" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="9">
-        <v>3</v>
-      </c>
-      <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="40">
-        <v>3</v>
-      </c>
-      <c r="F45" s="35">
-        <v>3</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="J45" s="9">
-        <f>13-SUM(C45:G45)</f>
-        <v>0</v>
+      <c r="G45" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="35">
         <v>3</v>
@@ -3461,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" ref="J46:J48" si="1">13-SUM(C46:G46)</f>
+        <f>13-SUM(C46:G46)</f>
         <v>0</v>
       </c>
     </row>
@@ -3470,24 +3485,45 @@
         <v>5</v>
       </c>
       <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="40">
+        <v>2</v>
+      </c>
+      <c r="F47" s="35">
+        <v>3</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47:J49" si="1">13-SUM(C47:G47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C48" s="9">
         <v>5</v>
       </c>
-      <c r="E47" s="40">
-        <v>1</v>
-      </c>
-      <c r="F47" s="35">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="D48" s="9">
+        <v>5</v>
+      </c>
+      <c r="E48" s="40">
+        <v>1</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J48" s="9">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -3533,63 +3569,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3609,7 +3645,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3629,7 +3665,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3664,7 +3700,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3699,7 +3735,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3710,7 +3746,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3721,7 +3757,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3741,7 +3777,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3776,63 +3812,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4003,33 +4039,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>74</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="22">
         <v>0.25</v>
@@ -4058,7 +4094,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="22">
         <v>0.25</v>
@@ -4087,27 +4123,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
         <v>201</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>202</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>203</v>
-      </c>
-      <c r="E23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8011,86 +8047,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>168</v>
-      </c>
-      <c r="H2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" t="s">
-        <v>171</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" t="s">
         <v>168</v>
       </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" t="s">
         <v>171</v>
       </c>
-      <c r="M3" t="s">
-        <v>174</v>
-      </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63962599-6CC4-467F-BF91-2048E506273E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4EE26E-0065-47D8-928E-E293C1CE42EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="218">
   <si>
     <t>招式</t>
   </si>
@@ -263,12 +263,6 @@
 +10%~-10%</t>
   </si>
   <si>
-    <t>防御后反伤</t>
-  </si>
-  <si>
-    <t>一般反伤</t>
-  </si>
-  <si>
     <t>左上臂</t>
   </si>
   <si>
@@ -494,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yibanfanshuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wendinhuifu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +497,6 @@
   </si>
   <si>
     <t>gongjifudongjilv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyufanshuang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1545,22 +1531,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="26" t="s">
         <v>34</v>
@@ -1571,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>13</v>
@@ -1589,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>20</v>
@@ -1627,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -1663,15 +1649,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -1706,10 +1692,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1747,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -1762,7 +1748,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X6" s="26">
         <v>0.5</v>
@@ -1782,10 +1768,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -1809,7 +1795,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X7" s="26">
         <v>0.4</v>
@@ -1827,15 +1813,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1873,10 +1859,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1909,15 +1895,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -1938,7 +1924,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X10" s="26">
         <v>0.4</v>
@@ -1956,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1967,7 +1953,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2005,10 +1991,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2046,10 +2032,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -2087,10 +2073,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
@@ -2111,7 +2097,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X15" s="26">
         <v>0.3</v>
@@ -2131,10 +2117,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -2152,7 +2138,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X16" s="26">
         <v>0.4</v>
@@ -2172,10 +2158,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -2205,7 +2191,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X17" s="26">
         <v>0.5</v>
@@ -2225,10 +2211,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -2270,7 +2256,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X18" s="26">
         <v>0.5</v>
@@ -2311,12 +2297,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2480,8 +2466,8 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2518,7 +2504,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2545,7 +2531,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>51</v>
@@ -2571,10 +2557,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2602,7 +2588,7 @@
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -2632,7 +2618,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>53</v>
@@ -2645,15 +2631,15 @@
         <v>55</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2664,10 +2650,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2678,10 +2664,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2692,10 +2678,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C11" s="10">
         <v>0.55000000000000004</v>
@@ -2718,10 +2704,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C12" s="10">
         <v>0.35</v>
@@ -2744,10 +2730,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2770,10 +2756,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C14" s="10">
         <v>0.45</v>
@@ -2796,7 +2782,7 @@
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>40</v>
@@ -2823,10 +2809,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C17" s="10">
         <v>0.25</v>
@@ -2849,7 +2835,7 @@
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>59</v>
@@ -2875,63 +2861,63 @@
     </row>
     <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="G19" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -2942,10 +2928,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -2958,7 +2944,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2971,7 +2957,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -2986,10 +2972,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3004,10 +2990,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -3032,7 +3018,7 @@
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3068,15 +3054,15 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C31" s="10">
         <v>0.55000000000000004</v>
@@ -3123,10 +3109,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C32" s="10">
         <v>0.35</v>
@@ -3173,10 +3159,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C33" s="10">
         <v>0.5</v>
@@ -3223,10 +3209,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C34" s="10">
         <v>0.45</v>
@@ -3273,7 +3259,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C35" s="10">
         <v>0.25</v>
@@ -3302,7 +3288,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C36" s="10">
         <v>0.25</v>
@@ -3330,63 +3316,27 @@
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E37" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E40" s="41">
         <v>3</v>
@@ -3404,10 +3354,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E41" s="40">
         <v>180</v>
@@ -3424,7 +3374,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>50</v>
@@ -3456,7 +3406,7 @@
         <v>41</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3569,63 +3519,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3645,7 +3595,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3665,7 +3615,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3700,7 +3650,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3735,7 +3685,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3746,7 +3696,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3757,7 +3707,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3777,7 +3727,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3812,63 +3762,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4039,33 +3989,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="22">
         <v>0.25</v>
@@ -4094,7 +4044,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="22">
         <v>0.25</v>
@@ -4123,27 +4073,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
         <v>198</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>199</v>
-      </c>
-      <c r="D23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8047,86 +7997,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>164</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" t="s">
-        <v>168</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
         <v>168</v>
       </c>
-      <c r="M3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>172</v>
-      </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4EE26E-0065-47D8-928E-E293C1CE42EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C2859-729B-4CAF-9E5E-70A555950E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2865" windowWidth="18390" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="219">
   <si>
     <t>招式</t>
   </si>
@@ -731,10 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,6 +828,14 @@
   </si>
   <si>
     <t>内伤防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2289,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2465,9 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2564,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2707,7 +2711,7 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="10">
         <v>0.35</v>
@@ -2733,7 +2737,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="10">
         <v>0.5</v>
@@ -2759,7 +2763,7 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="10">
         <v>0.45</v>
@@ -2812,7 +2816,7 @@
         <v>123</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="10">
         <v>0.25</v>
@@ -2870,16 +2874,16 @@
         <v>89</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>91</v>
@@ -2917,7 +2921,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -2944,7 +2948,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2957,7 +2961,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -3054,7 +3058,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3062,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="10">
         <v>0.55000000000000004</v>
@@ -3112,7 +3116,7 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="10">
         <v>0.35</v>
@@ -3162,7 +3166,7 @@
         <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="10">
         <v>0.5</v>
@@ -3212,7 +3216,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="10">
         <v>0.45</v>
@@ -3259,7 +3263,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="10">
         <v>0.25</v>
@@ -3288,7 +3292,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" s="10">
         <v>0.25</v>
@@ -3336,7 +3340,7 @@
         <v>112</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E40" s="41">
         <v>3</v>
@@ -3357,7 +3361,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E41" s="40">
         <v>180</v>
@@ -4073,27 +4077,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
         <v>194</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>195</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>196</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>197</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>198</v>
-      </c>
-      <c r="G23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24">
         <v>800</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C2859-729B-4CAF-9E5E-70A555950E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13110C-08F5-44FA-BC8C-2858DBEA2900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2865" windowWidth="18390" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="222">
   <si>
     <t>招式</t>
   </si>
@@ -209,9 +207,6 @@
   </si>
   <si>
     <t>每0.1秒恢复稳定</t>
-  </si>
-  <si>
-    <t>攻击力加成</t>
   </si>
   <si>
     <t>速度</t>
@@ -838,12 +833,28 @@
     <t>内力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>体魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力加成、流血加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤积累加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削内加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,6 +963,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1016,7 +1053,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1037,9 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,13 +1157,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1150,6 +1178,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1480,801 +1523,801 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="47" customWidth="1"/>
-    <col min="4" max="7" width="3.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.375" style="32" customWidth="1"/>
-    <col min="30" max="16384" width="9.125" style="26"/>
+    <col min="1" max="1" width="5.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="44" customWidth="1"/>
+    <col min="4" max="7" width="3.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="31" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="27" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="26" t="s">
+      <c r="W1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1</v>
+      </c>
+      <c r="L3" s="25">
+        <v>1</v>
+      </c>
+      <c r="U3" s="26">
+        <v>80</v>
+      </c>
+      <c r="X3" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="U4" s="26">
+        <v>20</v>
+      </c>
+      <c r="V4" s="25">
         <v>30</v>
       </c>
-      <c r="AA1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="X4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="L5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
+        <v>1</v>
+      </c>
+      <c r="V5" s="25">
+        <v>100</v>
+      </c>
+      <c r="X5" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="U6" s="26">
+        <v>150</v>
+      </c>
+      <c r="V6" s="25">
+        <v>150</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>1</v>
+      </c>
+      <c r="U7" s="26">
+        <v>120</v>
+      </c>
+      <c r="V7" s="25">
+        <v>120</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AA7" s="25">
         <v>15</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="26" t="s">
+      <c r="AB7" s="25">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>1</v>
+      </c>
+      <c r="U8" s="26">
+        <v>100</v>
+      </c>
+      <c r="V8" s="25">
+        <v>200</v>
+      </c>
+      <c r="X8" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="U9" s="26">
+        <v>200</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>1</v>
+      </c>
+      <c r="P10" s="25">
+        <v>1</v>
+      </c>
+      <c r="S10" s="25">
+        <v>1</v>
+      </c>
+      <c r="T10" s="25">
+        <v>1</v>
+      </c>
+      <c r="V10" s="25">
+        <v>200</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
+      <c r="U12" s="26">
+        <v>100</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="25">
+        <v>1</v>
+      </c>
+      <c r="L13" s="25">
+        <v>1</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+      <c r="U13" s="26">
+        <v>200</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="25">
         <v>8</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="31" t="s">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1</v>
+      </c>
+      <c r="L14" s="25">
+        <v>1</v>
+      </c>
+      <c r="U14" s="26">
+        <v>200</v>
+      </c>
+      <c r="X14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="U15" s="26">
+        <v>300</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AA15" s="25">
         <v>18</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27">
-        <v>1</v>
-      </c>
-      <c r="I3" s="26">
-        <v>1</v>
-      </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="L3" s="26">
-        <v>1</v>
-      </c>
-      <c r="U3" s="27">
-        <v>80</v>
-      </c>
-      <c r="X3" s="26">
+      <c r="AB15" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25">
+        <v>1</v>
+      </c>
+      <c r="U16" s="26">
+        <v>250</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="25">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA3" s="26">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="26">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26">
-        <v>1</v>
-      </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="U4" s="27">
-        <v>20</v>
-      </c>
-      <c r="V4" s="26">
+      <c r="AA16" s="25">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25">
+        <v>1</v>
+      </c>
+      <c r="L17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>1</v>
+      </c>
+      <c r="R17" s="25">
+        <v>1</v>
+      </c>
+      <c r="S17" s="25">
+        <v>1</v>
+      </c>
+      <c r="U17" s="26">
+        <v>280</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
+      <c r="N18" s="25">
+        <v>1</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>1</v>
+      </c>
+      <c r="R18" s="25">
+        <v>1</v>
+      </c>
+      <c r="S18" s="25">
+        <v>1</v>
+      </c>
+      <c r="T18" s="25">
+        <v>1</v>
+      </c>
+      <c r="U18" s="26">
+        <v>300</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA18" s="25">
         <v>30</v>
       </c>
-      <c r="X4" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="Y4" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA4" s="26">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="L5" s="26">
-        <v>1</v>
-      </c>
-      <c r="O5" s="26">
-        <v>1</v>
-      </c>
-      <c r="P5" s="26">
-        <v>1</v>
-      </c>
-      <c r="V5" s="26">
-        <v>100</v>
-      </c>
-      <c r="X5" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA5" s="26">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27">
-        <v>1</v>
-      </c>
-      <c r="U6" s="27">
-        <v>150</v>
-      </c>
-      <c r="V6" s="26">
-        <v>150</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="X6" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="AA6" s="26">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="26">
-        <v>1</v>
-      </c>
-      <c r="I7" s="26">
-        <v>1</v>
-      </c>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>1</v>
-      </c>
-      <c r="U7" s="27">
-        <v>120</v>
-      </c>
-      <c r="V7" s="26">
-        <v>120</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="Y7" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="AA7" s="26">
-        <v>15</v>
-      </c>
-      <c r="AB7" s="26">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1</v>
-      </c>
-      <c r="J8" s="26">
-        <v>1</v>
-      </c>
-      <c r="L8" s="26">
-        <v>1</v>
-      </c>
-      <c r="U8" s="27">
-        <v>100</v>
-      </c>
-      <c r="V8" s="26">
-        <v>200</v>
-      </c>
-      <c r="X8" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Y8" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="26">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27">
-        <v>1</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1</v>
-      </c>
-      <c r="J9" s="26">
-        <v>1</v>
-      </c>
-      <c r="U9" s="27">
-        <v>200</v>
-      </c>
-      <c r="X9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Y9" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="AA9" s="26">
-        <v>25</v>
-      </c>
-      <c r="AB9" s="26">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="O10" s="26">
-        <v>1</v>
-      </c>
-      <c r="P10" s="26">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26">
-        <v>1</v>
-      </c>
-      <c r="T10" s="26">
-        <v>1</v>
-      </c>
-      <c r="V10" s="26">
-        <v>200</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="Y10" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="AA10" s="26">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="26">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27">
-        <v>1</v>
-      </c>
-      <c r="I12" s="26">
-        <v>1</v>
-      </c>
-      <c r="J12" s="26">
-        <v>1</v>
-      </c>
-      <c r="L12" s="26">
-        <v>1</v>
-      </c>
-      <c r="U12" s="27">
-        <v>100</v>
-      </c>
-      <c r="X12" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="Y12" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="26">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27">
-        <v>1</v>
-      </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="L13" s="26">
-        <v>1</v>
-      </c>
-      <c r="M13" s="26">
-        <v>1</v>
-      </c>
-      <c r="U13" s="27">
-        <v>200</v>
-      </c>
-      <c r="X13" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="Y13" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA13" s="26">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="H14" s="27">
-        <v>1</v>
-      </c>
-      <c r="I14" s="26">
-        <v>1</v>
-      </c>
-      <c r="J14" s="26">
-        <v>1</v>
-      </c>
-      <c r="L14" s="26">
-        <v>1</v>
-      </c>
-      <c r="U14" s="27">
-        <v>200</v>
-      </c>
-      <c r="X14" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="Y14" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>25</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1</v>
-      </c>
-      <c r="I15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="26">
-        <v>1</v>
-      </c>
-      <c r="M15" s="26">
-        <v>1</v>
-      </c>
-      <c r="U15" s="27">
-        <v>300</v>
-      </c>
-      <c r="W15" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="X15" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="Y15" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>18</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="H16" s="27">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="U16" s="27">
-        <v>250</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="X16" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="Y16" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="AA16" s="26">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="26">
-        <v>1</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1</v>
-      </c>
-      <c r="I17" s="26">
-        <v>1</v>
-      </c>
-      <c r="J17" s="26">
-        <v>1</v>
-      </c>
-      <c r="L17" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>1</v>
-      </c>
-      <c r="R17" s="26">
-        <v>1</v>
-      </c>
-      <c r="S17" s="26">
-        <v>1</v>
-      </c>
-      <c r="U17" s="27">
-        <v>280</v>
-      </c>
-      <c r="W17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="X17" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>35</v>
-      </c>
-      <c r="AB17" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="27">
-        <v>1</v>
-      </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-      <c r="L18" s="26">
-        <v>1</v>
-      </c>
-      <c r="M18" s="26">
-        <v>1</v>
-      </c>
-      <c r="N18" s="26">
-        <v>1</v>
-      </c>
-      <c r="O18" s="26">
-        <v>1</v>
-      </c>
-      <c r="P18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>1</v>
-      </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
-        <v>1</v>
-      </c>
-      <c r="T18" s="26">
-        <v>1</v>
-      </c>
-      <c r="U18" s="27">
-        <v>300</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="X18" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="AA18" s="26">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="26">
+      <c r="AB18" s="25">
         <v>18</v>
       </c>
     </row>
@@ -2293,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2301,12 +2344,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2341,31 +2384,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2467,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2479,10 +2522,10 @@
     <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
     <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="34" customWidth="1"/>
     <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="14"/>
+    <col min="9" max="9" width="9.125" style="13"/>
     <col min="10" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
@@ -2493,10 +2536,10 @@
       <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="39">
         <v>3</v>
       </c>
-      <c r="F1" s="35">
+      <c r="F1" s="34">
         <v>2</v>
       </c>
       <c r="G1" s="9">
@@ -2507,8 +2550,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>108</v>
+      <c r="A2" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2519,10 +2562,10 @@
       <c r="D2" s="12">
         <v>4</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>3</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <v>2</v>
       </c>
       <c r="G2" s="12">
@@ -2531,14 +2574,14 @@
       <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="C3" s="10">
         <v>1.75</v>
@@ -2546,10 +2589,10 @@
       <c r="D3" s="10">
         <v>1.5</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>1.25</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
       <c r="G3" s="10">
@@ -2561,10 +2604,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2572,10 +2615,10 @@
       <c r="D4" s="10">
         <v>1.65</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>1.55</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>1.45</v>
       </c>
       <c r="G4" s="10">
@@ -2586,369 +2629,365 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H5" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>4</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E7" s="40">
         <v>3</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F7" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.3</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="10">
         <v>0.35</v>
       </c>
-      <c r="D12" s="10">
+      <c r="H12" s="10">
         <v>0.3</v>
-      </c>
-      <c r="E12" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="10">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="D13" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E13" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.35</v>
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.2</v>
       </c>
       <c r="G13" s="10">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H13" s="10">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.45</v>
       </c>
-      <c r="D14" s="10">
+      <c r="E14" s="41">
         <v>0.4</v>
       </c>
-      <c r="E14" s="42">
+      <c r="F14" s="36">
         <v>0.35</v>
       </c>
-      <c r="F14" s="37">
+      <c r="G14" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="F15" s="36">
         <v>0.3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>0.25</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H15" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C17" s="12">
         <v>5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>4</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E17" s="40">
         <v>3</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F17" s="35">
         <v>2</v>
       </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D20" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="G20" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="B23" s="9" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2959,7 +2998,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>211</v>
       </c>
@@ -2969,516 +3008,569 @@
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="43"/>
-    </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="F28" s="36">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="12">
         <v>5</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D31" s="12">
         <v>4</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E31" s="40">
         <v>3</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F31" s="35">
         <v>2</v>
       </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
         <v>0</v>
       </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" ref="I31:N34" si="0">1-(1-C11)*(1-C31)</f>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="M31" s="17">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="N31" s="17">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" si="0"/>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="0"/>
-        <v>0.27750000000000008</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000031E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C33" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D33" s="10">
         <v>0.5</v>
       </c>
-      <c r="D33" s="10">
+      <c r="E33" s="41">
         <v>0.45</v>
       </c>
-      <c r="E33" s="42">
+      <c r="F33" s="36">
         <v>0.4</v>
       </c>
-      <c r="F33" s="37">
+      <c r="G33" s="10">
         <v>0.35</v>
       </c>
-      <c r="G33" s="10">
-        <v>0.2</v>
-      </c>
       <c r="H33" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="15">
+        <f>1-(1-C12)*(1-C33)</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J33" s="16">
+        <f>1-(1-D12)*(1-D33)</f>
         <v>0.75</v>
       </c>
-      <c r="J33" s="17">
-        <f t="shared" si="0"/>
+      <c r="K33" s="16">
+        <f>1-(1-E12)*(1-E33)</f>
         <v>0.69750000000000001</v>
       </c>
-      <c r="K33" s="17">
-        <f t="shared" si="0"/>
+      <c r="L33" s="16">
+        <f>1-(1-F12)*(1-F33)</f>
         <v>0.64</v>
       </c>
-      <c r="L33" s="17">
-        <f t="shared" si="0"/>
+      <c r="M33" s="16">
+        <f>1-(1-G12)*(1-G33)</f>
         <v>0.5774999999999999</v>
       </c>
-      <c r="M33" s="17">
-        <f t="shared" si="0"/>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="N33" s="17">
-        <f t="shared" si="0"/>
-        <v>0.27750000000000008</v>
+      <c r="N33" s="16">
+        <f>1-(1-H12)*(1-H33)</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="15">
+        <f>1-(1-C13)*(1-C34)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="J34" s="16">
+        <f>1-(1-D13)*(1-D34)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K34" s="16">
+        <f>1-(1-E13)*(1-E34)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="L34" s="16">
+        <f>1-(1-F13)*(1-F34)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="M34" s="16">
+        <f>1-(1-G13)*(1-G34)</f>
+        <v>0.27750000000000008</v>
+      </c>
+      <c r="N34" s="16">
+        <f>1-(1-H13)*(1-H34)</f>
+        <v>9.7500000000000031E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I35" s="15">
+        <f>1-(1-C14)*(1-C35)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="16">
+        <f>1-(1-D14)*(1-D35)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K35" s="16">
+        <f>1-(1-E14)*(1-E35)</f>
+        <v>0.64</v>
+      </c>
+      <c r="L35" s="16">
+        <f>1-(1-F14)*(1-F35)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="M35" s="16">
+        <f>1-(1-G14)*(1-G35)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="N35" s="16">
+        <f>1-(1-H14)*(1-H35)</f>
+        <v>0.27750000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E36" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="15">
+        <f>1-(1-C15)*(1-C36)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J36" s="16">
+        <f>1-(1-D15)*(1-D36)</f>
+        <v>0.64</v>
+      </c>
+      <c r="K36" s="16">
+        <f>1-(1-E15)*(1-E36)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L36" s="16">
+        <f>1-(1-F15)*(1-F36)</f>
+        <v>0.51</v>
+      </c>
+      <c r="M36" s="16">
+        <f>1-(1-G15)*(1-G36)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N36" s="16">
+        <f>1-(1-H15)*(1-H36)</f>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F38" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="40">
+        <v>3</v>
+      </c>
+      <c r="F42" s="35">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="F34" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="0"/>
-        <v>0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="42">
-        <v>0.15</v>
-      </c>
-      <c r="F35" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="42">
-        <v>0.15</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="41">
-        <v>3</v>
-      </c>
-      <c r="F40" s="36">
-        <v>2</v>
-      </c>
-      <c r="G40" s="12">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="E43" s="39">
+        <v>180</v>
+      </c>
+      <c r="F43" s="34">
+        <v>140</v>
+      </c>
+      <c r="G43" s="9">
+        <v>110</v>
+      </c>
+      <c r="H43" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="40">
-        <v>180</v>
-      </c>
-      <c r="F41" s="35">
-        <v>140</v>
-      </c>
-      <c r="G41" s="9">
-        <v>110</v>
-      </c>
-      <c r="H41" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E44" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F42" s="35">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
         <v>0.9</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H44" s="9">
         <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="F45" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F47" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="9">
-        <v>3</v>
-      </c>
-      <c r="D46" s="9">
-        <v>3</v>
-      </c>
-      <c r="E46" s="40">
-        <v>3</v>
-      </c>
-      <c r="F46" s="35">
-        <v>3</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="J46" s="9">
-        <f>13-SUM(C46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="9">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2</v>
-      </c>
-      <c r="E47" s="40">
-        <v>2</v>
-      </c>
-      <c r="F47" s="35">
-        <v>3</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" ref="J47:J49" si="1">13-SUM(C47:G47)</f>
-        <v>0</v>
+      <c r="G47" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3</v>
+      </c>
+      <c r="E48" s="39">
+        <v>3</v>
+      </c>
+      <c r="F48" s="34">
+        <v>3</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9">
+        <f>13-SUM(C48:G48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C49" s="9">
         <v>5</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="39">
+        <v>2</v>
+      </c>
+      <c r="F49" s="34">
+        <v>3</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" ref="J49:J51" si="0">13-SUM(C49:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="9">
         <v>5</v>
       </c>
-      <c r="E48" s="40">
-        <v>1</v>
-      </c>
-      <c r="F48" s="35">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="1"/>
+      <c r="D50" s="9">
+        <v>5</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="9">
-        <f t="shared" si="1"/>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -3506,8 +3598,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -3523,63 +3615,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3599,7 +3691,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3619,42 +3711,42 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3689,7 +3781,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3700,7 +3792,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3711,7 +3803,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3731,7 +3823,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3750,7 +3842,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -3766,63 +3858,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -3898,206 +3990,206 @@
       <c r="A15">
         <v>97</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="45">
         <f>($A$15/$Q$14)*B14</f>
         <v>48.5</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="45">
         <f t="shared" ref="C15:X15" si="0">($A$15/$Q$14)*C14</f>
         <v>87.3</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="45">
         <f t="shared" si="0"/>
         <v>67.900000000000006</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="45">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="45">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="45">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="45">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="45">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="45">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="45">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="45">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="45">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="45">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="45">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="45">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="45">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="45">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="45">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="45">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="W15" s="48">
+      <c r="W15" s="45">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="X15" s="48">
+      <c r="X15" s="45">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B20" s="21">
         <v>0.25</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C20" s="21">
         <v>0.25</v>
       </c>
-      <c r="D19" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="D20" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="F20" s="21">
         <v>0.25</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G20" s="21">
         <v>0.25</v>
       </c>
-      <c r="H19" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="H20" s="21">
         <v>0.33</v>
       </c>
-      <c r="E20" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>194</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>195</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>196</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>197</v>
-      </c>
-      <c r="G23" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8001,86 +8093,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
         <v>160</v>
       </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" t="s">
-        <v>161</v>
-      </c>
       <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
         <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
         <v>166</v>
       </c>
-      <c r="L3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
         <v>167</v>
       </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>168</v>
-      </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" t="s">
         <v>171</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R4" t="s">
-        <v>172</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13110C-08F5-44FA-BC8C-2858DBEA2900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168B481-8230-4A94-8104-2F15DBAA229B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="4215" windowWidth="18390" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="221">
   <si>
     <t>招式</t>
   </si>
@@ -204,9 +206,6 @@
   </si>
   <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t>每0.1秒恢复稳定</t>
   </si>
   <si>
     <t>速度</t>
@@ -826,27 +825,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体魄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力加成、流血加成</t>
+    <t>攻击力加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒伤积累加成</t>
+    <t>流血/毒伤积累加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>削内加成</t>
+    <t>耐力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每0.1秒恢复耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削耐加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,6 +1163,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,21 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1550,27 +1549,27 @@
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
       <c r="U1" s="26" t="s">
         <v>27</v>
       </c>
@@ -1578,22 +1577,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X1" s="25" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="25" t="s">
         <v>34</v>
@@ -1604,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>13</v>
@@ -1622,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>20</v>
@@ -1660,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
@@ -1696,15 +1695,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="25">
         <v>1</v>
@@ -1739,10 +1738,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="25">
         <v>1</v>
@@ -1780,7 +1779,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="25">
         <v>1</v>
@@ -1795,7 +1794,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X6" s="25">
         <v>0.5</v>
@@ -1815,10 +1814,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1842,7 +1841,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X7" s="25">
         <v>0.4</v>
@@ -1860,15 +1859,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="25">
         <v>1</v>
@@ -1906,10 +1905,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -1942,15 +1941,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -1971,7 +1970,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="25">
         <v>0.4</v>
@@ -1989,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2000,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="25">
         <v>1</v>
@@ -2038,10 +2037,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -2079,10 +2078,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -2120,10 +2119,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -2144,7 +2143,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X15" s="25">
         <v>0.3</v>
@@ -2164,10 +2163,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -2185,7 +2184,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X16" s="25">
         <v>0.4</v>
@@ -2205,10 +2204,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="25">
         <v>1</v>
@@ -2238,7 +2237,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="25">
         <v>0.5</v>
@@ -2258,10 +2257,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
@@ -2303,7 +2302,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X18" s="25">
         <v>0.5</v>
@@ -2344,12 +2343,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2384,31 +2383,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2510,11 +2509,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2550,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2578,10 +2577,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="10">
         <v>1.75</v>
@@ -2604,10 +2603,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2638,12 +2637,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>39</v>
@@ -2670,31 +2669,31 @@
     </row>
     <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2705,10 +2704,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2719,10 +2718,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2733,10 +2732,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="10">
         <v>0.55000000000000004</v>
@@ -2759,10 +2758,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="10">
         <v>0.35</v>
@@ -2785,10 +2784,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -2811,10 +2810,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="10">
         <v>0.45</v>
@@ -2835,9 +2834,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>40</v>
@@ -2862,12 +2861,12 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="10">
         <v>0.25</v>
@@ -2888,92 +2887,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="1:14" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="E19" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="F19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="G19" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="G20" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -2982,12 +2981,12 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2998,9 +2997,9 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -3011,9 +3010,9 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3026,30 +3025,30 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="B27" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -3067,9 +3066,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C28" s="10">
         <v>1.75</v>
@@ -3090,100 +3089,145 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="42"/>
-    </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="12">
+    <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="12">
         <v>5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D30" s="12">
         <v>4</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E30" s="40">
         <v>3</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F30" s="35">
         <v>2</v>
       </c>
-      <c r="G31" s="12">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12">
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
         <v>0</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="13" t="s">
-        <v>206</v>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="15">
+        <f>1-(1-C12)*(1-C32)</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J32" s="16">
+        <f>1-(1-D12)*(1-D32)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="16">
+        <f>1-(1-E12)*(1-E32)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L32" s="16">
+        <f>1-(1-F12)*(1-F32)</f>
+        <v>0.64</v>
+      </c>
+      <c r="M32" s="16">
+        <f>1-(1-G12)*(1-G32)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="N32" s="16">
+        <f>1-(1-H12)*(1-H32)</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
         <v>204</v>
       </c>
       <c r="C33" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="D33" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E33" s="41">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="F33" s="36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G33" s="10">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="H33" s="10">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I33" s="15">
-        <f>1-(1-C12)*(1-C33)</f>
-        <v>0.7975000000000001</v>
+        <f>1-(1-C13)*(1-C33)</f>
+        <v>0.5774999999999999</v>
       </c>
       <c r="J33" s="16">
-        <f>1-(1-D12)*(1-D33)</f>
-        <v>0.75</v>
+        <f>1-(1-D13)*(1-D33)</f>
+        <v>0.51</v>
       </c>
       <c r="K33" s="16">
-        <f>1-(1-E12)*(1-E33)</f>
-        <v>0.69750000000000001</v>
+        <f>1-(1-E13)*(1-E33)</f>
+        <v>0.4375</v>
       </c>
       <c r="L33" s="16">
-        <f>1-(1-F12)*(1-F33)</f>
-        <v>0.64</v>
+        <f>1-(1-F13)*(1-F33)</f>
+        <v>0.35999999999999988</v>
       </c>
       <c r="M33" s="16">
-        <f>1-(1-G12)*(1-G33)</f>
-        <v>0.5774999999999999</v>
+        <f>1-(1-G13)*(1-G33)</f>
+        <v>0.27750000000000008</v>
       </c>
       <c r="N33" s="16">
-        <f>1-(1-H12)*(1-H33)</f>
-        <v>0.51</v>
+        <f>1-(1-H13)*(1-H33)</f>
+        <v>9.7500000000000031E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3191,49 +3235,49 @@
         <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="36">
         <v>0.35</v>
       </c>
-      <c r="D34" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="36">
+      <c r="G34" s="10">
         <v>0.2</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>0.15</v>
       </c>
-      <c r="H34" s="10">
-        <v>0.05</v>
-      </c>
       <c r="I34" s="15">
-        <f>1-(1-C13)*(1-C34)</f>
+        <f>1-(1-C14)*(1-C34)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J34" s="16">
+        <f>1-(1-D14)*(1-D34)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K34" s="16">
+        <f>1-(1-E14)*(1-E34)</f>
+        <v>0.64</v>
+      </c>
+      <c r="L34" s="16">
+        <f>1-(1-F14)*(1-F34)</f>
         <v>0.5774999999999999</v>
       </c>
-      <c r="J34" s="16">
-        <f>1-(1-D13)*(1-D34)</f>
-        <v>0.51</v>
-      </c>
-      <c r="K34" s="16">
-        <f>1-(1-E13)*(1-E34)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="L34" s="16">
-        <f>1-(1-F13)*(1-F34)</f>
+      <c r="M34" s="16">
+        <f>1-(1-G14)*(1-G34)</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="M34" s="16">
-        <f>1-(1-G13)*(1-G34)</f>
+      <c r="N34" s="16">
+        <f>1-(1-H14)*(1-H34)</f>
         <v>0.27750000000000008</v>
-      </c>
-      <c r="N34" s="16">
-        <f>1-(1-H13)*(1-H34)</f>
-        <v>9.7500000000000031E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3241,100 +3285,79 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="10">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D35" s="10">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="41">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F35" s="36">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G35" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="15">
+        <f>1-(1-C15)*(1-C35)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J35" s="16">
+        <f>1-(1-D15)*(1-D35)</f>
+        <v>0.64</v>
+      </c>
+      <c r="K35" s="16">
+        <f>1-(1-E15)*(1-E35)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L35" s="16">
+        <f>1-(1-F15)*(1-F35)</f>
+        <v>0.51</v>
+      </c>
+      <c r="M35" s="16">
+        <f>1-(1-G15)*(1-G35)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N35" s="16">
+        <f>1-(1-H15)*(1-H35)</f>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="10">
         <v>0.2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="E36" s="41">
         <v>0.15</v>
       </c>
-      <c r="I35" s="15">
-        <f>1-(1-C14)*(1-C35)</f>
-        <v>0.75</v>
-      </c>
-      <c r="J35" s="16">
-        <f>1-(1-D14)*(1-D35)</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K35" s="16">
-        <f>1-(1-E14)*(1-E35)</f>
-        <v>0.64</v>
-      </c>
-      <c r="L35" s="16">
-        <f>1-(1-F14)*(1-F35)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="M35" s="16">
-        <f>1-(1-G14)*(1-G35)</f>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="N35" s="16">
-        <f>1-(1-H14)*(1-H35)</f>
-        <v>0.27750000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="41">
-        <v>0.35</v>
-      </c>
       <c r="F36" s="36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G36" s="10">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I36" s="15">
-        <f>1-(1-C15)*(1-C36)</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J36" s="16">
-        <f>1-(1-D15)*(1-D36)</f>
-        <v>0.64</v>
-      </c>
-      <c r="K36" s="16">
-        <f>1-(1-E15)*(1-E36)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L36" s="16">
-        <f>1-(1-F15)*(1-F36)</f>
-        <v>0.51</v>
-      </c>
-      <c r="M36" s="16">
-        <f>1-(1-G15)*(1-G36)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="N36" s="16">
-        <f>1-(1-H15)*(1-H36)</f>
-        <v>0.18999999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
@@ -3366,33 +3389,12 @@
       <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="F38" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C39" s="10"/>
@@ -3402,118 +3404,131 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="40">
+    <row r="41" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="40">
         <v>3</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F41" s="35">
         <v>2</v>
       </c>
-      <c r="G42" s="12">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
         <v>0</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="39">
+        <v>180</v>
+      </c>
+      <c r="F42" s="34">
+        <v>140</v>
+      </c>
+      <c r="G42" s="9">
+        <v>110</v>
+      </c>
+      <c r="H42" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E43" s="39">
-        <v>180</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F43" s="34">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="G43" s="9">
-        <v>110</v>
+        <v>0.9</v>
       </c>
       <c r="H43" s="9">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="B44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="39">
+        <v>220</v>
+      </c>
+      <c r="E44" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="F44" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F44" s="34">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
         <v>0.9</v>
       </c>
-      <c r="H44" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="F45" s="36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0.9</v>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>190</v>
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47" s="39">
+        <v>3</v>
+      </c>
+      <c r="F47" s="34">
+        <v>3</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="J47" s="9">
+        <f>13-SUM(C47:G47)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <v>3</v>
@@ -3522,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9">
-        <f>13-SUM(C48:G48)</f>
+        <f t="shared" ref="J48:J50" si="0">13-SUM(C48:G48)</f>
         <v>0</v>
       </c>
     </row>
@@ -3531,45 +3546,24 @@
         <v>5</v>
       </c>
       <c r="D49" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" ref="J49:J51" si="0">13-SUM(C49:G49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C50" s="9">
-        <v>5</v>
-      </c>
-      <c r="D50" s="9">
-        <v>5</v>
-      </c>
-      <c r="E50" s="39">
-        <v>1</v>
-      </c>
-      <c r="F50" s="34">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
       <c r="J50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3615,63 +3609,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3691,7 +3685,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3711,7 +3705,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3746,7 +3740,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3781,7 +3775,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3792,7 +3786,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3803,7 +3797,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3823,7 +3817,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3858,63 +3852,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4085,33 +4079,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="21">
         <v>0.25</v>
@@ -4140,7 +4134,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="21">
         <v>0.25</v>
@@ -4169,27 +4163,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
         <v>192</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>193</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>194</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>195</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>196</v>
-      </c>
-      <c r="G23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8093,86 +8087,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>157</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
         <v>159</v>
       </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" t="s">
-        <v>160</v>
-      </c>
       <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
         <v>162</v>
-      </c>
-      <c r="I2" t="s">
-        <v>163</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
         <v>160</v>
-      </c>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" t="s">
         <v>165</v>
       </c>
-      <c r="L3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
         <v>166</v>
       </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>167</v>
-      </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R4" t="s">
         <v>170</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R4" t="s">
-        <v>171</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168B481-8230-4A94-8104-2F15DBAA229B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1750DC-40FB-47C0-90A7-09493C8D688A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="4215" windowWidth="18390" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="4305" windowWidth="18390" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -721,10 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,15 +833,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐力值</t>
+    <t>真气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每0.1秒恢复耐力</t>
+    <t>真气值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>削耐加成</t>
+    <t>每0.1秒恢复真气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削气加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2512,8 +2512,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2580,7 +2580,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="10">
         <v>1.75</v>
@@ -2606,7 +2606,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2761,7 +2761,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="10">
         <v>0.35</v>
@@ -2787,7 +2787,7 @@
         <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -2813,7 +2813,7 @@
         <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="10">
         <v>0.45</v>
@@ -2866,7 +2866,7 @@
         <v>121</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="10">
         <v>0.25</v>
@@ -2925,16 +2925,16 @@
         <v>87</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>88</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>89</v>
@@ -2972,7 +2972,7 @@
         <v>138</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="10">
         <v>1.75</v>
@@ -3094,7 +3094,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="12">
         <v>5</v>
@@ -3127,7 +3127,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="10">
         <v>0.55000000000000004</v>
@@ -3156,27 +3156,27 @@
         <v>0.3</v>
       </c>
       <c r="I32" s="15">
-        <f>1-(1-C12)*(1-C32)</f>
+        <f t="shared" ref="I32:N35" si="0">1-(1-C12)*(1-C32)</f>
         <v>0.7975000000000001</v>
       </c>
       <c r="J32" s="16">
-        <f>1-(1-D12)*(1-D32)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K32" s="16">
-        <f>1-(1-E12)*(1-E32)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="L32" s="16">
-        <f>1-(1-F12)*(1-F32)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="M32" s="16">
-        <f>1-(1-G12)*(1-G32)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="N32" s="16">
-        <f>1-(1-H12)*(1-H32)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="10">
         <v>0.35</v>
@@ -3206,27 +3206,27 @@
         <v>0.05</v>
       </c>
       <c r="I33" s="15">
-        <f>1-(1-C13)*(1-C33)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="J33" s="16">
-        <f>1-(1-D13)*(1-D33)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="K33" s="16">
-        <f>1-(1-E13)*(1-E33)</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="L33" s="16">
-        <f>1-(1-F13)*(1-F33)</f>
+        <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="M33" s="16">
-        <f>1-(1-G13)*(1-G33)</f>
+        <f t="shared" si="0"/>
         <v>0.27750000000000008</v>
       </c>
       <c r="N33" s="16">
-        <f>1-(1-H13)*(1-H33)</f>
+        <f t="shared" si="0"/>
         <v>9.7500000000000031E-2</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" s="10">
         <v>0.5</v>
@@ -3256,27 +3256,27 @@
         <v>0.15</v>
       </c>
       <c r="I34" s="15">
-        <f>1-(1-C14)*(1-C34)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J34" s="16">
-        <f>1-(1-D14)*(1-D34)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="K34" s="16">
-        <f>1-(1-E14)*(1-E34)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="L34" s="16">
-        <f>1-(1-F14)*(1-F34)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="M34" s="16">
-        <f>1-(1-G14)*(1-G34)</f>
+        <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="N34" s="16">
-        <f>1-(1-H14)*(1-H34)</f>
+        <f t="shared" si="0"/>
         <v>0.27750000000000008</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="10">
         <v>0.45</v>
@@ -3306,33 +3306,33 @@
         <v>0.1</v>
       </c>
       <c r="I35" s="15">
-        <f>1-(1-C15)*(1-C35)</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="J35" s="16">
-        <f>1-(1-D15)*(1-D35)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="K35" s="16">
-        <f>1-(1-E15)*(1-E35)</f>
+        <f t="shared" si="0"/>
         <v>0.5774999999999999</v>
       </c>
       <c r="L35" s="16">
-        <f>1-(1-F15)*(1-F35)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="M35" s="16">
-        <f>1-(1-G15)*(1-G35)</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="N35" s="16">
-        <f>1-(1-H15)*(1-H35)</f>
+        <f t="shared" si="0"/>
         <v>0.18999999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10">
         <v>0.25</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="10">
         <v>0.25</v>
@@ -3409,7 +3409,7 @@
         <v>110</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E41" s="40">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" ref="J48:J50" si="0">13-SUM(C48:G48)</f>
+        <f t="shared" ref="J48:J50" si="1">13-SUM(C48:G48)</f>
         <v>0</v>
       </c>
     </row>
@@ -3558,13 +3558,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -4163,27 +4163,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
         <v>191</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>192</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>193</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>194</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>195</v>
-      </c>
-      <c r="G23" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8066,7 +8066,7 @@
   <dimension ref="B2:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1750DC-40FB-47C0-90A7-09493C8D688A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F0E31-E718-4E36-B5F9-59A22A1E42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="4305" windowWidth="18390" windowHeight="10680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="24555" windowHeight="13575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="214">
   <si>
     <t>招式</t>
   </si>
@@ -230,33 +228,6 @@
     <t>防御几率</t>
   </si>
   <si>
-    <t>攻击力浮动几率</t>
-  </si>
-  <si>
-    <t>70%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>80%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>60%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>50%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>20%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
-    <t>30%几率正浮动
-+10%~-10%</t>
-  </si>
-  <si>
     <t>左上臂</t>
   </si>
   <si>
@@ -394,26 +365,6 @@
   </si>
   <si>
     <t>手</t>
-  </si>
-  <si>
-    <t>SX_Liliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SX_Minjie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SX_Zhili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SX_Tizhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SX_Pinheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baojishanghai</t>
@@ -487,10 +438,6 @@
   </si>
   <si>
     <t>gongjiJC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gongjifudongjilv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -848,12 +795,36 @@
     <t>削气加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>data_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_LL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_MJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_ZL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_ZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,32 +933,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1052,7 +997,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1163,21 +1108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,27 +1479,27 @@
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
       <c r="U1" s="26" t="s">
         <v>27</v>
       </c>
@@ -1577,22 +1507,22 @@
         <v>28</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X1" s="25" t="s">
         <v>29</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="25" t="s">
         <v>34</v>
@@ -1603,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>13</v>
@@ -1621,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>20</v>
@@ -1659,7 +1589,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
@@ -1695,15 +1625,15 @@
         <v>3</v>
       </c>
       <c r="AC3" s="31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E4" s="25">
         <v>1</v>
@@ -1738,10 +1668,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E5" s="25">
         <v>1</v>
@@ -1779,7 +1709,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E6" s="25">
         <v>1</v>
@@ -1794,7 +1724,7 @@
         <v>150</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="X6" s="25">
         <v>0.5</v>
@@ -1814,10 +1744,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -1841,7 +1771,7 @@
         <v>120</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X7" s="25">
         <v>0.4</v>
@@ -1859,15 +1789,15 @@
         <v>5</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E8" s="25">
         <v>1</v>
@@ -1905,10 +1835,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -1941,15 +1871,15 @@
         <v>15</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -1970,7 +1900,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="X10" s="25">
         <v>0.4</v>
@@ -1988,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1999,7 +1929,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E12" s="25">
         <v>1</v>
@@ -2037,10 +1967,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -2078,10 +2008,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -2119,10 +2049,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -2143,7 +2073,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X15" s="25">
         <v>0.3</v>
@@ -2163,10 +2093,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -2184,7 +2114,7 @@
         <v>250</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X16" s="25">
         <v>0.4</v>
@@ -2204,10 +2134,10 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G17" s="25">
         <v>1</v>
@@ -2237,7 +2167,7 @@
         <v>280</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X17" s="25">
         <v>0.5</v>
@@ -2257,10 +2187,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
@@ -2302,7 +2232,7 @@
         <v>300</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X18" s="25">
         <v>0.5</v>
@@ -2343,12 +2273,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2383,31 +2313,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2509,11 +2439,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2529,6 +2459,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="C1" s="9">
         <v>5</v>
       </c>
@@ -2550,7 +2483,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>38</v>
@@ -2577,10 +2510,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10">
         <v>1.75</v>
@@ -2603,10 +2536,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -2642,7 +2575,7 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>39</v>
@@ -2672,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>51</v>
@@ -2685,15 +2618,15 @@
         <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2704,10 +2637,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2718,10 +2651,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2732,10 +2665,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C12" s="10">
         <v>0.55000000000000004</v>
@@ -2758,10 +2691,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C13" s="10">
         <v>0.35</v>
@@ -2784,10 +2717,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -2810,10 +2743,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C15" s="10">
         <v>0.45</v>
@@ -2836,7 +2769,7 @@
     </row>
     <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>40</v>
@@ -2863,10 +2796,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C18" s="10">
         <v>0.25</v>
@@ -2887,106 +2820,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="B23" s="9" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2999,7 +2918,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -3007,12 +2926,17 @@
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="B25" s="9" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -3027,10 +2951,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -3041,298 +2965,309 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="B27" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="10">
+        <v>203</v>
+      </c>
+      <c r="C27" s="10">
         <v>1.75</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D27" s="10">
         <v>1.5</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E27" s="41">
         <v>1.25</v>
       </c>
-      <c r="F28" s="36">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F27" s="36">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
         <v>0.75</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H27" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="12">
+    <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="12">
         <v>5</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D29" s="12">
         <v>4</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E29" s="40">
         <v>3</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F29" s="35">
         <v>2</v>
       </c>
-      <c r="G30" s="12">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12">
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12">
         <v>0</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="13" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="13" t="s">
-        <v>204</v>
+      <c r="A31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="15">
+        <f>1-(1-C12)*(1-C31)</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J31" s="16">
+        <f>1-(1-D12)*(1-D31)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="16">
+        <f>1-(1-E12)*(1-E31)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L31" s="16">
+        <f>1-(1-F12)*(1-F31)</f>
+        <v>0.64</v>
+      </c>
+      <c r="M31" s="16">
+        <f>1-(1-G12)*(1-G31)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="N31" s="16">
+        <f>1-(1-H12)*(1-H31)</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
       </c>
       <c r="C32" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="D32" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E32" s="41">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="F32" s="36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G32" s="10">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="H32" s="10">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" ref="I32:N35" si="0">1-(1-C12)*(1-C32)</f>
-        <v>0.7975000000000001</v>
+        <f>1-(1-C13)*(1-C32)</f>
+        <v>0.5774999999999999</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>1-(1-D13)*(1-D32)</f>
+        <v>0.51</v>
       </c>
       <c r="K32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
+        <f>1-(1-E13)*(1-E32)</f>
+        <v>0.4375</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
+        <f>1-(1-F13)*(1-F32)</f>
+        <v>0.35999999999999988</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
+        <f>1-(1-G13)*(1-G32)</f>
+        <v>0.27750000000000008</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
+        <f>1-(1-H13)*(1-H32)</f>
+        <v>9.7500000000000031E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="36">
         <v>0.35</v>
       </c>
-      <c r="D33" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="G33" s="10">
         <v>0.2</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>0.15</v>
       </c>
-      <c r="H33" s="10">
-        <v>0.05</v>
-      </c>
       <c r="I33" s="15">
-        <f t="shared" si="0"/>
+        <f>1-(1-C14)*(1-C33)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="16">
+        <f>1-(1-D14)*(1-D33)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K33" s="16">
+        <f>1-(1-E14)*(1-E33)</f>
+        <v>0.64</v>
+      </c>
+      <c r="L33" s="16">
+        <f>1-(1-F14)*(1-F33)</f>
         <v>0.5774999999999999</v>
       </c>
-      <c r="J33" s="16">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="K33" s="16">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="0"/>
+      <c r="M33" s="16">
+        <f>1-(1-G14)*(1-G33)</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="M33" s="16">
-        <f t="shared" si="0"/>
+      <c r="N33" s="16">
+        <f>1-(1-H14)*(1-H33)</f>
         <v>0.27750000000000008</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="0"/>
-        <v>9.7500000000000031E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C34" s="10">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D34" s="10">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="41">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F34" s="36">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="15">
+        <f>1-(1-C15)*(1-C34)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J34" s="16">
+        <f>1-(1-D15)*(1-D34)</f>
+        <v>0.64</v>
+      </c>
+      <c r="K34" s="16">
+        <f>1-(1-E15)*(1-E34)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L34" s="16">
+        <f>1-(1-F15)*(1-F34)</f>
+        <v>0.51</v>
+      </c>
+      <c r="M34" s="16">
+        <f>1-(1-G15)*(1-G34)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N34" s="16">
+        <f>1-(1-H15)*(1-H34)</f>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="10">
         <v>0.2</v>
       </c>
-      <c r="H34" s="10">
+      <c r="E35" s="41">
         <v>0.15</v>
       </c>
-      <c r="I34" s="15">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="M34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="N34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.27750000000000008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="41">
-        <v>0.35</v>
-      </c>
       <c r="F35" s="36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="10">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="H35" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="0"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="N35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.18999999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C36" s="10">
         <v>0.25</v>
@@ -3360,33 +3295,12 @@
       <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="F37" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C38" s="10"/>
@@ -3396,118 +3310,131 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="41" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+    <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="35">
+        <v>2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="39">
+        <v>180</v>
+      </c>
+      <c r="F41" s="34">
+        <v>140</v>
+      </c>
+      <c r="G41" s="9">
         <v>110</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="40">
-        <v>3</v>
-      </c>
-      <c r="F41" s="35">
-        <v>2</v>
-      </c>
-      <c r="G41" s="12">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14"/>
+      <c r="H41" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E42" s="39">
-        <v>180</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F42" s="34">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="G42" s="9">
-        <v>110</v>
+        <v>0.9</v>
       </c>
       <c r="H42" s="9">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="B43" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="39">
+        <v>207</v>
+      </c>
+      <c r="E43" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="F43" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F43" s="34">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
         <v>0.9</v>
       </c>
-      <c r="H43" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="F44" s="36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.9</v>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>217</v>
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3</v>
+      </c>
+      <c r="E46" s="39">
+        <v>3</v>
+      </c>
+      <c r="F46" s="34">
+        <v>3</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9">
+        <f>13-SUM(C46:G46)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C47" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <v>3</v>
@@ -3516,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="9">
-        <f>13-SUM(C47:G47)</f>
+        <f t="shared" ref="J47:J49" si="0">13-SUM(C47:G47)</f>
         <v>0</v>
       </c>
     </row>
@@ -3525,46 +3452,25 @@
         <v>5</v>
       </c>
       <c r="D48" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E48" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" ref="J48:J50" si="1">13-SUM(C48:G48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" s="9">
-        <v>5</v>
-      </c>
-      <c r="D49" s="9">
-        <v>5</v>
-      </c>
-      <c r="E49" s="39">
-        <v>1</v>
-      </c>
-      <c r="F49" s="34">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -3609,63 +3515,63 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3685,7 +3591,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3705,7 +3611,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3740,7 +3646,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3775,7 +3681,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3786,7 +3692,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3797,7 +3703,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3817,7 +3723,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3852,63 +3758,63 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -4079,33 +3985,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B19" s="21">
         <v>0.25</v>
@@ -4134,7 +4040,7 @@
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B20" s="21">
         <v>0.25</v>
@@ -4163,27 +4069,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -8087,86 +7993,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="Q4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="R4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="S4">
         <v>50</v>

--- a/plan/data.xlsx
+++ b/plan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F0E31-E718-4E36-B5F9-59A22A1E42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF607A-80FA-4CFD-AFE5-872ADE6E3E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1350" windowWidth="24555" windowHeight="13575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="216">
   <si>
     <t>招式</t>
   </si>
@@ -367,22 +367,6 @@
     <t>手</t>
   </si>
   <si>
-    <t>baojishanghai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuduJC_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuduJC_Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuduJC_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前摇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,46 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SB_tou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB_xiong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baojijilv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minzhongxz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_xiong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_fu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY_yao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wendinzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wendinhuifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gongjiJC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平衡削减</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,15 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SB_fu</t>
-  </si>
-  <si>
-    <t>SB_yao</t>
-  </si>
-  <si>
-    <t>FY_tou</t>
-  </si>
-  <si>
     <t>己方损伤数值</t>
   </si>
   <si>
@@ -465,21 +400,6 @@
   </si>
   <si>
     <t>对方损伤图例</t>
-  </si>
-  <si>
-    <t>qbshunshangzhi</t>
-  </si>
-  <si>
-    <t>qbshuxin</t>
-  </si>
-  <si>
-    <t>qbshunshangtu</t>
-  </si>
-  <si>
-    <t>qbjifhangzhi</t>
-  </si>
-  <si>
-    <t>qinbao</t>
   </si>
   <si>
     <t>天眼</t>
@@ -776,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流血/毒伤积累加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>真气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,6 +733,106 @@
   </si>
   <si>
     <t>SX_ZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flawDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flawFind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRateAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeAdd_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeAdd_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeAdd_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dod_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dod_body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dod_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dod_leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleedAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisonAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zqVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zqPerSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zqHurtAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,11 +1013,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -1452,801 +1467,801 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="44" customWidth="1"/>
-    <col min="4" max="7" width="3.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="5.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.375" style="31" customWidth="1"/>
-    <col min="30" max="16384" width="9.125" style="25"/>
+    <col min="1" max="1" width="5.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="43" customWidth="1"/>
+    <col min="4" max="7" width="3.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="5.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="30" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="26" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1</v>
+      </c>
+      <c r="J3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
+      <c r="U3" s="25">
+        <v>80</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+      <c r="U4" s="25">
+        <v>20</v>
+      </c>
+      <c r="V4" s="24">
+        <v>30</v>
+      </c>
+      <c r="X4" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24">
+        <v>1</v>
+      </c>
+      <c r="P5" s="24">
+        <v>1</v>
+      </c>
+      <c r="V5" s="24">
+        <v>100</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="U6" s="25">
+        <v>150</v>
+      </c>
+      <c r="V6" s="24">
+        <v>150</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>1</v>
+      </c>
+      <c r="U7" s="25">
+        <v>120</v>
+      </c>
+      <c r="V7" s="24">
+        <v>120</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="24">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24">
+        <v>1</v>
+      </c>
+      <c r="U8" s="25">
+        <v>100</v>
+      </c>
+      <c r="V8" s="24">
+        <v>200</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="29" t="s">
+      <c r="C9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1</v>
+      </c>
+      <c r="U9" s="25">
+        <v>200</v>
+      </c>
+      <c r="X9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="24">
         <v>15</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="AC9" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="O10" s="24">
+        <v>1</v>
+      </c>
+      <c r="P10" s="24">
+        <v>1</v>
+      </c>
+      <c r="S10" s="24">
+        <v>1</v>
+      </c>
+      <c r="T10" s="24">
+        <v>1</v>
+      </c>
+      <c r="V10" s="24">
+        <v>200</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24">
+        <v>1</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="U12" s="25">
+        <v>100</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="24">
+        <v>1</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
+      <c r="U13" s="25">
+        <v>200</v>
+      </c>
+      <c r="X13" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="24">
         <v>8</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="30" t="s">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
+        <v>1</v>
+      </c>
+      <c r="U14" s="25">
+        <v>200</v>
+      </c>
+      <c r="X14" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA14" s="24">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
+        <v>1</v>
+      </c>
+      <c r="L15" s="24">
+        <v>1</v>
+      </c>
+      <c r="M15" s="24">
+        <v>1</v>
+      </c>
+      <c r="U15" s="25">
+        <v>300</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="Y15" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AA15" s="24">
         <v>18</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25">
-        <v>1</v>
-      </c>
-      <c r="U3" s="26">
-        <v>80</v>
-      </c>
-      <c r="X3" s="25">
+      <c r="AB15" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1</v>
+      </c>
+      <c r="U16" s="25">
+        <v>250</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="24">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA3" s="25">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25">
-        <v>1</v>
-      </c>
-      <c r="U4" s="26">
-        <v>20</v>
-      </c>
-      <c r="V4" s="25">
+      <c r="AA16" s="24">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>1</v>
+      </c>
+      <c r="R17" s="24">
+        <v>1</v>
+      </c>
+      <c r="S17" s="24">
+        <v>1</v>
+      </c>
+      <c r="U17" s="25">
+        <v>280</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="AA17" s="24">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24">
+        <v>1</v>
+      </c>
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
+      <c r="N18" s="24">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>1</v>
+      </c>
+      <c r="R18" s="24">
+        <v>1</v>
+      </c>
+      <c r="S18" s="24">
+        <v>1</v>
+      </c>
+      <c r="T18" s="24">
+        <v>1</v>
+      </c>
+      <c r="U18" s="25">
+        <v>300</v>
+      </c>
+      <c r="W18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AA18" s="24">
         <v>30</v>
       </c>
-      <c r="X4" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
-        <v>1</v>
-      </c>
-      <c r="O5" s="25">
-        <v>1</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>100</v>
-      </c>
-      <c r="X5" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="U6" s="26">
-        <v>150</v>
-      </c>
-      <c r="V6" s="25">
-        <v>150</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA6" s="25">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>1</v>
-      </c>
-      <c r="U7" s="26">
-        <v>120</v>
-      </c>
-      <c r="V7" s="25">
-        <v>120</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>15</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25">
-        <v>1</v>
-      </c>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-      <c r="U8" s="26">
-        <v>100</v>
-      </c>
-      <c r="V8" s="25">
-        <v>200</v>
-      </c>
-      <c r="X8" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-      <c r="I9" s="25">
-        <v>1</v>
-      </c>
-      <c r="J9" s="25">
-        <v>1</v>
-      </c>
-      <c r="U9" s="26">
-        <v>200</v>
-      </c>
-      <c r="X9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>25</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="25">
-        <v>1</v>
-      </c>
-      <c r="O10" s="25">
-        <v>1</v>
-      </c>
-      <c r="P10" s="25">
-        <v>1</v>
-      </c>
-      <c r="S10" s="25">
-        <v>1</v>
-      </c>
-      <c r="T10" s="25">
-        <v>1</v>
-      </c>
-      <c r="V10" s="25">
-        <v>200</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="25">
-        <v>1</v>
-      </c>
-      <c r="J12" s="25">
-        <v>1</v>
-      </c>
-      <c r="L12" s="25">
-        <v>1</v>
-      </c>
-      <c r="U12" s="26">
-        <v>100</v>
-      </c>
-      <c r="X12" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="Y12" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1</v>
-      </c>
-      <c r="K13" s="25">
-        <v>1</v>
-      </c>
-      <c r="L13" s="25">
-        <v>1</v>
-      </c>
-      <c r="M13" s="25">
-        <v>1</v>
-      </c>
-      <c r="U13" s="26">
-        <v>200</v>
-      </c>
-      <c r="X13" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="Y13" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25">
-        <v>1</v>
-      </c>
-      <c r="J14" s="25">
-        <v>1</v>
-      </c>
-      <c r="L14" s="25">
-        <v>1</v>
-      </c>
-      <c r="U14" s="26">
-        <v>200</v>
-      </c>
-      <c r="X14" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="Y14" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA14" s="25">
-        <v>25</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
-        <v>1</v>
-      </c>
-      <c r="L15" s="25">
-        <v>1</v>
-      </c>
-      <c r="M15" s="25">
-        <v>1</v>
-      </c>
-      <c r="U15" s="26">
-        <v>300</v>
-      </c>
-      <c r="W15" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X15" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="Y15" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA15" s="25">
-        <v>18</v>
-      </c>
-      <c r="AB15" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25">
-        <v>1</v>
-      </c>
-      <c r="J16" s="25">
-        <v>1</v>
-      </c>
-      <c r="U16" s="26">
-        <v>250</v>
-      </c>
-      <c r="W16" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="Y16" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="AA16" s="25">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="25">
-        <v>1</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25">
-        <v>1</v>
-      </c>
-      <c r="L17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>1</v>
-      </c>
-      <c r="R17" s="25">
-        <v>1</v>
-      </c>
-      <c r="S17" s="25">
-        <v>1</v>
-      </c>
-      <c r="U17" s="26">
-        <v>280</v>
-      </c>
-      <c r="W17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="AA17" s="25">
-        <v>35</v>
-      </c>
-      <c r="AB17" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="25">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="K18" s="25">
-        <v>1</v>
-      </c>
-      <c r="L18" s="25">
-        <v>1</v>
-      </c>
-      <c r="M18" s="25">
-        <v>1</v>
-      </c>
-      <c r="N18" s="25">
-        <v>1</v>
-      </c>
-      <c r="O18" s="25">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>1</v>
-      </c>
-      <c r="R18" s="25">
-        <v>1</v>
-      </c>
-      <c r="S18" s="25">
-        <v>1</v>
-      </c>
-      <c r="T18" s="25">
-        <v>1</v>
-      </c>
-      <c r="U18" s="26">
-        <v>300</v>
-      </c>
-      <c r="W18" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA18" s="25">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="25">
+      <c r="AB18" s="24">
         <v>18</v>
       </c>
     </row>
@@ -2273,12 +2288,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2313,31 +2328,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
       <c r="X1" t="s">
         <v>27</v>
       </c>
@@ -2439,1037 +2454,1047 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="9" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="34" customWidth="1"/>
-    <col min="7" max="8" width="15.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="13"/>
-    <col min="10" max="16384" width="9.125" style="9"/>
+    <col min="1" max="1" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="8" customWidth="1"/>
+    <col min="3" max="4" width="15.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="33" customWidth="1"/>
+    <col min="7" max="8" width="15.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="12"/>
+    <col min="10" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="8">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1" s="38">
+        <v>3</v>
+      </c>
+      <c r="F1" s="33">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4</v>
+      </c>
+      <c r="E2" s="39">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1.55</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1.45</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="39">
+        <v>3</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="39">
+        <v>3</v>
+      </c>
+      <c r="F16" s="34">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="11">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="39">
+        <v>3</v>
+      </c>
+      <c r="F29" s="34">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="14">
+        <f>1-(1-C11)*(1-C31)</f>
+        <v>0.7975000000000001</v>
+      </c>
+      <c r="J31" s="15">
+        <f>1-(1-D11)*(1-D31)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="15">
+        <f>1-(1-E11)*(1-E31)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L31" s="15">
+        <f>1-(1-F11)*(1-F31)</f>
+        <v>0.64</v>
+      </c>
+      <c r="M31" s="15">
+        <f>1-(1-G11)*(1-G31)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="N31" s="15">
+        <f>1-(1-H11)*(1-H31)</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="14">
+        <f>1-(1-C12)*(1-C32)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="J32" s="15">
+        <f>1-(1-D12)*(1-D32)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K32" s="15">
+        <f>1-(1-E12)*(1-E32)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="L32" s="15">
+        <f>1-(1-F12)*(1-F32)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="M32" s="15">
+        <f>1-(1-G12)*(1-G32)</f>
+        <v>0.27750000000000008</v>
+      </c>
+      <c r="N32" s="15">
+        <f>1-(1-H12)*(1-H32)</f>
+        <v>9.7500000000000031E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I33" s="14">
+        <f>1-(1-C13)*(1-C33)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="15">
+        <f>1-(1-D13)*(1-D33)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K33" s="15">
+        <f>1-(1-E13)*(1-E33)</f>
+        <v>0.64</v>
+      </c>
+      <c r="L33" s="15">
+        <f>1-(1-F13)*(1-F33)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="M33" s="15">
+        <f>1-(1-G13)*(1-G33)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="N33" s="15">
+        <f>1-(1-H13)*(1-H33)</f>
+        <v>0.27750000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="40">
+        <v>0.35</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="14">
+        <f>1-(1-C14)*(1-C34)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J34" s="15">
+        <f>1-(1-D14)*(1-D34)</f>
+        <v>0.64</v>
+      </c>
+      <c r="K34" s="15">
+        <f>1-(1-E14)*(1-E34)</f>
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L34" s="15">
+        <f>1-(1-F14)*(1-F34)</f>
+        <v>0.51</v>
+      </c>
+      <c r="M34" s="15">
+        <f>1-(1-G14)*(1-G34)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="N34" s="15">
+        <f>1-(1-H14)*(1-H34)</f>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="9">
+      <c r="B36" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="39">
+        <v>3</v>
+      </c>
+      <c r="F38" s="34">
+        <v>2</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="38">
+        <v>180</v>
+      </c>
+      <c r="F39" s="33">
+        <v>140</v>
+      </c>
+      <c r="G39" s="8">
+        <v>110</v>
+      </c>
+      <c r="H39" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="F41" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="38">
+        <v>3</v>
+      </c>
+      <c r="F44" s="33">
+        <v>3</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <f>13-SUM(C44:G44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="8">
         <v>5</v>
       </c>
-      <c r="D1" s="9">
-        <v>4</v>
-      </c>
-      <c r="E1" s="39">
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2</v>
+      </c>
+      <c r="F45" s="33">
         <v>3</v>
       </c>
-      <c r="F1" s="34">
-        <v>2</v>
-      </c>
-      <c r="G1" s="9">
-        <v>1</v>
-      </c>
-      <c r="H1" s="9">
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" ref="J45:J47" si="0">13-SUM(C45:G45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C46" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
-        <v>4</v>
-      </c>
-      <c r="E2" s="40">
-        <v>3</v>
-      </c>
-      <c r="F2" s="35">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="D46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1</v>
+      </c>
+      <c r="F46" s="33">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="F3" s="36">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="E4" s="41">
-        <v>1.55</v>
-      </c>
-      <c r="F4" s="36">
-        <v>1.45</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H6" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" s="40">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E14" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="41">
-        <v>0.35</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="12">
-        <v>5</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4</v>
-      </c>
-      <c r="E17" s="40">
-        <v>3</v>
-      </c>
-      <c r="F17" s="35">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="F27" s="36">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="12">
-        <v>5</v>
-      </c>
-      <c r="D29" s="12">
-        <v>4</v>
-      </c>
-      <c r="E29" s="40">
-        <v>3</v>
-      </c>
-      <c r="F29" s="35">
-        <v>2</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="F31" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="I31" s="15">
-        <f>1-(1-C12)*(1-C31)</f>
-        <v>0.7975000000000001</v>
-      </c>
-      <c r="J31" s="16">
-        <f>1-(1-D12)*(1-D31)</f>
-        <v>0.75</v>
-      </c>
-      <c r="K31" s="16">
-        <f>1-(1-E12)*(1-E31)</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="L31" s="16">
-        <f>1-(1-F12)*(1-F31)</f>
-        <v>0.64</v>
-      </c>
-      <c r="M31" s="16">
-        <f>1-(1-G12)*(1-G31)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="N31" s="16">
-        <f>1-(1-H12)*(1-H31)</f>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F32" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I32" s="15">
-        <f>1-(1-C13)*(1-C32)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="J32" s="16">
-        <f>1-(1-D13)*(1-D32)</f>
-        <v>0.51</v>
-      </c>
-      <c r="K32" s="16">
-        <f>1-(1-E13)*(1-E32)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="L32" s="16">
-        <f>1-(1-F13)*(1-F32)</f>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="M32" s="16">
-        <f>1-(1-G13)*(1-G32)</f>
-        <v>0.27750000000000008</v>
-      </c>
-      <c r="N32" s="16">
-        <f>1-(1-H13)*(1-H32)</f>
-        <v>9.7500000000000031E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I33" s="15">
-        <f>1-(1-C14)*(1-C33)</f>
-        <v>0.75</v>
-      </c>
-      <c r="J33" s="16">
-        <f>1-(1-D14)*(1-D33)</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="K33" s="16">
-        <f>1-(1-E14)*(1-E33)</f>
-        <v>0.64</v>
-      </c>
-      <c r="L33" s="16">
-        <f>1-(1-F14)*(1-F33)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="M33" s="16">
-        <f>1-(1-G14)*(1-G33)</f>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="N33" s="16">
-        <f>1-(1-H14)*(1-H33)</f>
-        <v>0.27750000000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0.35</v>
-      </c>
-      <c r="F34" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I34" s="15">
-        <f>1-(1-C15)*(1-C34)</f>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J34" s="16">
-        <f>1-(1-D15)*(1-D34)</f>
-        <v>0.64</v>
-      </c>
-      <c r="K34" s="16">
-        <f>1-(1-E15)*(1-E34)</f>
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="L34" s="16">
-        <f>1-(1-F15)*(1-F34)</f>
-        <v>0.51</v>
-      </c>
-      <c r="M34" s="16">
-        <f>1-(1-G15)*(1-G34)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="N34" s="16">
-        <f>1-(1-H15)*(1-H34)</f>
-        <v>0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="F35" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="F36" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="40" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="35">
-        <v>2</v>
-      </c>
-      <c r="G40" s="12">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="39">
-        <v>180</v>
-      </c>
-      <c r="F41" s="34">
-        <v>140</v>
-      </c>
-      <c r="G41" s="9">
-        <v>110</v>
-      </c>
-      <c r="H41" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E42" s="39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F42" s="34">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="F43" s="36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="9">
-        <v>3</v>
-      </c>
-      <c r="D46" s="9">
-        <v>3</v>
-      </c>
-      <c r="E46" s="39">
-        <v>3</v>
-      </c>
-      <c r="F46" s="34">
-        <v>3</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="J46" s="9">
-        <f>13-SUM(C46:G46)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="9">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2</v>
-      </c>
-      <c r="E47" s="39">
-        <v>2</v>
-      </c>
-      <c r="F47" s="34">
-        <v>3</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" ref="J47:J49" si="0">13-SUM(C47:G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C48" s="9">
-        <v>5</v>
-      </c>
-      <c r="D48" s="9">
-        <v>5</v>
-      </c>
-      <c r="E48" s="39">
-        <v>1</v>
-      </c>
-      <c r="F48" s="34">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="9">
+      <c r="J47" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3498,8 +3523,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -3645,7 +3670,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B5">
@@ -3742,7 +3767,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -3890,95 +3915,95 @@
       <c r="A15">
         <v>97</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <f>($A$15/$Q$14)*B14</f>
         <v>48.5</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <f t="shared" ref="C15:X15" si="0">($A$15/$Q$14)*C14</f>
         <v>87.3</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f t="shared" si="0"/>
         <v>67.900000000000006</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="44">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="44">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="44">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="44">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f t="shared" si="0"/>
         <v>59.17</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="44">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="44">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="44">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="44">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="44">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="44">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="44">
         <f t="shared" si="0"/>
         <v>77.600000000000009</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="44">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="44">
         <f t="shared" si="0"/>
         <v>30.07</v>
       </c>
-      <c r="W15" s="45">
+      <c r="W15" s="44">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
-      <c r="X15" s="45">
+      <c r="X15" s="44">
         <f t="shared" si="0"/>
         <v>27.16</v>
       </c>
@@ -3993,7 +4018,7 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F18" t="s">
@@ -4010,86 +4035,86 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.25</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.25</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>0.17</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>0.17</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>0.25</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>0.25</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>0.17</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>0.17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.25</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.25</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>0.33</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>0.33</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>0.25</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>0.25</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>0.33</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -4130,7 +4155,7 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="3" customWidth="1"/>
     <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="10" width="6.375" bestFit="1" customWidth="1"/>
@@ -4156,7 +4181,7 @@
       <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F1" t="s">
@@ -4227,7 +4252,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="L2">
@@ -4247,7 +4272,7 @@
       <c r="A3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="L3">
@@ -4274,7 +4299,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="L4">
@@ -4301,7 +4326,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="L5">
@@ -4328,7 +4353,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="L6">
@@ -4355,7 +4380,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="L7">
@@ -4382,7 +4407,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="L8">
@@ -4409,7 +4434,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
       <c r="L9">
@@ -4436,7 +4461,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
       <c r="L10">
@@ -4463,7 +4488,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="L11">
@@ -4490,7 +4515,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>9</v>
       </c>
       <c r="L12">
@@ -4517,7 +4542,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="I13">
@@ -4556,8 +4581,8 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="K14">
@@ -4596,8 +4621,8 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="K15">
@@ -4633,7 +4658,7 @@
       <c r="A16">
         <v>1.4</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="K16">
@@ -4669,7 +4694,7 @@
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="K17">
@@ -4705,10 +4730,10 @@
       <c r="A18">
         <v>1.6</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="J18">
@@ -4744,10 +4769,10 @@
       <c r="A19">
         <v>1.7</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="L19">
@@ -4771,10 +4796,10 @@
       <c r="A20">
         <v>1.8</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="L20">
@@ -4798,10 +4823,10 @@
       <c r="A21">
         <v>1.9</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="L21">
@@ -4825,10 +4850,10 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="L22">
@@ -4852,10 +4877,10 @@
       <c r="A23">
         <v>2.1</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="L23">
@@ -4879,10 +4904,10 @@
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="L24">
@@ -4906,10 +4931,10 @@
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="L25">
@@ -4933,10 +4958,10 @@
       <c r="A26">
         <v>2.4</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="L26">
@@ -4960,10 +4985,10 @@
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="L27">
@@ -4987,13 +5012,13 @@
       <c r="A28">
         <v>2.6</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -5015,13 +5040,13 @@
       <c r="A29">
         <v>2.7</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7"/>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -5043,13 +5068,13 @@
       <c r="A30">
         <v>2.8</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7"/>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -5074,13 +5099,13 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7"/>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="I31">
         <v>28</v>
       </c>
@@ -5117,7 +5142,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="L32">
@@ -5144,7 +5169,7 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>3</v>
       </c>
       <c r="L33">
@@ -5171,7 +5196,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>4</v>
       </c>
       <c r="L34">
@@ -5198,7 +5223,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>5</v>
       </c>
       <c r="L35">
@@ -5225,7 +5250,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>6</v>
       </c>
       <c r="L36">
@@ -5252,7 +5277,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>7</v>
       </c>
       <c r="L37">
@@ -5279,7 +5304,7 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>8</v>
       </c>
       <c r="L38">
@@ -5306,7 +5331,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>9</v>
       </c>
       <c r="L39">
@@ -5333,7 +5358,7 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>10</v>
       </c>
       <c r="L40">
@@ -5360,8 +5385,8 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8">
+      <c r="D41" s="6"/>
+      <c r="E41" s="7">
         <v>1</v>
       </c>
       <c r="K41">
@@ -5400,8 +5425,8 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8">
+      <c r="D42" s="6"/>
+      <c r="E42" s="7">
         <v>1</v>
       </c>
       <c r="K42">
@@ -5440,11 +5465,11 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="D43" s="6"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
         <v>1</v>
       </c>
       <c r="J43">
@@ -5480,10 +5505,10 @@
       <c r="A44">
         <v>4.2</v>
       </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
         <v>2</v>
       </c>
       <c r="L44">
@@ -5507,10 +5532,10 @@
       <c r="A45">
         <v>4.3</v>
       </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
         <v>3</v>
       </c>
       <c r="L45">
@@ -5534,10 +5559,10 @@
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
         <v>4</v>
       </c>
       <c r="L46">
@@ -5561,10 +5586,10 @@
       <c r="A47">
         <v>4.5</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
         <v>5</v>
       </c>
       <c r="L47">
@@ -5588,10 +5613,10 @@
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
         <v>6</v>
       </c>
       <c r="L48">
@@ -5615,10 +5640,10 @@
       <c r="A49">
         <v>4.7</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
         <v>7</v>
       </c>
       <c r="L49">
@@ -5642,10 +5667,10 @@
       <c r="A50">
         <v>4.8</v>
       </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
         <v>8</v>
       </c>
       <c r="L50">
@@ -5669,10 +5694,10 @@
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
         <v>9</v>
       </c>
       <c r="L51">
@@ -5696,10 +5721,10 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
         <v>10</v>
       </c>
       <c r="L52">
@@ -5723,10 +5748,10 @@
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7"/>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6"/>
       <c r="L53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5748,10 +5773,10 @@
       <c r="A54">
         <v>5.2</v>
       </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7"/>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6"/>
       <c r="L54">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5773,7 +5798,7 @@
       <c r="A55">
         <v>5.3</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>1</v>
       </c>
       <c r="K55">
@@ -5809,7 +5834,7 @@
       <c r="A56">
         <v>5.4</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>1</v>
       </c>
       <c r="K56">
@@ -5845,10 +5870,10 @@
       <c r="A57">
         <v>5.5</v>
       </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
         <v>1</v>
       </c>
       <c r="J57">
@@ -5884,10 +5909,10 @@
       <c r="A58">
         <v>5.6</v>
       </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
         <v>2</v>
       </c>
       <c r="L58">
@@ -5911,10 +5936,10 @@
       <c r="A59">
         <v>5.7</v>
       </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
         <v>3</v>
       </c>
       <c r="L59">
@@ -5938,10 +5963,10 @@
       <c r="A60">
         <v>5.8</v>
       </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
         <v>4</v>
       </c>
       <c r="L60">
@@ -5965,10 +5990,10 @@
       <c r="A61">
         <v>5.9</v>
       </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
         <v>5</v>
       </c>
       <c r="L61">
@@ -5992,10 +6017,10 @@
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
         <v>6</v>
       </c>
       <c r="L62">
@@ -6019,10 +6044,10 @@
       <c r="A63">
         <v>6.1</v>
       </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
         <v>7</v>
       </c>
       <c r="L63">
@@ -6046,10 +6071,10 @@
       <c r="A64">
         <v>6.2</v>
       </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
         <v>8</v>
       </c>
       <c r="L64">
@@ -6073,10 +6098,10 @@
       <c r="A65">
         <v>6.3</v>
       </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
         <v>9</v>
       </c>
       <c r="L65">
@@ -6100,10 +6125,10 @@
       <c r="A66">
         <v>6.4</v>
       </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
         <v>10</v>
       </c>
       <c r="L66">
@@ -6127,13 +6152,13 @@
       <c r="A67">
         <v>6.5</v>
       </c>
-      <c r="B67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7"/>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6"/>
       <c r="L67">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6155,13 +6180,13 @@
       <c r="A68">
         <v>6.6</v>
       </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7"/>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6"/>
       <c r="L68">
         <f t="shared" ref="L68:L112" si="4">L67-I68-J68+K68</f>
         <v>16</v>
@@ -6183,13 +6208,13 @@
       <c r="A69">
         <v>6.7</v>
       </c>
-      <c r="B69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7"/>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6"/>
       <c r="L69">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -6211,13 +6236,13 @@
       <c r="A70">
         <v>6.8</v>
       </c>
-      <c r="B70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7"/>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6"/>
       <c r="L70">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -6239,7 +6264,7 @@
       <c r="A71">
         <v>6.9</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>1</v>
       </c>
       <c r="L71">
@@ -6266,7 +6291,7 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>1</v>
       </c>
       <c r="I72">
@@ -6314,7 +6339,7 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>2</v>
       </c>
       <c r="L73">
@@ -6350,7 +6375,7 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>3</v>
       </c>
       <c r="L74">
@@ -6386,7 +6411,7 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>4</v>
       </c>
       <c r="L75">
@@ -6422,7 +6447,7 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>5</v>
       </c>
       <c r="L76">
@@ -6458,7 +6483,7 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>6</v>
       </c>
       <c r="L77">
@@ -6494,7 +6519,7 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>7</v>
       </c>
       <c r="L78">
@@ -6530,7 +6555,7 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>8</v>
       </c>
       <c r="L79">
@@ -6566,7 +6591,7 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>9</v>
       </c>
       <c r="L80">
@@ -6602,7 +6627,7 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>10</v>
       </c>
       <c r="L81">
@@ -6638,8 +6663,8 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8">
+      <c r="D82" s="6"/>
+      <c r="E82" s="7">
         <v>1</v>
       </c>
       <c r="K82">
@@ -6687,8 +6712,8 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="8">
+      <c r="D83" s="6"/>
+      <c r="E83" s="7">
         <v>1</v>
       </c>
       <c r="K83">
@@ -6736,8 +6761,8 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8">
+      <c r="D84" s="6"/>
+      <c r="E84" s="7">
         <v>1</v>
       </c>
       <c r="K84">
@@ -6785,8 +6810,8 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8">
+      <c r="D85" s="6"/>
+      <c r="E85" s="7">
         <v>1</v>
       </c>
       <c r="K85">
@@ -6834,11 +6859,11 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="5">
+      <c r="D86" s="6"/>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
         <v>1</v>
       </c>
       <c r="L86">
@@ -6871,10 +6896,10 @@
       <c r="A87">
         <v>8.5</v>
       </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="5">
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
         <v>2</v>
       </c>
       <c r="L87">
@@ -6907,10 +6932,10 @@
       <c r="A88">
         <v>8.6</v>
       </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="5">
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
         <v>3</v>
       </c>
       <c r="L88">
@@ -6943,10 +6968,10 @@
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="5">
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
         <v>4</v>
       </c>
       <c r="L89">
@@ -6979,10 +7004,10 @@
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="5">
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
         <v>5</v>
       </c>
       <c r="L90">
@@ -7015,10 +7040,10 @@
       <c r="A91">
         <v>8.9</v>
       </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="5">
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
         <v>6</v>
       </c>
       <c r="L91">
@@ -7051,10 +7076,10 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="E92" s="4">
-        <v>1</v>
-      </c>
-      <c r="F92" s="5">
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
         <v>7</v>
       </c>
       <c r="L92">
@@ -7087,10 +7112,10 @@
       <c r="A93">
         <v>9.1</v>
       </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="5">
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
         <v>8</v>
       </c>
       <c r="L93">
@@ -7123,10 +7148,10 @@
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E94" s="4">
-        <v>1</v>
-      </c>
-      <c r="F94" s="5">
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
         <v>9</v>
       </c>
       <c r="L94">
@@ -7159,10 +7184,10 @@
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="5">
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
         <v>10</v>
       </c>
       <c r="L95">
@@ -7195,13 +7220,13 @@
       <c r="A96">
         <v>9.4</v>
       </c>
-      <c r="B96" s="6">
-        <v>1</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="7"/>
+      <c r="B96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="6"/>
       <c r="L96">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -7232,13 +7257,13 @@
       <c r="A97">
         <v>9.5</v>
       </c>
-      <c r="B97" s="6">
-        <v>1</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7"/>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="6"/>
       <c r="L97">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -7269,13 +7294,13 @@
       <c r="A98">
         <v>9.6</v>
       </c>
-      <c r="B98" s="6">
-        <v>1</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
-      </c>
-      <c r="G98" s="7"/>
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6"/>
       <c r="L98">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -7309,13 +7334,13 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
-      <c r="E99" s="4">
-        <v>1</v>
-      </c>
-      <c r="G99" s="7"/>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="6"/>
       <c r="L99">
         <f t="shared" si="4"/>
         <v>-15</v>
@@ -7349,7 +7374,7 @@
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>2</v>
       </c>
       <c r="L100">
@@ -7376,7 +7401,7 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>3</v>
       </c>
       <c r="L101">
@@ -7403,7 +7428,7 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>4</v>
       </c>
       <c r="L102">
@@ -7430,7 +7455,7 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>5</v>
       </c>
       <c r="L103">
@@ -7457,7 +7482,7 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>6</v>
       </c>
       <c r="L104">
@@ -7484,7 +7509,7 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>7</v>
       </c>
       <c r="L105">
@@ -7511,7 +7536,7 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>8</v>
       </c>
       <c r="L106">
@@ -7538,7 +7563,7 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>9</v>
       </c>
       <c r="L107">
@@ -7565,7 +7590,7 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>10</v>
       </c>
       <c r="L108">
@@ -7592,8 +7617,8 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8">
+      <c r="D109" s="6"/>
+      <c r="E109" s="7">
         <v>1</v>
       </c>
       <c r="L109">
@@ -7620,8 +7645,8 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="8">
+      <c r="D110" s="6"/>
+      <c r="E110" s="7">
         <v>1</v>
       </c>
       <c r="L110">
@@ -7648,11 +7673,11 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="4">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5">
+      <c r="D111" s="6"/>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="L111">
@@ -7676,11 +7701,11 @@
       <c r="A112">
         <v>11</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="4">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
+      <c r="D112" s="6"/>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4">
         <v>2</v>
       </c>
       <c r="L112">
@@ -7704,10 +7729,10 @@
       <c r="A113">
         <v>11.1</v>
       </c>
-      <c r="E113" s="4">
-        <v>1</v>
-      </c>
-      <c r="F113" s="5">
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
         <v>3</v>
       </c>
     </row>
@@ -7715,10 +7740,10 @@
       <c r="A114">
         <v>11.2</v>
       </c>
-      <c r="E114" s="4">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5">
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4">
         <v>4</v>
       </c>
     </row>
@@ -7726,10 +7751,10 @@
       <c r="A115">
         <v>11.3</v>
       </c>
-      <c r="E115" s="4">
-        <v>1</v>
-      </c>
-      <c r="F115" s="5">
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4">
         <v>5</v>
       </c>
     </row>
@@ -7737,10 +7762,10 @@
       <c r="A116">
         <v>11.4</v>
       </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5">
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4">
         <v>6</v>
       </c>
     </row>
@@ -7748,10 +7773,10 @@
       <c r="A117">
         <v>11.5</v>
       </c>
-      <c r="E117" s="4">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5">
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4">
         <v>7</v>
       </c>
     </row>
@@ -7759,10 +7784,10 @@
       <c r="A118">
         <v>11.6</v>
       </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4">
         <v>8</v>
       </c>
     </row>
@@ -7770,10 +7795,10 @@
       <c r="A119">
         <v>11.7</v>
       </c>
-      <c r="E119" s="4">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5">
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4">
         <v>9</v>
       </c>
     </row>
@@ -7781,10 +7806,10 @@
       <c r="A120">
         <v>11.8</v>
       </c>
-      <c r="E120" s="4">
-        <v>1</v>
-      </c>
-      <c r="F120" s="5">
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
         <v>10</v>
       </c>
     </row>
@@ -7792,19 +7817,19 @@
       <c r="A121">
         <v>11.9</v>
       </c>
-      <c r="E121" s="4">
-        <v>1</v>
-      </c>
-      <c r="G121" s="7"/>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
-      <c r="E122" s="4">
-        <v>1</v>
-      </c>
-      <c r="G122" s="7"/>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -7820,7 +7845,7 @@
       <c r="A125">
         <v>12.3</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <f>SUM(E2:E122)</f>
         <v>80</v>
       </c>
@@ -7993,86 +8018,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="R4" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="S4">
         <v>50</v>
